--- a/jacobi/src/test/resources/jacobi/test/data/FullQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/FullQRTest.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="91">
   <si>
     <t>#1</t>
   </si>
@@ -264,9 +264,6 @@
     <t>Shift=</t>
   </si>
   <si>
-    <t>G1*A=</t>
-  </si>
-  <si>
     <t>Unit reflector</t>
   </si>
   <si>
@@ -285,12 +282,6 @@
     <t>#100</t>
   </si>
   <si>
-    <t>A=</t>
-  </si>
-  <si>
-    <t>A-kI=</t>
-  </si>
-  <si>
     <t>H1=</t>
   </si>
   <si>
@@ -300,25 +291,25 @@
     <t>Verification=</t>
   </si>
   <si>
-    <t>Deflate to 3x3 case</t>
+    <t>Deflation Ratio=</t>
   </si>
   <si>
-    <t>(Computed from Single Step 3x3 Template)</t>
+    <t>Deflation ratio</t>
   </si>
   <si>
-    <t>Deflate to 2x2 case</t>
+    <t>Deflated to 3x3 case</t>
   </si>
   <si>
-    <t>delta=</t>
+    <t>Deflated to 2x2 case</t>
   </si>
   <si>
-    <t>Both complex roots, halt.</t>
+    <t>Delta=</t>
   </si>
   <si>
-    <t>Verify by QR Decomp Template</t>
+    <t>Both complex root, Done.</t>
   </si>
   <si>
-    <t>Deflation Ratio=</t>
+    <t>G2*G1=</t>
   </si>
 </sst>
 </file>
@@ -679,17 +670,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF150"/>
+  <dimension ref="A1:AV192"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="AF173" sqref="AF173:AN176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1137,16 +1135,16 @@
     </row>
     <row r="22" spans="1:29">
       <c r="F22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P22" t="s">
         <v>21</v>
       </c>
       <c r="U22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -1626,24 +1624,24 @@
         <v>39.840365228706638</v>
       </c>
       <c r="F36">
-        <f>$J$25*A30</f>
-        <v>0</v>
+        <f>J30*A30</f>
+        <v>0.31408326011834786</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:I39" si="21">$J$25*B30</f>
-        <v>0</v>
+        <f>J30*B30</f>
+        <v>1.3790215815926354</v>
       </c>
       <c r="H36">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>J30*C30</f>
+        <v>-3.562611108895497E-2</v>
       </c>
       <c r="I36">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>J30*D30</f>
+        <v>-0.3228562101307404</v>
       </c>
       <c r="K36">
-        <f>$J$26</f>
-        <v>0</v>
+        <f>J31</f>
+        <v>-13.460558290299449</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -1669,27 +1667,27 @@
         <v>-34.931253708197787</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:F39" si="22">$J$25*A31</f>
-        <v>0</v>
+        <f>J30*A31</f>
+        <v>-0.52993551968264607</v>
       </c>
       <c r="G37">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>J30*B31</f>
+        <v>-0.6448735456782807</v>
       </c>
       <c r="H37">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>J30*C31</f>
+        <v>-1.1434836878528283</v>
       </c>
       <c r="I37">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>J30*D31</f>
+        <v>0.29472024293649052</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <f>$J$26</f>
-        <v>0</v>
+        <f>J31</f>
+        <v>-13.460558290299449</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -1712,20 +1710,20 @@
         <v>-31.485726682947245</v>
       </c>
       <c r="F38">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f>J30*A32</f>
+        <v>3.0804655553467803E-17</v>
       </c>
       <c r="G38">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>J30*B32</f>
+        <v>-0.83271384469830911</v>
       </c>
       <c r="H38">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>J30*C32</f>
+        <v>4.1724136540126862E-2</v>
       </c>
       <c r="I38">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>J30*D32</f>
+        <v>0.21117979536351303</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -1734,8 +1732,8 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <f>$J$26</f>
-        <v>0</v>
+        <f>J31</f>
+        <v>-13.460558290299449</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -1755,20 +1753,20 @@
         <v>13.426576790308852</v>
       </c>
       <c r="F39">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f>J30*A33</f>
+        <v>3.7907219482735829E-17</v>
       </c>
       <c r="G39">
-        <f t="shared" si="21"/>
+        <f>J30*B33</f>
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>J30*C33</f>
+        <v>0.48680017741836329</v>
       </c>
       <c r="I39">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>J30*D33</f>
+        <v>-3.3981499990594917E-2</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -1780,8 +1778,8 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <f>$J$26</f>
-        <v>0</v>
+        <f>J31</f>
+        <v>-13.460558290299449</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -1807,41 +1805,41 @@
     <row r="42" spans="1:29">
       <c r="A42">
         <f t="array" ref="A42:A45">A36:D39-F36:I39+K36:N39</f>
-        <v>-81.644569025588908</v>
+        <v>-95.419210576006705</v>
       </c>
       <c r="C42">
         <f>SQRT(SUMPRODUCT(A42:A44,A42:A44))</f>
-        <v>102.11149812217528</v>
+        <v>113.53424609079481</v>
       </c>
       <c r="D42">
         <f>A42+SIGN(A42)*C42</f>
-        <v>-183.75606714776418</v>
+        <v>-208.95345666680151</v>
       </c>
       <c r="E42">
         <f>D42/(SQRT(SUMPRODUCT(D42:D44,D42:D44)))</f>
-        <v>-0.94856811403307972</v>
+        <v>-0.95928210272934611</v>
       </c>
       <c r="G42">
         <f t="array" ref="G42:I44">MMULT(E42:E44,TRANSPOSE(E42:E44))</f>
-        <v>0.89978146696027372</v>
+        <v>0.92022215261683571</v>
       </c>
       <c r="H42">
-        <v>-0.11086188526221867</v>
+        <v>-0.10204181863638138</v>
       </c>
       <c r="I42">
-        <v>-0.27907780469109039</v>
+        <v>-0.2509996209149582</v>
       </c>
       <c r="K42">
         <f>1-2*G42</f>
-        <v>-0.79956293392054745</v>
+        <v>-0.84044430523367142</v>
       </c>
       <c r="L42">
-        <f t="shared" ref="L42:M43" si="23">-2*H42</f>
-        <v>0.22172377052443734</v>
+        <f t="shared" ref="L42:M43" si="21">-2*H42</f>
+        <v>0.20408363727276277</v>
       </c>
       <c r="M42">
-        <f t="shared" si="23"/>
-        <v>0.55815560938218078</v>
+        <f t="shared" si="21"/>
+        <v>0.5019992418299164</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -1849,36 +1847,36 @@
     </row>
     <row r="43" spans="1:29">
       <c r="A43">
-        <v>22.640546377547704</v>
+        <v>23.170481897230349</v>
       </c>
       <c r="D43">
         <f>A43</f>
-        <v>22.640546377547704</v>
+        <v>23.170481897230349</v>
       </c>
       <c r="E43">
         <f>D43/(SQRT(SUMPRODUCT(D42:D44,D42:D44)))</f>
-        <v>0.11687287778508708</v>
+        <v>0.10637310791690198</v>
       </c>
       <c r="G43">
-        <v>-0.11086188526221867</v>
+        <v>-0.10204181863638138</v>
       </c>
       <c r="H43">
-        <v>1.3659269561767901E-2</v>
+        <v>1.1315238087900874E-2</v>
       </c>
       <c r="I43">
-        <v>3.4385117607964165E-2</v>
+        <v>2.7832907219599638E-2</v>
       </c>
       <c r="K43">
-        <f t="shared" ref="K43:L44" si="24">-2*G43</f>
-        <v>0.22172377052443734</v>
+        <f t="shared" ref="K43:L44" si="22">-2*G43</f>
+        <v>0.20408363727276277</v>
       </c>
       <c r="L43">
         <f>1-2*H43</f>
-        <v>0.97268146087646423</v>
+        <v>0.97736952382419828</v>
       </c>
       <c r="M43">
-        <f t="shared" si="23"/>
-        <v>-6.877023521592833E-2</v>
+        <f t="shared" si="21"/>
+        <v>-5.5665814439199275E-2</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -1894,28 +1892,28 @@
       </c>
       <c r="E44">
         <f>D44/(SQRT(SUMPRODUCT(D42:D44,D42:D44)))</f>
-        <v>0.2942095570812725</v>
+        <v>0.26165360554607969</v>
       </c>
       <c r="G44">
-        <v>-0.27907780469109039</v>
+        <v>-0.2509996209149582</v>
       </c>
       <c r="H44">
-        <v>3.4385117607964165E-2</v>
+        <v>2.7832907219599638E-2</v>
       </c>
       <c r="I44">
-        <v>8.6559263477958545E-2</v>
+        <v>6.846260929526346E-2</v>
       </c>
       <c r="K44">
-        <f t="shared" si="24"/>
-        <v>0.55815560938218078</v>
+        <f t="shared" si="22"/>
+        <v>0.5019992418299164</v>
       </c>
       <c r="L44">
-        <f t="shared" si="24"/>
-        <v>-6.877023521592833E-2</v>
+        <f t="shared" si="22"/>
+        <v>-5.5665814439199275E-2</v>
       </c>
       <c r="M44">
         <f>1-2*I44</f>
-        <v>0.82688147304408288</v>
+        <v>0.86307478140947302</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -1923,7 +1921,7 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45">
-        <v>3.3081225656848687E-15</v>
+        <v>3.2702153462021327E-15</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -1955,30 +1953,30 @@
     <row r="47" spans="1:29">
       <c r="A47">
         <f t="array" ref="A47:D50">MMULT(MMULT(K42:N45,A30:D33),K42:N45)</f>
-        <v>2.2400393849525808</v>
+        <v>1.4496638849982737</v>
       </c>
       <c r="B47">
-        <v>19.678044809811343</v>
+        <v>19.72605120387048</v>
       </c>
       <c r="C47">
-        <v>2.8975660441800501</v>
+        <v>2.8319038805063208</v>
       </c>
       <c r="D47">
-        <v>-5.0159135098809191</v>
+        <v>-4.9720552174026125</v>
       </c>
       <c r="F47" t="s">
         <v>26</v>
       </c>
       <c r="G47">
         <f>SQRT(A48*A48+A49*A49)</f>
-        <v>3.8740077250384428</v>
+        <v>3.0844412747322685</v>
       </c>
       <c r="H47" t="s">
         <v>27</v>
       </c>
       <c r="I47">
         <f>A48/G47</f>
-        <v>0.96497185781470074</v>
+        <v>0.90696404618447812</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -2006,61 +2004,61 @@
       </c>
       <c r="U47">
         <f t="array" ref="U47:X50">MMULT(P47:S50,MMULT(K47:N50,A47:D50))</f>
-        <v>2.2400393849525808</v>
+        <v>1.4496638849982737</v>
       </c>
       <c r="V47">
-        <v>19.678044809811343</v>
+        <v>19.72605120387048</v>
       </c>
       <c r="W47">
-        <v>2.8975660441800501</v>
+        <v>2.8319038805063208</v>
       </c>
       <c r="X47">
-        <v>-5.0159135098809191</v>
+        <v>-4.9720552174026125</v>
       </c>
       <c r="Z47">
         <f t="array" ref="Z47:AC50">MMULT(MMULT(U47:X50,TRANSPOSE(K47:N50)), TRANSPOSE(P47:S50))</f>
-        <v>2.2400393849525808</v>
+        <v>1.4496638849982737</v>
       </c>
       <c r="AA47">
-        <v>18.569743850601828</v>
+        <v>17.50891027645994</v>
       </c>
       <c r="AB47">
-        <v>-2.3665325399622592</v>
+        <v>-5.74033650240023</v>
       </c>
       <c r="AC47">
-        <v>8.3871843854937165</v>
+        <v>9.0743984120785903</v>
       </c>
     </row>
     <row r="48" spans="1:29">
       <c r="A48">
-        <v>3.7383084316188486</v>
+        <v>2.7974773387495877</v>
       </c>
       <c r="B48">
-        <v>3.1665183829670243</v>
+        <v>3.6994210131030325</v>
       </c>
       <c r="C48">
-        <v>13.174620701395314</v>
+        <v>13.454004377544743</v>
       </c>
       <c r="D48">
-        <v>-2.2793044803654388</v>
+        <v>-2.3911811763871524</v>
       </c>
       <c r="H48" t="s">
         <v>28</v>
       </c>
       <c r="I48">
         <f>A49/G47</f>
-        <v>0.26235341359632619</v>
+        <v>0.42120804708443066</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
         <f>I47</f>
-        <v>0.96497185781470074</v>
+        <v>0.90696404618447812</v>
       </c>
       <c r="M48">
         <f>I48</f>
-        <v>0.26235341359632619</v>
+        <v>0.42120804708443066</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -2070,77 +2068,77 @@
       </c>
       <c r="Q48">
         <f>I49</f>
-        <v>0.7819819812642268</v>
+        <v>0.74314834258479912</v>
       </c>
       <c r="R48">
         <v>0</v>
       </c>
       <c r="S48">
         <f>I50</f>
-        <v>-0.6233010355984292</v>
+        <v>-0.66912670019471365</v>
       </c>
       <c r="U48">
-        <v>4.9540882243544164</v>
+        <v>4.1505054885866342</v>
       </c>
       <c r="V48">
-        <v>1.7731573024572733</v>
+        <v>2.1347589520465347</v>
       </c>
       <c r="W48">
-        <v>12.357551963114377</v>
+        <v>11.679605740388226</v>
       </c>
       <c r="X48">
-        <v>-1.9003798936643528</v>
+        <v>-1.8835484982932904</v>
       </c>
       <c r="Z48">
-        <v>4.9540882243544164</v>
+        <v>4.1505054885866342</v>
       </c>
       <c r="AA48">
-        <v>5.0577381062576681</v>
+        <v>6.355129883881677</v>
       </c>
       <c r="AB48">
-        <v>11.459496004745263</v>
+        <v>9.693804830954436</v>
       </c>
       <c r="AC48">
-        <v>1.6012050606682826</v>
+        <v>3.1875716522195781</v>
       </c>
     </row>
     <row r="49" spans="1:29">
       <c r="A49">
-        <v>1.0163591509623733</v>
+        <v>1.2991914856765907</v>
       </c>
       <c r="B49">
-        <v>-1.8480009000574296</v>
+        <v>-0.48756922695480642</v>
       </c>
       <c r="C49">
-        <v>-2.1214259536655224</v>
+        <v>-1.8639530838472218</v>
       </c>
       <c r="D49">
-        <v>0.29379091969493043</v>
+        <v>-4.3009930321665113E-2</v>
       </c>
       <c r="F49" t="s">
         <v>26</v>
       </c>
       <c r="G49">
         <f>SQRT(G47*G47+A50*A50)</f>
-        <v>4.9540882243544173</v>
+        <v>4.1505054885866333</v>
       </c>
       <c r="H49" t="s">
         <v>27</v>
       </c>
       <c r="I49">
         <f>G47/G49</f>
-        <v>0.7819819812642268</v>
+        <v>0.74314834258479912</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
         <f>-M48</f>
-        <v>-0.26235341359632619</v>
+        <v>-0.42120804708443066</v>
       </c>
       <c r="M49">
         <f>L48</f>
-        <v>0.96497185781470074</v>
+        <v>0.90696404618447812</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -2158,39 +2156,39 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <v>-1.1102230246251565E-16</v>
+        <v>2.2204460492503131E-16</v>
       </c>
       <c r="V49">
-        <v>-2.6140157687585748</v>
+        <v>-2.0004336591462035</v>
       </c>
       <c r="W49">
-        <v>-5.5035230575728287</v>
+        <v>-7.3574733401551153</v>
       </c>
       <c r="X49">
-        <v>0.88148328063637982</v>
+        <v>0.96817629310043418</v>
       </c>
       <c r="Z49">
-        <v>-1.1102230246251565E-16</v>
+        <v>2.2204460492503131E-16</v>
       </c>
       <c r="AA49">
-        <v>-3.6510199897268771</v>
+        <v>-4.2991793153582361</v>
       </c>
       <c r="AB49">
-        <v>-4.624948909263658</v>
+        <v>-5.8303650353905763</v>
       </c>
       <c r="AC49">
-        <v>-1.7829071428179846</v>
+        <v>-2.5681539826791888</v>
       </c>
     </row>
     <row r="50" spans="1:29">
       <c r="A50">
-        <v>-3.0878883206860914</v>
+        <v>-2.7772140417180218</v>
       </c>
       <c r="B50">
-        <v>0.38045807041006846</v>
+        <v>0.30796038842742518</v>
       </c>
       <c r="C50">
-        <v>-4.5745623626909131</v>
+        <v>-4.7747948647205636</v>
       </c>
       <c r="D50">
         <v>0.38618740760105197</v>
@@ -2200,7 +2198,7 @@
       </c>
       <c r="I50">
         <f>A50/G49</f>
-        <v>-0.6233010355984292</v>
+        <v>-0.66912670019471365</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -2219,38 +2217,38 @@
       </c>
       <c r="Q50">
         <f>-S48</f>
-        <v>0.6233010355984292</v>
+        <v>0.66912670019471365</v>
       </c>
       <c r="R50">
         <v>0</v>
       </c>
       <c r="S50">
         <f>Q48</f>
-        <v>0.7819819812642268</v>
+        <v>0.74314834258479912</v>
       </c>
       <c r="U50">
         <v>4.4408920985006262E-16</v>
       </c>
       <c r="V50">
-        <v>1.8998760699175312</v>
+        <v>2.3365248931081521</v>
       </c>
       <c r="W50">
-        <v>3.9999803682468458</v>
+        <v>4.0911632438630088</v>
       </c>
       <c r="X50">
-        <v>-1.0208948125118298</v>
+        <v>-1.1762728026523166</v>
       </c>
       <c r="Z50">
         <v>4.4408920985006262E-16</v>
       </c>
       <c r="AA50">
-        <v>2.8905719684092857</v>
+        <v>3.6425301156268208</v>
       </c>
       <c r="AB50">
-        <v>3.3614295148166531</v>
+        <v>2.7263748820649667</v>
       </c>
       <c r="AC50">
-        <v>0.99849063990854281</v>
+        <v>1.6968904883657627</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -2267,33 +2265,33 @@
     <row r="52" spans="1:29">
       <c r="A52">
         <f>Z47</f>
-        <v>2.2400393849525808</v>
+        <v>1.4496638849982737</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52:D55" si="25">AA47</f>
-        <v>18.569743850601828</v>
+        <f t="shared" ref="B52:D55" si="23">AA47</f>
+        <v>17.50891027645994</v>
       </c>
       <c r="C52">
-        <f t="shared" si="25"/>
-        <v>-2.3665325399622592</v>
+        <f t="shared" si="23"/>
+        <v>-5.74033650240023</v>
       </c>
       <c r="D52">
-        <f t="shared" si="25"/>
-        <v>8.3871843854937165</v>
+        <f t="shared" si="23"/>
+        <v>9.0743984120785903</v>
       </c>
       <c r="F52" t="s">
         <v>26</v>
       </c>
       <c r="G52">
         <f>SQRT(B54*B54+B55*B55)</f>
-        <v>4.6567535118297574</v>
+        <v>5.6347997683016606</v>
       </c>
       <c r="H52" t="s">
         <v>27</v>
       </c>
       <c r="I52">
         <f>B54/G52</f>
-        <v>-0.78402689351111865</v>
+        <v>-0.76296931428568171</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -2309,54 +2307,54 @@
       </c>
       <c r="P52">
         <f t="array" ref="P52:S55">MMULT(K52:N55,A52:D55)</f>
-        <v>2.2400393849525808</v>
+        <v>1.4496638849982737</v>
       </c>
       <c r="Q52">
-        <v>18.569743850601828</v>
+        <v>17.50891027645994</v>
       </c>
       <c r="R52">
-        <v>-2.3665325399622592</v>
+        <v>-5.74033650240023</v>
       </c>
       <c r="S52">
-        <v>8.3871843854937165</v>
+        <v>9.0743984120785903</v>
       </c>
       <c r="U52">
         <f t="array" ref="U52:X55">MMULT(P52:S55,TRANSPOSE(K52:N55))</f>
-        <v>2.2400393849525808</v>
+        <v>1.4496638849982737</v>
       </c>
       <c r="V52">
-        <v>18.569743850601828</v>
+        <v>17.50891027645994</v>
       </c>
       <c r="W52">
-        <v>7.0615757533210193</v>
+        <v>10.245706648935293</v>
       </c>
       <c r="X52">
-        <v>-5.1068078149738998</v>
+        <v>-3.2127348110116514</v>
       </c>
     </row>
     <row r="53" spans="1:29">
       <c r="A53">
-        <f t="shared" ref="A53:A55" si="26">Z48</f>
-        <v>4.9540882243544164</v>
+        <f t="shared" ref="A53:A55" si="24">Z48</f>
+        <v>4.1505054885866342</v>
       </c>
       <c r="B53">
-        <f t="shared" si="25"/>
-        <v>5.0577381062576681</v>
+        <f t="shared" si="23"/>
+        <v>6.355129883881677</v>
       </c>
       <c r="C53">
-        <f t="shared" si="25"/>
-        <v>11.459496004745263</v>
+        <f t="shared" si="23"/>
+        <v>9.693804830954436</v>
       </c>
       <c r="D53">
-        <f t="shared" si="25"/>
-        <v>1.6012050606682826</v>
+        <f t="shared" si="23"/>
+        <v>3.1875716522195781</v>
       </c>
       <c r="H53" t="s">
         <v>28</v>
       </c>
       <c r="I53">
         <f>B55/G52</f>
-        <v>0.62072685639603586</v>
+        <v>0.64643470316686802</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -2371,46 +2369,46 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>4.9540882243544164</v>
+        <v>4.1505054885866342</v>
       </c>
       <c r="Q53">
-        <v>5.0577381062576681</v>
+        <v>6.355129883881677</v>
       </c>
       <c r="R53">
-        <v>11.459496004745263</v>
+        <v>9.693804830954436</v>
       </c>
       <c r="S53">
-        <v>1.6012050606682826</v>
+        <v>3.1875716522195781</v>
       </c>
       <c r="U53">
-        <v>4.9540882243544164</v>
+        <v>4.1505054885866342</v>
       </c>
       <c r="V53">
-        <v>5.0577381062576681</v>
+        <v>6.355129883881677</v>
       </c>
       <c r="W53">
-        <v>-7.9906420700494571</v>
+        <v>-5.3355186898668485</v>
       </c>
       <c r="X53">
-        <v>-8.3686047604984957</v>
+        <v>-8.6984312061860312</v>
       </c>
     </row>
     <row r="54" spans="1:29">
       <c r="A54">
-        <f t="shared" si="26"/>
-        <v>-1.1102230246251565E-16</v>
+        <f t="shared" si="24"/>
+        <v>2.2204460492503131E-16</v>
       </c>
       <c r="B54">
-        <f t="shared" si="25"/>
-        <v>-3.6510199897268771</v>
+        <f t="shared" si="23"/>
+        <v>-4.2991793153582361</v>
       </c>
       <c r="C54">
-        <f t="shared" si="25"/>
-        <v>-4.624948909263658</v>
+        <f t="shared" si="23"/>
+        <v>-5.8303650353905763</v>
       </c>
       <c r="D54">
-        <f t="shared" si="25"/>
-        <v>-1.7829071428179846</v>
+        <f t="shared" si="23"/>
+        <v>-2.5681539826791888</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -2420,53 +2418,53 @@
       </c>
       <c r="M54">
         <f>I52</f>
-        <v>-0.78402689351111865</v>
+        <v>-0.76296931428568171</v>
       </c>
       <c r="N54">
         <f>I53</f>
-        <v>0.62072685639603586</v>
+        <v>0.64643470316686802</v>
       </c>
       <c r="P54">
-        <v>3.6270257009976683E-16</v>
+        <v>1.1766145658854795E-16</v>
       </c>
       <c r="Q54">
-        <v>4.6567535118297574</v>
+        <v>5.6347997683016615</v>
       </c>
       <c r="R54">
-        <v>5.7126139017066153</v>
+        <v>6.2108129506964334</v>
       </c>
       <c r="S54">
-        <v>2.017637104653665</v>
+        <v>3.0563515822981868</v>
       </c>
       <c r="U54">
-        <v>3.6270257009976683E-16</v>
+        <v>1.1766145658854795E-16</v>
       </c>
       <c r="V54">
-        <v>4.6567535118297574</v>
+        <v>5.6347997683016615</v>
       </c>
       <c r="W54">
-        <v>-3.2264413938637992</v>
+        <v>-2.7629279702729734</v>
       </c>
       <c r="X54">
-        <v>-5.1278546204050208</v>
+        <v>-6.3467874971703946</v>
       </c>
     </row>
     <row r="55" spans="1:29">
       <c r="A55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>4.4408920985006262E-16</v>
       </c>
       <c r="B55">
-        <f t="shared" si="25"/>
-        <v>2.8905719684092857</v>
+        <f t="shared" si="23"/>
+        <v>3.6425301156268208</v>
       </c>
       <c r="C55">
-        <f t="shared" si="25"/>
-        <v>3.3614295148166531</v>
+        <f t="shared" si="23"/>
+        <v>2.7263748820649667</v>
       </c>
       <c r="D55">
-        <f t="shared" si="25"/>
-        <v>0.99849063990854281</v>
+        <f t="shared" si="23"/>
+        <v>1.6968904883657627</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -2476,35 +2474,35 @@
       </c>
       <c r="M55">
         <f>-N54</f>
-        <v>-0.62072685639603586</v>
+        <v>-0.64643470316686802</v>
       </c>
       <c r="N55">
         <f>M54</f>
-        <v>-0.78402689351111865</v>
+        <v>-0.76296931428568171</v>
       </c>
       <c r="P55">
-        <v>-2.7926335884314467E-16</v>
+        <v>-4.8236377819548958E-16</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-4.4408920985006262E-16</v>
       </c>
       <c r="R55">
-        <v>0.23537885718121787</v>
+        <v>1.6888099167523793</v>
       </c>
       <c r="S55">
-        <v>0.32385483140002191</v>
+        <v>0.36546848515370978</v>
       </c>
       <c r="U55">
-        <v>-2.7926335884314467E-16</v>
+        <v>-4.8236377819548958E-16</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>-4.4408920985006262E-16</v>
       </c>
       <c r="W55">
-        <v>1.6482037229616303E-2</v>
+        <v>-1.0522586324262388</v>
       </c>
       <c r="X55">
-        <v>-0.40001687549131515</v>
+        <v>-1.3705465767518401</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -2523,103 +2521,103 @@
     <row r="59" spans="1:29">
       <c r="A59">
         <f>U52</f>
-        <v>2.2400393849525808</v>
+        <v>1.4496638849982737</v>
       </c>
       <c r="B59">
-        <f t="shared" ref="B59:D59" si="27">V52</f>
-        <v>18.569743850601828</v>
+        <f t="shared" ref="B59:D59" si="25">V52</f>
+        <v>17.50891027645994</v>
       </c>
       <c r="C59">
-        <f t="shared" si="27"/>
-        <v>7.0615757533210193</v>
+        <f t="shared" si="25"/>
+        <v>10.245706648935293</v>
       </c>
       <c r="D59">
-        <f t="shared" si="27"/>
-        <v>-5.1068078149738998</v>
+        <f t="shared" si="25"/>
+        <v>-3.2127348110116514</v>
       </c>
       <c r="F59">
         <f>C61</f>
-        <v>-3.2264413938637992</v>
+        <v>-2.7629279702729734</v>
       </c>
       <c r="G59">
         <f>D61</f>
-        <v>-5.1278546204050208</v>
+        <v>-6.3467874971703946</v>
       </c>
       <c r="I59" t="s">
         <v>11</v>
       </c>
       <c r="J59">
         <f>F59+G60</f>
-        <v>-3.6264582693551146</v>
+        <v>-4.1334745470248135</v>
       </c>
     </row>
     <row r="60" spans="1:29">
       <c r="A60">
-        <f t="shared" ref="A60:A62" si="28">U53</f>
-        <v>4.9540882243544164</v>
+        <f t="shared" ref="A60:A62" si="26">U53</f>
+        <v>4.1505054885866342</v>
       </c>
       <c r="B60">
-        <f t="shared" ref="B60:B62" si="29">V53</f>
-        <v>5.0577381062576681</v>
+        <f t="shared" ref="B60:B62" si="27">V53</f>
+        <v>6.355129883881677</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:C62" si="30">W53</f>
-        <v>-7.9906420700494571</v>
+        <f t="shared" ref="C60:C62" si="28">W53</f>
+        <v>-5.3355186898668485</v>
       </c>
       <c r="D60">
-        <f t="shared" ref="D60:D62" si="31">X53</f>
-        <v>-8.3686047604984957</v>
+        <f t="shared" ref="D60:D62" si="29">X53</f>
+        <v>-8.6984312061860312</v>
       </c>
       <c r="F60">
         <f>C62</f>
-        <v>1.6482037229616303E-2</v>
+        <v>-1.0522586324262388</v>
       </c>
       <c r="G60">
         <f>D62</f>
-        <v>-0.40001687549131515</v>
+        <v>-1.3705465767518401</v>
       </c>
       <c r="I60" t="s">
         <v>12</v>
       </c>
       <c r="J60">
         <f>F59*G60-F60*G59</f>
-        <v>1.3751484960908162</v>
+        <v>-2.8917404606029367</v>
       </c>
     </row>
     <row r="61" spans="1:29">
       <c r="A61">
+        <f t="shared" si="26"/>
+        <v>1.1766145658854795E-16</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="27"/>
+        <v>5.6347997683016615</v>
+      </c>
+      <c r="C61">
         <f t="shared" si="28"/>
-        <v>3.6270257009976683E-16</v>
-      </c>
-      <c r="B61">
+        <v>-2.7629279702729734</v>
+      </c>
+      <c r="D61">
         <f t="shared" si="29"/>
-        <v>4.6567535118297574</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="30"/>
-        <v>-3.2264413938637992</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="31"/>
-        <v>-5.1278546204050208</v>
+        <v>-6.3467874971703946</v>
       </c>
     </row>
     <row r="62" spans="1:29">
       <c r="A62">
+        <f t="shared" si="26"/>
+        <v>-4.8236377819548958E-16</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="27"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="C62">
         <f t="shared" si="28"/>
-        <v>-2.7926335884314467E-16</v>
-      </c>
-      <c r="B62">
+        <v>-1.0522586324262388</v>
+      </c>
+      <c r="D62">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="30"/>
-        <v>1.6482037229616303E-2</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="31"/>
-        <v>-0.40001687549131515</v>
+        <v>-1.3705465767518401</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -2636,36 +2634,36 @@
     <row r="65" spans="1:29">
       <c r="A65">
         <f t="array" ref="A65:D68">MMULT(A59:D62,A59:D62)</f>
-        <v>97.013925785683099</v>
+        <v>74.772353581086179</v>
       </c>
       <c r="B65">
-        <v>168.40187637879146</v>
+        <v>194.38593927710005</v>
       </c>
       <c r="C65">
-        <v>-155.43389954834666</v>
+        <v>-103.49380865097736</v>
       </c>
       <c r="D65">
-        <v>-201.01022197443604</v>
+        <v>-217.58155732456538</v>
       </c>
       <c r="F65">
         <f>J59*A59</f>
-        <v>-8.1234093512424312</v>
+        <v>-5.9921487703814709</v>
       </c>
       <c r="G65">
         <f>J59*B59</f>
-        <v>-67.342401146821288</v>
+        <v>-72.372634973888353</v>
       </c>
       <c r="H65">
         <f>J59*C59</f>
-        <v>-25.608509785308584</v>
+        <v>-42.350367649656931</v>
       </c>
       <c r="I65">
         <f>J59*D59</f>
-        <v>18.519625430619424</v>
+        <v>13.279757567657235</v>
       </c>
       <c r="K65">
         <f>J60</f>
-        <v>1.3751484960908162</v>
+        <v>-2.8917404606029367</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -2679,39 +2677,39 @@
     </row>
     <row r="66" spans="1:29">
       <c r="A66">
-        <v>36.153833533163407</v>
+        <v>32.393839375023006</v>
       </c>
       <c r="B66">
-        <v>80.366413569557849</v>
+        <v>82.993924565192941</v>
       </c>
       <c r="C66">
-        <v>20.212501076894139</v>
+        <v>32.511600558294845</v>
       </c>
       <c r="D66">
-        <v>-23.303353666163673</v>
+        <v>-22.829125143283463</v>
       </c>
       <c r="F66">
         <f>J59*A60</f>
-        <v>-17.965794208324869</v>
+        <v>-17.156008794359639</v>
       </c>
       <c r="G66">
         <f>J59*B60</f>
-        <v>-18.341676179670596</v>
+        <v>-26.26876761806167</v>
       </c>
       <c r="H66">
         <f>J59*C60</f>
-        <v>28.977730012387724</v>
+        <v>22.054230699739797</v>
       </c>
       <c r="I66">
         <f>J59*D60</f>
-        <v>30.348395936674347</v>
+        <v>35.954743989816308</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
         <f>J60</f>
-        <v>1.3751484960908162</v>
+        <v>-2.8917404606029367</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -2722,32 +2720,32 @@
     </row>
     <row r="67" spans="1:29">
       <c r="A67">
-        <v>23.069967736676876</v>
+        <v>23.387267365422744</v>
       </c>
       <c r="B67">
-        <v>8.5278973966424427</v>
+        <v>20.241338510495115</v>
       </c>
       <c r="C67">
-        <v>-26.885043944201215</v>
+        <v>-15.752346576441703</v>
       </c>
       <c r="D67">
-        <v>-20.374578815347977</v>
+        <v>-22.779633570275845</v>
       </c>
       <c r="F67">
         <f>J59*A61</f>
-        <v>-1.3153257346546525E-15</v>
+        <v>-4.8635063597462797E-16</v>
       </c>
       <c r="G67">
         <f>J59*B61</f>
-        <v>-16.887522281323495</v>
+        <v>-23.291301419856236</v>
       </c>
       <c r="H67">
         <f>J59*C61</f>
-        <v>11.700555073367017</v>
+        <v>11.420492440386266</v>
       </c>
       <c r="I67">
         <f>J59*D61</f>
-        <v>18.59595079221862</v>
+        <v>26.234284574929148</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -2757,7 +2755,7 @@
       </c>
       <c r="M67">
         <f>J60</f>
-        <v>1.3751484960908162</v>
+        <v>-2.8917404606029367</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -2765,32 +2763,32 @@
     </row>
     <row r="68" spans="1:29">
       <c r="A68">
-        <v>-5.0787278907548302E-16</v>
+        <v>-2.0051683100303377E-15</v>
       </c>
       <c r="B68">
-        <v>7.6752784751119338E-2</v>
+        <v>-5.9292666981888047</v>
       </c>
       <c r="C68">
-        <v>-5.9771420207162869E-2</v>
+        <v>4.3494842740209947</v>
       </c>
       <c r="D68">
-        <v>7.5496009916260223E-2</v>
+        <v>8.5568598511186629</v>
       </c>
       <c r="F68">
         <f>J59*A62</f>
-        <v>1.0127369170046067E-15</v>
+        <v>1.9938383995777787E-15</v>
       </c>
       <c r="G68">
         <f>J59*B62</f>
-        <v>0</v>
+        <v>1.8356314455235949E-15</v>
       </c>
       <c r="H68">
         <f>J59*C62</f>
-        <v>-5.9771420207160905E-2</v>
+        <v>4.3494842740209974</v>
       </c>
       <c r="I68">
         <f>J59*D62</f>
-        <v>1.4506445060070752</v>
+        <v>5.6651193905157209</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -2803,7 +2801,7 @@
       </c>
       <c r="N68">
         <f>J60</f>
-        <v>1.3751484960908162</v>
+        <v>-2.8917404606029367</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -2829,41 +2827,41 @@
     <row r="71" spans="1:29">
       <c r="A71">
         <f t="array" ref="A71:A74">A65:D68-F65:I68+K65:N68</f>
-        <v>106.51248363301634</v>
+        <v>77.872761890864723</v>
       </c>
       <c r="C71">
         <f>SQRT(SUMPRODUCT(A71:A73,A71:A73))</f>
-        <v>121.68018198507986</v>
+        <v>95.217218888927619</v>
       </c>
       <c r="D71">
         <f>A71+SIGN(A71)*C71</f>
-        <v>228.19266561809621</v>
+        <v>173.08998077979234</v>
       </c>
       <c r="E71">
         <f>D71/(SQRT(SUMPRODUCT(D71:D73,D71:D73)))</f>
-        <v>0.96833564250975446</v>
+        <v>0.95337381767650364</v>
       </c>
       <c r="G71">
         <f t="array" ref="G71:I73">MMULT(E71:E73,TRANSPOSE(E71:E73))</f>
-        <v>0.93767391655477894</v>
+        <v>0.90892163623107125</v>
       </c>
       <c r="H71">
-        <v>0.2223847255098792</v>
+        <v>0.26019373779013283</v>
       </c>
       <c r="I71">
-        <v>9.4797556020690621E-2</v>
+        <v>0.12281007384128892</v>
       </c>
       <c r="K71">
         <f>1-2*G71</f>
-        <v>-0.87534783310955788</v>
+        <v>-0.8178432724621425</v>
       </c>
       <c r="L71">
-        <f t="shared" ref="L71" si="32">-2*H71</f>
-        <v>-0.4447694510197584</v>
+        <f t="shared" ref="L71" si="30">-2*H71</f>
+        <v>-0.52038747558026566</v>
       </c>
       <c r="M71">
-        <f t="shared" ref="M71:M72" si="33">-2*I71</f>
-        <v>-0.18959511204138124</v>
+        <f t="shared" ref="M71:M72" si="31">-2*I71</f>
+        <v>-0.24562014768257784</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -2871,36 +2869,36 @@
     </row>
     <row r="72" spans="1:29">
       <c r="A72">
-        <v>54.119627741488273</v>
+        <v>49.549848169382642</v>
       </c>
       <c r="D72">
         <f>A72</f>
-        <v>54.119627741488273</v>
+        <v>49.549848169382642</v>
       </c>
       <c r="E72">
         <f>D72/(SQRT(SUMPRODUCT(D71:D73,D71:D73)))</f>
-        <v>0.22965665596434867</v>
+        <v>0.272918904385542</v>
       </c>
       <c r="G72">
-        <v>0.2223847255098792</v>
+        <v>0.26019373779013283</v>
       </c>
       <c r="H72">
-        <v>5.2742179628727209E-2</v>
+        <v>7.4484728371004616E-2</v>
       </c>
       <c r="I72">
-        <v>2.2482792901104543E-2</v>
+        <v>3.5156399492864039E-2</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K73" si="34">-2*G72</f>
-        <v>-0.4447694510197584</v>
+        <f t="shared" ref="K72:K73" si="32">-2*G72</f>
+        <v>-0.52038747558026566</v>
       </c>
       <c r="L72">
         <f>1-2*H72</f>
-        <v>0.89451564074254564</v>
+        <v>0.85103054325799077</v>
       </c>
       <c r="M72">
-        <f t="shared" si="33"/>
-        <v>-4.4965585802209086E-2</v>
+        <f t="shared" si="31"/>
+        <v>-7.0312798985728078E-2</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -2908,36 +2906,36 @@
     </row>
     <row r="73" spans="1:29">
       <c r="A73">
-        <v>23.069967736676876</v>
+        <v>23.387267365422744</v>
       </c>
       <c r="D73">
         <f>A73</f>
-        <v>23.069967736676876</v>
+        <v>23.387267365422744</v>
       </c>
       <c r="E73">
         <f>D73/(SQRT(SUMPRODUCT(D71:D73,D71:D73)))</f>
-        <v>9.7897414758990123E-2</v>
+        <v>0.12881628545305879</v>
       </c>
       <c r="G73">
-        <v>9.4797556020690621E-2</v>
+        <v>0.12281007384128892</v>
       </c>
       <c r="H73">
-        <v>2.2482792901104543E-2</v>
+        <v>3.5156399492864039E-2</v>
       </c>
       <c r="I73">
-        <v>9.5839038164937367E-3</v>
+        <v>1.6593635397923925E-2</v>
       </c>
       <c r="K73">
-        <f t="shared" si="34"/>
-        <v>-0.18959511204138124</v>
+        <f t="shared" si="32"/>
+        <v>-0.24562014768257784</v>
       </c>
       <c r="L73">
-        <f t="shared" ref="L73" si="35">-2*H73</f>
-        <v>-4.4965585802209086E-2</v>
+        <f t="shared" ref="L73" si="33">-2*H73</f>
+        <v>-7.0312798985728078E-2</v>
       </c>
       <c r="M73">
         <f>1-2*I73</f>
-        <v>0.98083219236701258</v>
+        <v>0.96681272920415218</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -2945,7 +2943,7 @@
     </row>
     <row r="74" spans="1:29">
       <c r="A74">
-        <v>-1.5206097060800897E-15</v>
+        <v>-3.9990067096081169E-15</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -2977,30 +2975,30 @@
     <row r="76" spans="1:29">
       <c r="A76">
         <f t="array" ref="A76:D79">MMULT(MMULT(K71:N74,A59:D62),K71:N74)</f>
-        <v>12.65023932311794</v>
+        <v>13.838483009051034</v>
       </c>
       <c r="B76">
-        <v>-15.399580833994884</v>
+        <v>-14.091506519355832</v>
       </c>
       <c r="C76">
-        <v>-0.31570299543049618</v>
+        <v>-2.6023834040881395</v>
       </c>
       <c r="D76">
-        <v>9.1645490713602147</v>
+        <v>8.712967090651496</v>
       </c>
       <c r="F76" t="s">
         <v>26</v>
       </c>
       <c r="G76">
         <f>SQRT(A77*A77+A78*A78)</f>
-        <v>1.1940749356353342</v>
+        <v>2.6127756265034514</v>
       </c>
       <c r="H76" t="s">
         <v>27</v>
       </c>
       <c r="I76">
         <f>A77/G76</f>
-        <v>0.56152656522152811</v>
+        <v>0.85675356146483628</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -3028,61 +3026,61 @@
       </c>
       <c r="U76">
         <f t="array" ref="U76:X79">MMULT(P76:S79,MMULT(K76:N79,A76:D79))</f>
-        <v>12.65023932311794</v>
+        <v>13.838483009051034</v>
       </c>
       <c r="V76">
-        <v>-15.399580833994884</v>
+        <v>-14.091506519355832</v>
       </c>
       <c r="W76">
-        <v>-0.31570299543049618</v>
+        <v>-2.6023834040881395</v>
       </c>
       <c r="X76">
-        <v>9.1645490713602147</v>
+        <v>8.712967090651496</v>
       </c>
       <c r="Z76">
         <f t="array" ref="Z76:AC79">MMULT(MMULT(U76:X79,TRANSPOSE(K76:N79)), TRANSPOSE(P76:S79))</f>
-        <v>12.65023932311794</v>
+        <v>13.838483009051034</v>
       </c>
       <c r="AA76">
-        <v>-8.9324581119856923</v>
+        <v>-12.492207576672639</v>
       </c>
       <c r="AB76">
-        <v>12.56524167088234</v>
+        <v>5.0377554218147544</v>
       </c>
       <c r="AC76">
-        <v>9.1412040648581296</v>
+        <v>9.9912222005616584</v>
       </c>
     </row>
     <row r="77" spans="1:29">
       <c r="A77">
-        <v>0.67050479722442646</v>
+        <v>2.2385048233153508</v>
       </c>
       <c r="B77">
-        <v>-4.6001173012640679</v>
+        <v>-4.2535943498813742</v>
       </c>
       <c r="C77">
-        <v>-10.422956415640249</v>
+        <v>-9.7510278290911323</v>
       </c>
       <c r="D77">
-        <v>-4.9839187542139998</v>
+        <v>-5.2845032833878882</v>
       </c>
       <c r="H77" t="s">
         <v>28</v>
       </c>
       <c r="I77">
         <f>A78/G76</f>
-        <v>0.82745870987651893</v>
+        <v>0.51572602699235504</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
         <f>I76</f>
-        <v>0.56152656522152811</v>
+        <v>0.85675356146483628</v>
       </c>
       <c r="M77">
         <f>I77</f>
-        <v>0.82745870987651893</v>
+        <v>0.51572602699235504</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -3092,77 +3090,77 @@
       </c>
       <c r="Q77">
         <f>I78</f>
-        <v>0.99999657563015787</v>
+        <v>0.99514302674138999</v>
       </c>
       <c r="R77">
         <v>0</v>
       </c>
       <c r="S77">
         <f>I79</f>
-        <v>-2.6170074432524488E-3</v>
+        <v>9.8439607516411912E-2</v>
       </c>
       <c r="U77">
-        <v>1.1940790246035355</v>
+        <v>2.6255277445484628</v>
       </c>
       <c r="V77">
-        <v>-1.5841515988607575</v>
+        <v>-2.9666777053145124</v>
       </c>
       <c r="W77">
-        <v>-9.1450589743066999</v>
+        <v>-10.745373278348461</v>
       </c>
       <c r="X77">
-        <v>-5.8467542473150695</v>
+        <v>-7.0707666907642199</v>
       </c>
       <c r="Z77">
-        <v>1.1940790246035355</v>
+        <v>2.6255277445484628</v>
       </c>
       <c r="AA77">
-        <v>-8.441371948463912</v>
+        <v>-8.7401630947744433</v>
       </c>
       <c r="AB77">
-        <v>-3.8243735163486052</v>
+        <v>-7.6761439191654768</v>
       </c>
       <c r="AC77">
-        <v>-5.8688654777014113</v>
+        <v>-6.2406993760697915</v>
       </c>
     </row>
     <row r="78" spans="1:29">
       <c r="A78">
-        <v>0.98804770573670098</v>
+        <v>1.3474763932790863</v>
       </c>
       <c r="B78">
-        <v>1.2072253186009063</v>
+        <v>1.2716173804635362</v>
       </c>
       <c r="C78">
-        <v>-3.9787859245074286</v>
+        <v>-4.5430228605626901</v>
       </c>
       <c r="D78">
-        <v>-3.6850398742144237</v>
+        <v>-4.7354314981807164</v>
       </c>
       <c r="F78" t="s">
         <v>26</v>
       </c>
       <c r="G78">
         <f>SQRT(G76*G76+A79*A79)</f>
-        <v>1.1940790246035351</v>
+        <v>2.6255277445484619</v>
       </c>
       <c r="H78" t="s">
         <v>27</v>
       </c>
       <c r="I78">
         <f>G76/G78</f>
-        <v>0.99999657563015787</v>
+        <v>0.99514302674138999</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
         <f>-M77</f>
-        <v>-0.82745870987651893</v>
+        <v>-0.51572602699235504</v>
       </c>
       <c r="M78">
         <f>L77</f>
-        <v>0.56152656522152811</v>
+        <v>0.85675356146483628</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -3183,46 +3181,46 @@
         <v>0</v>
       </c>
       <c r="V78">
-        <v>4.4842962139870508</v>
+        <v>3.2831520340341713</v>
       </c>
       <c r="W78">
-        <v>6.3903720748444464</v>
+        <v>1.1366078257858052</v>
       </c>
       <c r="X78">
-        <v>2.0547391992193065</v>
+        <v>-1.3317419181694037</v>
       </c>
       <c r="Z78">
         <v>0</v>
       </c>
       <c r="AA78">
-        <v>7.8004164853632156</v>
+        <v>3.2514252845585085</v>
       </c>
       <c r="AB78">
-        <v>-0.12220627825491137</v>
+        <v>-0.71941415179351964</v>
       </c>
       <c r="AC78">
-        <v>2.0751600533374757</v>
+        <v>-1.6598729053643271</v>
       </c>
     </row>
     <row r="79" spans="1:29">
       <c r="A79">
-        <v>-3.1249136952190754E-3</v>
+        <v>0.25845592069680079</v>
       </c>
       <c r="B79">
-        <v>-7.4112445924339214E-4</v>
+        <v>7.3987249702783142E-2</v>
       </c>
       <c r="C79">
-        <v>1.6166112710599333E-2</v>
+        <v>-1.0173370402446404</v>
       </c>
       <c r="D79">
-        <v>-0.40001687549131515</v>
+        <v>-1.3705465767518401</v>
       </c>
       <c r="H79" t="s">
         <v>28</v>
       </c>
       <c r="I79">
         <f>A79/G78</f>
-        <v>-2.6170074432524488E-3</v>
+        <v>9.8439607516411912E-2</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -3241,38 +3239,38 @@
       </c>
       <c r="Q79">
         <f>-S77</f>
-        <v>2.6170074432524488E-3</v>
+        <v>-9.8439607516411912E-2</v>
       </c>
       <c r="R79">
         <v>0</v>
       </c>
       <c r="S79">
         <f>Q77</f>
-        <v>0.99999657563015787</v>
+        <v>0.99514302674138999</v>
       </c>
       <c r="U79">
-        <v>4.3368086899420177E-19</v>
+        <v>-1.1102230246251565E-16</v>
       </c>
       <c r="V79">
-        <v>-4.886877719178946E-3</v>
+        <v>0.36781229311347341</v>
       </c>
       <c r="W79">
-        <v>-7.7666012898591416E-3</v>
+        <v>4.0630629775623373E-2</v>
       </c>
       <c r="X79">
-        <v>-0.41531929708228238</v>
+        <v>-0.67779511160477268</v>
       </c>
       <c r="Z79">
-        <v>4.3368086899420177E-19</v>
+        <v>-1.1102230246251565E-16</v>
       </c>
       <c r="AA79">
-        <v>-8.0837284482401846E-3</v>
+        <v>0.26772455500491776</v>
       </c>
       <c r="AB79">
-        <v>-3.1746341290357725E-4</v>
+        <v>-0.15487993584153464</v>
       </c>
       <c r="AC79">
-        <v>-0.41534187454399007</v>
+        <v>-0.70758654062794513</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -3289,33 +3287,33 @@
     <row r="81" spans="1:24">
       <c r="A81">
         <f>Z76</f>
-        <v>12.65023932311794</v>
+        <v>13.838483009051034</v>
       </c>
       <c r="B81">
-        <f t="shared" ref="B81:B84" si="36">AA76</f>
-        <v>-8.9324581119856923</v>
+        <f t="shared" ref="B81:B84" si="34">AA76</f>
+        <v>-12.492207576672639</v>
       </c>
       <c r="C81">
-        <f t="shared" ref="C81:C84" si="37">AB76</f>
-        <v>12.56524167088234</v>
+        <f t="shared" ref="C81:C84" si="35">AB76</f>
+        <v>5.0377554218147544</v>
       </c>
       <c r="D81">
-        <f t="shared" ref="D81:D84" si="38">AC76</f>
-        <v>9.1412040648581296</v>
+        <f t="shared" ref="D81:D84" si="36">AC76</f>
+        <v>9.9912222005616584</v>
       </c>
       <c r="F81" t="s">
         <v>26</v>
       </c>
       <c r="G81">
         <f>SQRT(B83*B83+B84*B84)</f>
-        <v>7.800420674027257</v>
+        <v>3.2624289752297995</v>
       </c>
       <c r="H81" t="s">
         <v>27</v>
       </c>
       <c r="I81">
         <f>B83/G81</f>
-        <v>0.99999946302075027</v>
+        <v>0.99662714782303707</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -3331,54 +3329,54 @@
       </c>
       <c r="P81">
         <f t="array" ref="P81:S84">MMULT(K81:N84,A81:D84)</f>
-        <v>12.65023932311794</v>
+        <v>13.838483009051034</v>
       </c>
       <c r="Q81">
-        <v>-8.9324581119856923</v>
+        <v>-12.492207576672639</v>
       </c>
       <c r="R81">
-        <v>12.56524167088234</v>
+        <v>5.0377554218147544</v>
       </c>
       <c r="S81">
-        <v>9.1412040648581296</v>
+        <v>9.9912222005616584</v>
       </c>
       <c r="U81">
         <f t="array" ref="U81:X84">MMULT(P81:S84,TRANSPOSE(K81:N84))</f>
-        <v>12.65023932311794</v>
+        <v>13.838483009051034</v>
       </c>
       <c r="V81">
-        <v>-8.9324581119856923</v>
+        <v>-12.492207576672639</v>
       </c>
       <c r="W81">
-        <v>12.555761715118873</v>
+        <v>5.8406730133239604</v>
       </c>
       <c r="X81">
-        <v>9.1542207618241349</v>
+        <v>9.5441101996178421</v>
       </c>
     </row>
     <row r="82" spans="1:24">
       <c r="A82">
-        <f t="shared" ref="A82:A84" si="39">Z77</f>
-        <v>1.1940790246035355</v>
+        <f t="shared" ref="A82:A84" si="37">Z77</f>
+        <v>2.6255277445484628</v>
       </c>
       <c r="B82">
+        <f t="shared" si="34"/>
+        <v>-8.7401630947744433</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="35"/>
+        <v>-7.6761439191654768</v>
+      </c>
+      <c r="D82">
         <f t="shared" si="36"/>
-        <v>-8.441371948463912</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="37"/>
-        <v>-3.8243735163486052</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="38"/>
-        <v>-5.8688654777014113</v>
+        <v>-6.2406993760697915</v>
       </c>
       <c r="H82" t="s">
         <v>28</v>
       </c>
       <c r="I82">
         <f>B84/G81</f>
-        <v>-1.0363195507078543E-3</v>
+        <v>8.2062952799166991E-2</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -3393,46 +3391,46 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>1.1940790246035355</v>
+        <v>2.6255277445484628</v>
       </c>
       <c r="Q82">
-        <v>-8.441371948463912</v>
+        <v>-8.7401630947744433</v>
       </c>
       <c r="R82">
-        <v>-3.8243735163486052</v>
+        <v>-7.6761439191654768</v>
       </c>
       <c r="S82">
-        <v>-5.8688654777014113</v>
+        <v>-6.2406993760697915</v>
       </c>
       <c r="U82">
-        <v>1.1940790246035355</v>
+        <v>2.6255277445484628</v>
       </c>
       <c r="V82">
-        <v>-8.441371948463912</v>
+        <v>-8.7401630947744433</v>
       </c>
       <c r="W82">
-        <v>-3.8182894427043674</v>
+        <v>-8.1623836387692457</v>
       </c>
       <c r="X82">
-        <v>-5.8728255992866316</v>
+        <v>-5.5897233834753539</v>
       </c>
     </row>
     <row r="83" spans="1:24">
       <c r="A83">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="B83">
+        <f t="shared" si="34"/>
+        <v>3.2514252845585085</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="35"/>
+        <v>-0.71941415179351964</v>
+      </c>
+      <c r="D83">
         <f t="shared" si="36"/>
-        <v>7.8004164853632156</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="37"/>
-        <v>-0.12220627825491137</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="38"/>
-        <v>2.0751600533374757</v>
+        <v>-1.6598729053643271</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -3442,53 +3440,53 @@
       </c>
       <c r="M83">
         <f>I81</f>
-        <v>0.99999946302075027</v>
+        <v>0.99662714782303707</v>
       </c>
       <c r="N83">
         <f>I82</f>
-        <v>-1.0363195507078543E-3</v>
+        <v>8.2062952799166991E-2</v>
       </c>
       <c r="P83">
-        <v>-4.4943196330666299E-22</v>
+        <v>-9.1108179666362633E-18</v>
       </c>
       <c r="Q83">
-        <v>7.8004206740272579</v>
+        <v>3.2624289752297999</v>
       </c>
       <c r="R83">
-        <v>-0.12220588363913434</v>
+        <v>-0.72969757907000676</v>
       </c>
       <c r="S83">
-        <v>2.0755893659244045</v>
+        <v>-1.7123410403068642</v>
       </c>
       <c r="U83">
-        <v>-4.4943196330666299E-22</v>
+        <v>-9.1108179666362633E-18</v>
       </c>
       <c r="V83">
-        <v>7.8004206740272579</v>
+        <v>3.2624289752297999</v>
       </c>
       <c r="W83">
-        <v>-0.12435679185625942</v>
+        <v>-0.86775617896869461</v>
       </c>
       <c r="X83">
-        <v>2.0754616070295571</v>
+        <v>-1.6466844291124738</v>
       </c>
     </row>
     <row r="84" spans="1:24">
       <c r="A84">
-        <f t="shared" si="39"/>
-        <v>4.3368086899420177E-19</v>
+        <f t="shared" si="37"/>
+        <v>-1.1102230246251565E-16</v>
       </c>
       <c r="B84">
+        <f t="shared" si="34"/>
+        <v>0.26772455500491776</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="35"/>
+        <v>-0.15487993584153464</v>
+      </c>
+      <c r="D84">
         <f t="shared" si="36"/>
-        <v>-8.0837284482401846E-3</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="37"/>
-        <v>-3.1746341290357725E-4</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="38"/>
-        <v>-0.41534187454399007</v>
+        <v>-0.70758654062794513</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -3498,35 +3496,35 @@
       </c>
       <c r="M84">
         <f>-N83</f>
-        <v>1.0363195507078543E-3</v>
+        <v>-8.2062952799166991E-2</v>
       </c>
       <c r="N84">
         <f>M83</f>
-        <v>0.99999946302075027</v>
+        <v>0.99662714782303707</v>
       </c>
       <c r="P84">
-        <v>4.3368063611657412E-19</v>
+        <v>-1.1064784064796352E-16</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>-4.4410799780712068E-4</v>
+        <v>-9.5320299131079284E-2</v>
       </c>
       <c r="S84">
-        <v>-0.41319112257990032</v>
+        <v>-0.56898588393846961</v>
       </c>
       <c r="U84">
-        <v>4.3368063611657412E-19</v>
+        <v>-1.1064784064796352E-16</v>
       </c>
       <c r="V84">
         <v>0</v>
       </c>
       <c r="W84">
-        <v>-1.5909720821865019E-5</v>
+        <v>-0.14169145958968121</v>
       </c>
       <c r="X84">
-        <v>-0.41319136094264208</v>
+        <v>-0.55924451345277038</v>
       </c>
     </row>
     <row r="86" spans="1:24">
@@ -3545,103 +3543,103 @@
     <row r="88" spans="1:24">
       <c r="A88">
         <f>U81</f>
-        <v>12.65023932311794</v>
+        <v>13.838483009051034</v>
       </c>
       <c r="B88">
-        <f t="shared" ref="B88:B91" si="40">V81</f>
-        <v>-8.9324581119856923</v>
+        <f t="shared" ref="B88:B91" si="38">V81</f>
+        <v>-12.492207576672639</v>
       </c>
       <c r="C88">
-        <f t="shared" ref="C88:C91" si="41">W81</f>
-        <v>12.555761715118873</v>
+        <f t="shared" ref="C88:C91" si="39">W81</f>
+        <v>5.8406730133239604</v>
       </c>
       <c r="D88">
-        <f t="shared" ref="D88:D91" si="42">X81</f>
-        <v>9.1542207618241349</v>
+        <f t="shared" ref="D88:D91" si="40">X81</f>
+        <v>9.5441101996178421</v>
       </c>
       <c r="F88">
         <f>C90</f>
-        <v>-0.12435679185625942</v>
+        <v>-0.86775617896869461</v>
       </c>
       <c r="G88">
         <f>D90</f>
-        <v>2.0754616070295571</v>
+        <v>-1.6466844291124738</v>
       </c>
       <c r="I88" t="s">
         <v>11</v>
       </c>
       <c r="J88">
         <f>F88+G89</f>
-        <v>-0.53754815279890145</v>
+        <v>-1.4270006924214651</v>
       </c>
     </row>
     <row r="89" spans="1:24">
       <c r="A89">
-        <f t="shared" ref="A89:A91" si="43">U82</f>
-        <v>1.1940790246035355</v>
+        <f t="shared" ref="A89:A91" si="41">U82</f>
+        <v>2.6255277445484628</v>
       </c>
       <c r="B89">
+        <f t="shared" si="38"/>
+        <v>-8.7401630947744433</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="39"/>
+        <v>-8.1623836387692457</v>
+      </c>
+      <c r="D89">
         <f t="shared" si="40"/>
-        <v>-8.441371948463912</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="41"/>
-        <v>-3.8182894427043674</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="42"/>
-        <v>-5.8728255992866316</v>
+        <v>-5.5897233834753539</v>
       </c>
       <c r="F89">
         <f>C91</f>
-        <v>-1.5909720821865019E-5</v>
+        <v>-0.14169145958968121</v>
       </c>
       <c r="G89">
         <f>D91</f>
-        <v>-0.41319136094264208</v>
+        <v>-0.55924451345277038</v>
       </c>
       <c r="I89" t="s">
         <v>12</v>
       </c>
       <c r="J89">
         <f>F88*G89-F89*G88</f>
-        <v>5.1416172084293041E-2</v>
+        <v>0.25196676185843536</v>
       </c>
     </row>
     <row r="90" spans="1:24">
       <c r="A90">
-        <f t="shared" si="43"/>
-        <v>-4.4943196330666299E-22</v>
+        <f t="shared" si="41"/>
+        <v>-9.1108179666362633E-18</v>
       </c>
       <c r="B90">
+        <f t="shared" si="38"/>
+        <v>3.2624289752297999</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="39"/>
+        <v>-0.86775617896869461</v>
+      </c>
+      <c r="D90">
         <f t="shared" si="40"/>
-        <v>7.8004206740272579</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="41"/>
-        <v>-0.12435679185625942</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="42"/>
-        <v>2.0754616070295571</v>
+        <v>-1.6466844291124738</v>
       </c>
     </row>
     <row r="91" spans="1:24">
       <c r="A91">
-        <f t="shared" si="43"/>
-        <v>4.3368063611657412E-19</v>
+        <f t="shared" si="41"/>
+        <v>-1.1064784064796352E-16</v>
       </c>
       <c r="B91">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="39"/>
+        <v>-0.14169145958968121</v>
+      </c>
+      <c r="D91">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="41"/>
-        <v>-1.5909720821865019E-5</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="42"/>
-        <v>-0.41319136094264208</v>
+        <v>-0.55924451345277038</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -3658,36 +3656,36 @@
     <row r="94" spans="1:24">
       <c r="A94">
         <f t="array" ref="A94:D97">MMULT(A88:D91,A88:D91)</f>
-        <v>149.36249406248763</v>
+        <v>158.70497440858162</v>
       </c>
       <c r="B94">
-        <v>60.344691737772891</v>
+        <v>-44.634489787916181</v>
       </c>
       <c r="C94">
-        <v>191.378561199389</v>
+        <v>176.37164599093228</v>
       </c>
       <c r="D94">
-        <v>190.53840857014873</v>
+        <v>186.94875506497431</v>
       </c>
       <c r="F94">
         <f>J88*A88</f>
-        <v>-6.8001127806060744</v>
+        <v>-19.747524835978506</v>
       </c>
       <c r="G94">
         <f>J88*B88</f>
-        <v>4.8016263580514718</v>
+        <v>17.82638886178453</v>
       </c>
       <c r="H94">
         <f>J88*C88</f>
-        <v>-6.7493265169453167</v>
+        <v>-8.3346444342206567</v>
       </c>
       <c r="I94">
         <f>J88*D88</f>
-        <v>-4.9208344608319159</v>
+        <v>-13.619451863401428</v>
       </c>
       <c r="K94">
         <f>J89</f>
-        <v>5.1416172084293041E-2</v>
+        <v>0.25196676185843536</v>
       </c>
       <c r="L94">
         <v>0</v>
@@ -3701,39 +3699,39 @@
     </row>
     <row r="95" spans="1:24">
       <c r="A95">
-        <v>5.0257202494125259</v>
+        <v>13.38578038551713</v>
       </c>
       <c r="B95">
-        <v>30.806435594350447</v>
+        <v>16.96261644998221</v>
       </c>
       <c r="C95">
-        <v>47.699096755193175</v>
+        <v>94.550388190841403</v>
       </c>
       <c r="D95">
-        <v>55.007455929412167</v>
+        <v>90.480312328704613</v>
       </c>
       <c r="F95">
         <f>J88*A89</f>
-        <v>-0.64187497397154447</v>
+        <v>-3.746629909442424</v>
       </c>
       <c r="G95">
         <f>J88*B89</f>
-        <v>4.5376438979852391</v>
+        <v>12.472218788119665</v>
       </c>
       <c r="H95">
         <f>J88*C89</f>
-        <v>2.0525144367772796</v>
+        <v>11.647727104333351</v>
       </c>
       <c r="I95">
         <f>J88*D89</f>
-        <v>3.1569265526066301</v>
+        <v>7.9765391386637852</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
       <c r="L95">
         <f>J89</f>
-        <v>5.1416172084293041E-2</v>
+        <v>0.25196676185843536</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -3744,32 +3742,32 @@
     </row>
     <row r="96" spans="1:24">
       <c r="A96">
-        <v>9.3143187099397213</v>
+        <v>8.5655977890846486</v>
       </c>
       <c r="B96">
-        <v>-66.816287554102928</v>
+        <v>-31.345154230328468</v>
       </c>
       <c r="C96">
-        <v>-29.768832316625129</v>
+        <v>-25.64287498367954</v>
       </c>
       <c r="D96">
-        <v>-46.926170772695741</v>
+        <v>-15.886255709226404</v>
       </c>
       <c r="F96">
         <f>J88*A90</f>
-        <v>2.4159132168428036E-22</v>
+        <v>1.3001143546915873E-17</v>
       </c>
       <c r="G96">
         <f>J88*B90</f>
-        <v>-4.1931017243777147</v>
+        <v>-4.6554884066287752</v>
       </c>
       <c r="H96">
         <f>J88*C90</f>
-        <v>6.684776375032972E-2</v>
+        <v>1.2382886682413321</v>
       </c>
       <c r="I96">
         <f>J88*D90</f>
-        <v>-1.115660553063778</v>
+        <v>2.3498198205431451</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -3779,7 +3777,7 @@
       </c>
       <c r="M96">
         <f>J89</f>
-        <v>5.1416172084293041E-2</v>
+        <v>0.25196676185843536</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -3787,20 +3785,20 @@
     </row>
     <row r="97" spans="1:29">
       <c r="A97">
-        <v>5.3069707515755474E-18</v>
+        <v>-1.4680281398915108E-15</v>
       </c>
       <c r="B97">
-        <v>-1.241025152168817E-4</v>
+        <v>-0.46225832330797689</v>
       </c>
       <c r="C97">
-        <v>8.5522410393452069E-6</v>
+        <v>0.20219381094468247</v>
       </c>
       <c r="D97">
-        <v>0.17069408074288839</v>
+        <v>0.54607554607157216</v>
       </c>
       <c r="F97">
         <f>J88*A91</f>
-        <v>-2.3312422484911695E-19</v>
+        <v>1.5789454521958388E-16</v>
       </c>
       <c r="G97">
         <f>J88*B91</f>
@@ -3808,11 +3806,11 @@
       </c>
       <c r="H97">
         <f>J88*C91</f>
-        <v>8.5522410393397605E-6</v>
+        <v>0.20219381094468314</v>
       </c>
       <c r="I97">
         <f>J88*D91</f>
-        <v>0.22211025282718141</v>
+        <v>0.79804230793000863</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -3825,7 +3823,7 @@
       </c>
       <c r="N97">
         <f>J89</f>
-        <v>5.1416172084293041E-2</v>
+        <v>0.25196676185843536</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -3851,41 +3849,41 @@
     <row r="100" spans="1:29">
       <c r="A100">
         <f t="array" ref="A100:A103">A94:D97-F94:I97+K94:N97</f>
-        <v>156.21402301517799</v>
+        <v>178.70446600641856</v>
       </c>
       <c r="C100">
         <f>SQRT(SUMPRODUCT(A100:A102,A100:A102))</f>
-        <v>156.59405849275706</v>
+        <v>179.72805879616686</v>
       </c>
       <c r="D100">
         <f>A100+SIGN(A100)*C100</f>
-        <v>312.80808150793507</v>
+        <v>358.43252480258542</v>
       </c>
       <c r="E100">
         <f>D100/(SQRT(SUMPRODUCT(D100:D102,D100:D102)))</f>
-        <v>0.99939309505266449</v>
+        <v>0.99857517722101186</v>
       </c>
       <c r="G100">
         <f t="array" ref="G100:I102">MMULT(E100:E102,TRANSPOSE(E100:E102))</f>
-        <v>0.99878655843894404</v>
+        <v>0.99715238456197519</v>
       </c>
       <c r="H100">
-        <v>1.8096456781105184E-2</v>
+        <v>4.766203566019081E-2</v>
       </c>
       <c r="I100">
-        <v>2.9740332422543782E-2</v>
+        <v>2.3829328170731152E-2</v>
       </c>
       <c r="K100">
         <f>1-2*G100</f>
-        <v>-0.99757311687788808</v>
+        <v>-0.99430476912395038</v>
       </c>
       <c r="L100">
-        <f t="shared" ref="L100" si="44">-2*H100</f>
-        <v>-3.6192913562210369E-2</v>
+        <f t="shared" ref="L100" si="42">-2*H100</f>
+        <v>-9.532407132038162E-2</v>
       </c>
       <c r="M100">
-        <f t="shared" ref="M100:M101" si="45">-2*I100</f>
-        <v>-5.9480664845087565E-2</v>
+        <f t="shared" ref="M100:M101" si="43">-2*I100</f>
+        <v>-4.7658656341462304E-2</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -3893,36 +3891,36 @@
     </row>
     <row r="101" spans="1:29">
       <c r="A101">
-        <v>5.6675952233840707</v>
+        <v>17.132410294959556</v>
       </c>
       <c r="D101">
         <f>A101</f>
-        <v>5.6675952233840707</v>
+        <v>17.132410294959556</v>
       </c>
       <c r="E101">
         <f>D101/(SQRT(SUMPRODUCT(D100:D102,D100:D102)))</f>
-        <v>1.8107446279836029E-2</v>
+        <v>4.7730042512003988E-2</v>
       </c>
       <c r="G101">
-        <v>1.8096456781105184E-2</v>
+        <v>4.766203566019081E-2</v>
       </c>
       <c r="H101">
-        <v>3.2787961077714766E-4</v>
+        <v>2.2781569581977082E-3</v>
       </c>
       <c r="I101">
-        <v>5.3884850150710622E-4</v>
+        <v>1.1389977165131957E-3</v>
       </c>
       <c r="K101">
-        <f t="shared" ref="K101:K102" si="46">-2*G101</f>
-        <v>-3.6192913562210369E-2</v>
+        <f t="shared" ref="K101:K102" si="44">-2*G101</f>
+        <v>-9.532407132038162E-2</v>
       </c>
       <c r="L101">
         <f>1-2*H101</f>
-        <v>0.99934424077844575</v>
+        <v>0.99544368608360456</v>
       </c>
       <c r="M101">
-        <f t="shared" si="45"/>
-        <v>-1.0776970030142124E-3</v>
+        <f t="shared" si="43"/>
+        <v>-2.2779954330263913E-3</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -3930,36 +3928,36 @@
     </row>
     <row r="102" spans="1:29">
       <c r="A102">
-        <v>9.3143187099397213</v>
+        <v>8.5655977890846486</v>
       </c>
       <c r="D102">
         <f>A102</f>
-        <v>9.3143187099397213</v>
+        <v>8.5655977890846486</v>
       </c>
       <c r="E102">
         <f>D102/(SQRT(SUMPRODUCT(D100:D102,D100:D102)))</f>
-        <v>2.9758392938442877E-2</v>
+        <v>2.3863329185737484E-2</v>
       </c>
       <c r="G102">
-        <v>2.9740332422543782E-2</v>
+        <v>2.3829328170731152E-2</v>
       </c>
       <c r="H102">
-        <v>5.3884850150710622E-4</v>
+        <v>1.1389977165131957E-3</v>
       </c>
       <c r="I102">
-        <v>8.855619502787669E-4</v>
+        <v>5.6945847982687041E-4</v>
       </c>
       <c r="K102">
-        <f t="shared" si="46"/>
-        <v>-5.9480664845087565E-2</v>
+        <f t="shared" si="44"/>
+        <v>-4.7658656341462304E-2</v>
       </c>
       <c r="L102">
-        <f t="shared" ref="L102" si="47">-2*H102</f>
-        <v>-1.0776970030142124E-3</v>
+        <f t="shared" ref="L102" si="45">-2*H102</f>
+        <v>-2.2779954330263913E-3</v>
       </c>
       <c r="M102">
         <f>1-2*I102</f>
-        <v>0.99822887609944244</v>
+        <v>0.99886108304034626</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -3967,7 +3965,7 @@
     </row>
     <row r="103" spans="1:29">
       <c r="A103">
-        <v>5.5400949764246642E-18</v>
+        <v>-1.6259226851110946E-15</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -3999,30 +3997,30 @@
     <row r="105" spans="1:29">
       <c r="A105">
         <f t="array" ref="A105:D108">MMULT(MMULT(K100:N103,A88:D91),K100:N103)</f>
-        <v>13.051605443086375</v>
+        <v>12.919252317908093</v>
       </c>
       <c r="B105">
-        <v>9.2182278933108979</v>
+        <v>14.385892265971703</v>
       </c>
       <c r="C105">
-        <v>-11.614015739748133</v>
+        <v>-4.34444405611963</v>
       </c>
       <c r="D105">
-        <v>-9.0428997049268318</v>
+        <v>-8.8784403307470399</v>
       </c>
       <c r="F105" t="s">
         <v>26</v>
       </c>
       <c r="G105">
         <f>SQRT(A106*A106+A107*A107)</f>
-        <v>0.53534380968019935</v>
+        <v>0.37999190502780988</v>
       </c>
       <c r="H105" t="s">
         <v>27</v>
       </c>
       <c r="I105">
         <f>A106/G105</f>
-        <v>-0.346980723061524</v>
+        <v>-0.41271659590401871</v>
       </c>
       <c r="K105">
         <v>1</v>
@@ -4050,61 +4048,61 @@
       </c>
       <c r="U105">
         <f t="array" ref="U105:X108">MMULT(P105:S108,MMULT(K105:N108,A105:D108))</f>
-        <v>13.051605443086375</v>
+        <v>12.919252317908093</v>
       </c>
       <c r="V105">
-        <v>9.2182278933108979</v>
+        <v>14.385892265971703</v>
       </c>
       <c r="W105">
-        <v>-11.614015739748133</v>
+        <v>-4.34444405611963</v>
       </c>
       <c r="X105">
-        <v>-9.0428997049268318</v>
+        <v>-8.8784403307470399</v>
       </c>
       <c r="Z105">
         <f t="array" ref="Z105:AC108">MMULT(MMULT(U105:X108,TRANSPOSE(K105:N108)), TRANSPOSE(P105:S108))</f>
-        <v>13.051605443086375</v>
+        <v>12.919252317908093</v>
       </c>
       <c r="AA105">
-        <v>-14.091026565094293</v>
+        <v>-10.050666165601381</v>
       </c>
       <c r="AB105">
-        <v>-4.6156806570503655</v>
+        <v>-11.310502338082323</v>
       </c>
       <c r="AC105">
-        <v>-9.0428747964038756</v>
+        <v>-8.7012320759420696</v>
       </c>
     </row>
     <row r="106" spans="1:29">
       <c r="A106">
-        <v>-0.18575398216934647</v>
+        <v>-0.15682896551416087</v>
       </c>
       <c r="B106">
-        <v>-8.1376419731857119</v>
+        <v>-7.5863311047476314</v>
       </c>
       <c r="C106">
-        <v>-4.2975112513261688</v>
+        <v>-8.7146543959443417</v>
       </c>
       <c r="D106">
-        <v>-6.202529079259179</v>
+        <v>-6.4702871507832231</v>
       </c>
       <c r="H106" t="s">
         <v>28</v>
       </c>
       <c r="I106">
         <f>A107/G105</f>
-        <v>0.93787226093093412</v>
+        <v>0.91085949051727999</v>
       </c>
       <c r="K106">
         <v>0</v>
       </c>
       <c r="L106">
         <f>I105</f>
-        <v>-0.346980723061524</v>
+        <v>-0.41271659590401871</v>
       </c>
       <c r="M106">
         <f>I106</f>
-        <v>0.93787226093093412</v>
+        <v>0.91085949051727999</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -4114,77 +4112,77 @@
       </c>
       <c r="Q106">
         <f>I107</f>
-        <v>0.99999999999843781</v>
+        <v>0.99984213371088215</v>
       </c>
       <c r="R106">
         <v>0</v>
       </c>
       <c r="S106">
         <f>I108</f>
-        <v>1.7676878949018967E-6</v>
+        <v>1.7768164127742202E-2</v>
       </c>
       <c r="U106">
-        <v>0.5353438096810359</v>
+        <v>0.3800519024113157</v>
       </c>
       <c r="V106">
-        <v>10.654617287396798</v>
+        <v>6.7026518579301735</v>
       </c>
       <c r="W106">
-        <v>0.71323270675811867</v>
+        <v>2.5896657138347181</v>
       </c>
       <c r="X106">
-        <v>3.5904929153534804</v>
+        <v>0.75943202420011846</v>
       </c>
       <c r="Z106">
-        <v>0.5353438096810359</v>
+        <v>0.3800519024113157</v>
       </c>
       <c r="AA106">
-        <v>-3.0280192921920341</v>
+        <v>-0.39391602635262563</v>
       </c>
       <c r="AB106">
-        <v>-10.240148004986711</v>
+        <v>-7.1739720743721929</v>
       </c>
       <c r="AC106">
-        <v>3.5904982679521393</v>
+        <v>0.76655220156037529</v>
       </c>
     </row>
     <row r="107" spans="1:29">
       <c r="A107">
-        <v>0.50208410916014823</v>
+        <v>0.34611923301432157</v>
       </c>
       <c r="B107">
-        <v>8.3497643738482541</v>
+        <v>3.9223389557187636</v>
       </c>
       <c r="C107">
-        <v>-0.82945288710289433</v>
+        <v>-1.1023574778525753</v>
       </c>
       <c r="D107">
-        <v>1.5336156968682304</v>
+        <v>-2.0869350960381543</v>
       </c>
       <c r="F107" t="s">
         <v>26</v>
       </c>
       <c r="G107">
         <f>SQRT(G105*G105+A108*A108)</f>
-        <v>0.53534380968103568</v>
+        <v>0.38005190241131576</v>
       </c>
       <c r="H107" t="s">
         <v>27</v>
       </c>
       <c r="I107">
         <f>G105/G107</f>
-        <v>0.99999999999843781</v>
+        <v>0.99984213371088215</v>
       </c>
       <c r="K107">
         <v>0</v>
       </c>
       <c r="L107">
         <f>-M106</f>
-        <v>-0.93787226093093412</v>
+        <v>-0.91085949051727999</v>
       </c>
       <c r="M107">
         <f>L106</f>
-        <v>-0.346980723061524</v>
+        <v>-0.41271659590401871</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -4202,49 +4200,49 @@
         <v>0</v>
       </c>
       <c r="U107">
-        <v>2.7755575615628914E-17</v>
+        <v>-2.7755575615628914E-17</v>
       </c>
       <c r="V107">
-        <v>4.7348613962069317</v>
+        <v>5.2912673031798505</v>
       </c>
       <c r="W107">
-        <v>4.3183207561698325</v>
+        <v>8.392786888852692</v>
       </c>
       <c r="X107">
-        <v>5.2850448876568299</v>
+        <v>6.7548352063724035</v>
       </c>
       <c r="Z107">
-        <v>2.7755575615628914E-17</v>
+        <v>-2.7755575615628914E-17</v>
       </c>
       <c r="AA107">
-        <v>2.4071369624681149</v>
+        <v>5.5800146957822481</v>
       </c>
       <c r="AB107">
-        <v>-5.9390692212425895</v>
+        <v>-8.2834434748803041</v>
       </c>
       <c r="AC107">
-        <v>5.2850406325982178</v>
+        <v>6.6567394641793651</v>
       </c>
     </row>
     <row r="108" spans="1:29">
       <c r="A108">
-        <v>9.4632077198383164E-7</v>
+        <v>6.7528245791049204E-3</v>
       </c>
       <c r="B108">
-        <v>1.7145858448501048E-8</v>
+        <v>3.2277249784414783E-4</v>
       </c>
       <c r="C108">
-        <v>-1.5881542735066242E-5</v>
+        <v>-0.14153008478331644</v>
       </c>
       <c r="D108">
-        <v>-0.41319136094264208</v>
+        <v>-0.55924451345277038</v>
       </c>
       <c r="H108" t="s">
         <v>28</v>
       </c>
       <c r="I108">
         <f>A108/G107</f>
-        <v>1.7676878949018967E-6</v>
+        <v>1.7768164127742202E-2</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -4263,38 +4261,38 @@
       </c>
       <c r="Q108">
         <f>-S106</f>
-        <v>-1.7676878949018967E-6</v>
+        <v>-1.7768164127742202E-2</v>
       </c>
       <c r="R108">
         <v>0</v>
       </c>
       <c r="S108">
         <f>Q106</f>
-        <v>0.99999999999843781</v>
+        <v>0.99984213371088215</v>
       </c>
       <c r="U108">
-        <v>-2.1175823681357508E-22</v>
+        <v>0</v>
       </c>
       <c r="V108">
-        <v>-1.8816892145324698E-5</v>
+        <v>-0.11878979870968275</v>
       </c>
       <c r="W108">
-        <v>-1.7142315557077467E-5</v>
+        <v>-0.18757330172379907</v>
       </c>
       <c r="X108">
-        <v>-0.41319770781415094</v>
+        <v>-0.57282865663694527</v>
       </c>
       <c r="Z108">
-        <v>-2.1175823681357508E-22</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>-1.0278607993041664E-5</v>
+        <v>-0.1319852819976054</v>
       </c>
       <c r="AB108">
-        <v>2.359589422697276E-5</v>
+        <v>0.18561543010127562</v>
       </c>
       <c r="AC108">
-        <v>-0.41319770779662723</v>
+        <v>-0.57057359482004832</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -4311,33 +4309,33 @@
     <row r="110" spans="1:29">
       <c r="A110">
         <f>Z105</f>
-        <v>13.051605443086375</v>
+        <v>12.919252317908093</v>
       </c>
       <c r="B110">
-        <f t="shared" ref="B110:B113" si="48">AA105</f>
-        <v>-14.091026565094293</v>
+        <f t="shared" ref="B110:B113" si="46">AA105</f>
+        <v>-10.050666165601381</v>
       </c>
       <c r="C110">
-        <f t="shared" ref="C110:C113" si="49">AB105</f>
-        <v>-4.6156806570503655</v>
+        <f t="shared" ref="C110:C113" si="47">AB105</f>
+        <v>-11.310502338082323</v>
       </c>
       <c r="D110">
-        <f t="shared" ref="D110:D113" si="50">AC105</f>
-        <v>-9.0428747964038756</v>
+        <f t="shared" ref="D110:D113" si="48">AC105</f>
+        <v>-8.7012320759420696</v>
       </c>
       <c r="F110" t="s">
         <v>26</v>
       </c>
       <c r="G110">
         <f>SQRT(B112*B112+B113*B113)</f>
-        <v>2.40713696249006</v>
+        <v>5.5815754155802502</v>
       </c>
       <c r="H110" t="s">
         <v>27</v>
       </c>
       <c r="I110">
         <f>B112/G110</f>
-        <v>0.99999999999088329</v>
+        <v>0.99972038005727815</v>
       </c>
       <c r="K110">
         <v>1</v>
@@ -4353,54 +4351,54 @@
       </c>
       <c r="P110">
         <f t="array" ref="P110:S113">MMULT(K110:N113,A110:D113)</f>
-        <v>13.051605443086375</v>
+        <v>12.919252317908093</v>
       </c>
       <c r="Q110">
-        <v>-14.091026565094293</v>
+        <v>-10.050666165601381</v>
       </c>
       <c r="R110">
-        <v>-4.6156806570503655</v>
+        <v>-11.310502338082323</v>
       </c>
       <c r="S110">
-        <v>-9.0428747964038756</v>
+        <v>-8.7012320759420696</v>
       </c>
       <c r="U110">
         <f t="array" ref="U110:X113">MMULT(P110:S113,TRANSPOSE(K110:N113))</f>
-        <v>13.051605443086375</v>
+        <v>12.919252317908093</v>
       </c>
       <c r="V110">
-        <v>-14.091026565094293</v>
+        <v>-10.050666165601381</v>
       </c>
       <c r="W110">
-        <v>-4.6156420434326515</v>
+        <v>-11.101585140450407</v>
       </c>
       <c r="X110">
-        <v>-9.0428945055331802</v>
+        <v>-8.966253964086647</v>
       </c>
     </row>
     <row r="111" spans="1:29">
       <c r="A111">
-        <f t="shared" ref="A111:A113" si="51">Z106</f>
-        <v>0.5353438096810359</v>
+        <f t="shared" ref="A111:A113" si="49">Z106</f>
+        <v>0.3800519024113157</v>
       </c>
       <c r="B111">
+        <f t="shared" si="46"/>
+        <v>-0.39391602635262563</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="47"/>
+        <v>-7.1739720743721929</v>
+      </c>
+      <c r="D111">
         <f t="shared" si="48"/>
-        <v>-3.0280192921920341</v>
-      </c>
-      <c r="C111">
-        <f t="shared" si="49"/>
-        <v>-10.240148004986711</v>
-      </c>
-      <c r="D111">
-        <f t="shared" si="50"/>
-        <v>3.5904982679521393</v>
+        <v>0.76655220156037529</v>
       </c>
       <c r="H111" t="s">
         <v>28</v>
       </c>
       <c r="I111">
         <f>B113/G110</f>
-        <v>-4.2700553201629917E-6</v>
+        <v>-2.3646600138947409E-2</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -4415,46 +4413,46 @@
         <v>0</v>
       </c>
       <c r="P111">
-        <v>0.5353438096810359</v>
+        <v>0.3800519024113157</v>
       </c>
       <c r="Q111">
-        <v>-3.0280192921920341</v>
+        <v>-0.39391602635262563</v>
       </c>
       <c r="R111">
-        <v>-10.240148004986711</v>
+        <v>-7.1739720743721929</v>
       </c>
       <c r="S111">
-        <v>3.5904982679521393</v>
+        <v>0.76655220156037529</v>
       </c>
       <c r="U111">
-        <v>0.5353438096810359</v>
+        <v>0.3800519024113157</v>
       </c>
       <c r="V111">
-        <v>-3.0280192921920341</v>
+        <v>-0.39391602635262563</v>
       </c>
       <c r="W111">
-        <v>-10.240163336519586</v>
+        <v>-7.1900924421075967</v>
       </c>
       <c r="X111">
-        <v>3.5904545419209382</v>
+        <v>0.59669780922702731</v>
       </c>
     </row>
     <row r="112" spans="1:29">
       <c r="A112">
-        <f t="shared" si="51"/>
-        <v>2.7755575615628914E-17</v>
+        <f t="shared" si="49"/>
+        <v>-2.7755575615628914E-17</v>
       </c>
       <c r="B112">
+        <f t="shared" si="46"/>
+        <v>5.5800146957822481</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="47"/>
+        <v>-8.2834434748803041</v>
+      </c>
+      <c r="D112">
         <f t="shared" si="48"/>
-        <v>2.4071369624681149</v>
-      </c>
-      <c r="C112">
-        <f t="shared" si="49"/>
-        <v>-5.9390692212425895</v>
-      </c>
-      <c r="D112">
-        <f t="shared" si="50"/>
-        <v>5.2850406325982178</v>
+        <v>6.6567394641793651</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -4464,53 +4462,53 @@
       </c>
       <c r="M112">
         <f>I110</f>
-        <v>0.99999999999088329</v>
+        <v>0.99972038005727815</v>
       </c>
       <c r="N112">
         <f>I111</f>
-        <v>-4.2700553201629917E-6</v>
+        <v>-2.3646600138947409E-2</v>
       </c>
       <c r="P112">
-        <v>2.7755575616280094E-17</v>
+        <v>-2.7747814603165059E-17</v>
       </c>
       <c r="Q112">
-        <v>2.40713696249006</v>
+        <v>5.5815754155802502</v>
       </c>
       <c r="R112">
-        <v>-5.9390692212892002</v>
+        <v>-8.2855164327455419</v>
       </c>
       <c r="S112">
-        <v>5.2850423969271061</v>
+        <v>6.6683702327182282</v>
       </c>
       <c r="U112">
-        <v>2.7755575616280094E-17</v>
+        <v>-2.7747814603165059E-17</v>
       </c>
       <c r="V112">
-        <v>2.40713696249006</v>
+        <v>5.5815754155802502</v>
       </c>
       <c r="W112">
-        <v>-5.9390917886584598</v>
+        <v>-8.4408839215867442</v>
       </c>
       <c r="X112">
-        <v>5.2850170367247991</v>
-      </c>
-    </row>
-    <row r="113" spans="1:32">
+        <v>6.4705813293858956</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113">
-        <f t="shared" si="51"/>
-        <v>-2.1175823681357508E-22</v>
+        <f t="shared" si="49"/>
+        <v>0</v>
       </c>
       <c r="B113">
+        <f t="shared" si="46"/>
+        <v>-0.1319852819976054</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="47"/>
+        <v>0.18561543010127562</v>
+      </c>
+      <c r="D113">
         <f t="shared" si="48"/>
-        <v>-1.0278607993041664E-5</v>
-      </c>
-      <c r="C113">
-        <f t="shared" si="49"/>
-        <v>2.359589422697276E-5</v>
-      </c>
-      <c r="D113">
-        <f t="shared" si="50"/>
-        <v>-0.41319770779662723</v>
+        <v>-0.57057359482004832</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -4520,735 +4518,2630 @@
       </c>
       <c r="M113">
         <f>-N112</f>
-        <v>4.2700553201629917E-6</v>
+        <v>2.3646600138947409E-2</v>
       </c>
       <c r="N113">
         <f>M112</f>
-        <v>0.99999999999088329</v>
+        <v>0.99972038005727815</v>
       </c>
       <c r="P113">
-        <v>-9.3240393489942101E-23</v>
+        <v>-6.5632499820909599E-19</v>
       </c>
       <c r="Q113">
-        <v>1.6940658945086007E-21</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>-1.7642598982255524E-6</v>
+        <v>-1.0311747298725193E-2</v>
       </c>
       <c r="S113">
-        <v>-0.41317514037698977</v>
+        <v>-0.41300479472554563</v>
       </c>
       <c r="U113">
-        <v>-9.3240393489942101E-23</v>
+        <v>-6.5632499820909599E-19</v>
       </c>
       <c r="V113">
-        <v>1.6940658945086007E-21</v>
+        <v>0</v>
       </c>
       <c r="W113">
-        <v>2.0808116387927624E-11</v>
+        <v>-5.4270469219312722E-4</v>
       </c>
       <c r="X113">
-        <v>-0.41317514038075642</v>
-      </c>
-    </row>
-    <row r="115" spans="1:32">
+        <v>-0.41313314811360746</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:32">
+    <row r="116" spans="1:24">
       <c r="A116">
         <v>4</v>
       </c>
       <c r="B116">
         <v>4</v>
       </c>
-      <c r="F116" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="1:32">
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117">
         <f>U110</f>
-        <v>13.051605443086375</v>
+        <v>12.919252317908093</v>
       </c>
       <c r="B117">
-        <f t="shared" ref="B117:D117" si="52">V110</f>
-        <v>-14.091026565094293</v>
+        <f t="shared" ref="B117:B120" si="50">V110</f>
+        <v>-10.050666165601381</v>
       </c>
       <c r="C117">
-        <f t="shared" si="52"/>
-        <v>-4.6156420434326515</v>
-      </c>
-      <c r="D117" s="2">
-        <f t="shared" si="52"/>
-        <v>-9.0428945055331802</v>
-      </c>
-      <c r="F117" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="118" spans="1:32">
+        <f t="shared" ref="C117:C120" si="51">W110</f>
+        <v>-11.101585140450407</v>
+      </c>
+      <c r="D117">
+        <f t="shared" ref="D117:D120" si="52">X110</f>
+        <v>-8.966253964086647</v>
+      </c>
+      <c r="F117">
+        <f>C119</f>
+        <v>-8.4408839215867442</v>
+      </c>
+      <c r="G117">
+        <f>D119</f>
+        <v>6.4705813293858956</v>
+      </c>
+      <c r="I117" t="s">
+        <v>11</v>
+      </c>
+      <c r="J117">
+        <f>F117+G118</f>
+        <v>-8.8540170697003511</v>
+      </c>
+      <c r="L117" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118">
         <f t="shared" ref="A118:A120" si="53">U111</f>
-        <v>0.5353438096810359</v>
+        <v>0.3800519024113157</v>
       </c>
       <c r="B118">
-        <f t="shared" ref="B118:B120" si="54">V111</f>
-        <v>-3.0280192921920341</v>
+        <f t="shared" si="50"/>
+        <v>-0.39391602635262563</v>
       </c>
       <c r="C118">
-        <f t="shared" ref="C118:C120" si="55">W111</f>
-        <v>-10.240163336519586</v>
-      </c>
-      <c r="D118" s="2">
-        <f t="shared" ref="D118:D120" si="56">X111</f>
-        <v>3.5904545419209382</v>
+        <f t="shared" si="51"/>
+        <v>-7.1900924421075967</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="52"/>
+        <v>0.59669780922702731</v>
       </c>
       <c r="F118">
-        <v>12.587508723557388</v>
-      </c>
-      <c r="G118" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="119" spans="1:32">
+        <f>C120</f>
+        <v>-5.4270469219312722E-4</v>
+      </c>
+      <c r="G118">
+        <f>D120</f>
+        <v>-0.41313314811360746</v>
+      </c>
+      <c r="I118" t="s">
+        <v>12</v>
+      </c>
+      <c r="J118">
+        <f>F117*G118-F118*G117</f>
+        <v>3.4907205622353392</v>
+      </c>
+      <c r="L118">
+        <f>D120/C120</f>
+        <v>761.24852807904165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119">
         <f t="shared" si="53"/>
-        <v>2.7755575616280094E-17</v>
+        <v>-2.7747814603165059E-17</v>
       </c>
       <c r="B119">
-        <f t="shared" si="54"/>
-        <v>2.40713696249006</v>
+        <f t="shared" si="50"/>
+        <v>5.5815754155802502</v>
       </c>
       <c r="C119">
+        <f t="shared" si="51"/>
+        <v>-8.4408839215867442</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="52"/>
+        <v>6.4705813293858956</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
+      <c r="A120">
+        <f t="shared" si="53"/>
+        <v>-6.5632499820909599E-19</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="51"/>
+        <v>-5.4270469219312722E-4</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="52"/>
+        <v>-0.41313314811360746</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
+      <c r="A123">
+        <f t="array" ref="A123:D126">MMULT(A117:D120,A117:D120)</f>
+        <v>163.08730565703578</v>
+      </c>
+      <c r="B123">
+        <v>-187.85230837222463</v>
+      </c>
+      <c r="C123">
+        <v>22.553096821470927</v>
+      </c>
+      <c r="D123">
+        <v>-189.96396060018265</v>
+      </c>
+      <c r="F123">
+        <f>J117*A117</f>
+        <v>-114.38728055052408</v>
+      </c>
+      <c r="G123">
+        <f>J117*B117</f>
+        <v>88.988769792094402</v>
+      </c>
+      <c r="H123">
+        <f>J117*C117</f>
+        <v>98.29362433427967</v>
+      </c>
+      <c r="I123">
+        <f>J117*D117</f>
+        <v>79.38736564929161</v>
+      </c>
+      <c r="K123">
+        <f>J118</f>
+        <v>3.4907205622353392</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
+      <c r="A124">
+        <v>4.7602778859471488</v>
+      </c>
+      <c r="B124">
+        <v>-43.796648171537534</v>
+      </c>
+      <c r="C124">
+        <v>59.303525950101196</v>
+      </c>
+      <c r="D124">
+        <v>-50.413284263356665</v>
+      </c>
+      <c r="F124">
+        <f>J117*A118</f>
+        <v>-3.3649860313218811</v>
+      </c>
+      <c r="G124">
+        <f>J117*B118</f>
+        <v>3.4877392213546807</v>
+      </c>
+      <c r="H124">
+        <f>J117*C118</f>
+        <v>63.661201215144146</v>
+      </c>
+      <c r="I124">
+        <f>J117*D118</f>
+        <v>-5.2831725883489034</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <f>J118</f>
+        <v>3.4907205622353392</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
+      <c r="A125">
+        <v>2.1212883551435042</v>
+      </c>
+      <c r="B125">
+        <v>-49.312102190988064</v>
+      </c>
+      <c r="C125">
+        <v>31.112966552235804</v>
+      </c>
+      <c r="D125">
+        <v>-53.960123718754943</v>
+      </c>
+      <c r="F125">
+        <f>J117*A119</f>
+        <v>2.4567962414330411E-16</v>
+      </c>
+      <c r="G125">
+        <f>J117*B119</f>
+        <v>-49.419364005367363</v>
+      </c>
+      <c r="H125">
+        <f>J117*C119</f>
+        <v>74.735730325088269</v>
+      </c>
+      <c r="I125">
+        <f>J117*D119</f>
+        <v>-57.29063754126711</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <f>J118</f>
+        <v>3.4907205622353392</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
+      <c r="A126">
+        <v>-8.1930197725348643E-18</v>
+      </c>
+      <c r="B126">
+        <v>-3.0291471678651994E-3</v>
+      </c>
+      <c r="C126">
+        <v>4.8051166084844311E-3</v>
+      </c>
+      <c r="D126">
+        <v>0.16716738322158495</v>
+      </c>
+      <c r="F126">
+        <f>J117*A120</f>
+        <v>5.8111127374143885E-18</v>
+      </c>
+      <c r="G126">
+        <f>J117*B120</f>
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <f>J117*C120</f>
+        <v>4.8051166084844233E-3</v>
+      </c>
+      <c r="I126">
+        <f>J117*D120</f>
+        <v>3.657887945456924</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <f>J118</f>
+        <v>3.4907205622353392</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
+      <c r="A128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
+        <v>20</v>
+      </c>
+      <c r="K128" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
+      <c r="A129">
+        <f t="array" ref="A129:A132">A123:D126-F123:I126+K123:N126</f>
+        <v>280.96530676979523</v>
+      </c>
+      <c r="C129">
+        <f>SQRT(SUMPRODUCT(A129:A131,A129:A131))</f>
+        <v>281.09077428164744</v>
+      </c>
+      <c r="D129">
+        <f>A129+SIGN(A129)*C129</f>
+        <v>562.05608105144267</v>
+      </c>
+      <c r="E129">
+        <f>D129/(SQRT(SUMPRODUCT(D129:D131,D129:D131)))</f>
+        <v>0.99988840392093559</v>
+      </c>
+      <c r="G129">
+        <f t="array" ref="G129:I131">MMULT(E129:E131,TRANSPOSE(E129:E131))</f>
+        <v>0.99977682029555603</v>
+      </c>
+      <c r="H129">
+        <v>1.4453096047057874E-2</v>
+      </c>
+      <c r="I129">
+        <v>3.7733155073563793E-3</v>
+      </c>
+      <c r="K129">
+        <f>1-2*G129</f>
+        <v>-0.99955364059111207</v>
+      </c>
+      <c r="L129">
+        <f t="shared" ref="L129" si="54">-2*H129</f>
+        <v>-2.8906192094115747E-2</v>
+      </c>
+      <c r="M129">
+        <f t="shared" ref="M129:M130" si="55">-2*I129</f>
+        <v>-7.5466310147127586E-3</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130">
+        <v>8.1252639172690309</v>
+      </c>
+      <c r="D130">
+        <f>A130</f>
+        <v>8.1252639172690309</v>
+      </c>
+      <c r="E130">
+        <f>D130/(SQRT(SUMPRODUCT(D129:D131,D129:D131)))</f>
+        <v>1.4454709135921459E-2</v>
+      </c>
+      <c r="G130">
+        <v>1.4453096047057874E-2</v>
+      </c>
+      <c r="H130">
+        <v>2.0893861620409132E-4</v>
+      </c>
+      <c r="I130">
+        <v>5.4548265509448988E-5</v>
+      </c>
+      <c r="K130">
+        <f t="shared" ref="K130:K131" si="56">-2*G130</f>
+        <v>-2.8906192094115747E-2</v>
+      </c>
+      <c r="L130">
+        <f>1-2*H130</f>
+        <v>0.99958212276759184</v>
+      </c>
+      <c r="M130">
         <f t="shared" si="55"/>
-        <v>-5.9390917886584598</v>
-      </c>
-      <c r="D119" s="2">
+        <v>-1.0909653101889798E-4</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="A131">
+        <v>2.1212883551435038</v>
+      </c>
+      <c r="D131">
+        <f>A131</f>
+        <v>2.1212883551435038</v>
+      </c>
+      <c r="E131">
+        <f>D131/(SQRT(SUMPRODUCT(D129:D131,D129:D131)))</f>
+        <v>3.7737366415689999E-3</v>
+      </c>
+      <c r="G131">
+        <v>3.7733155073563793E-3</v>
+      </c>
+      <c r="H131">
+        <v>5.4548265509448988E-5</v>
+      </c>
+      <c r="I131">
+        <v>1.4241088239920475E-5</v>
+      </c>
+      <c r="K131">
         <f t="shared" si="56"/>
-        <v>5.2850170367247991</v>
-      </c>
-    </row>
-    <row r="120" spans="1:32">
-      <c r="A120" s="2">
-        <f t="shared" si="53"/>
-        <v>-9.3240393489942101E-23</v>
-      </c>
-      <c r="B120" s="2">
-        <f t="shared" si="54"/>
-        <v>1.6940658945086007E-21</v>
-      </c>
-      <c r="C120" s="2">
-        <f t="shared" si="55"/>
-        <v>2.0808116387927624E-11</v>
-      </c>
-      <c r="D120" s="2">
-        <f t="shared" si="56"/>
-        <v>-0.41317514038075642</v>
-      </c>
-    </row>
-    <row r="121" spans="1:32">
-      <c r="A121" t="s">
-        <v>82</v>
-      </c>
-      <c r="J121" t="s">
+        <v>-7.5466310147127586E-3</v>
+      </c>
+      <c r="L131">
+        <f t="shared" ref="L131" si="57">-2*H131</f>
+        <v>-1.0909653101889798E-4</v>
+      </c>
+      <c r="M131">
+        <f>1-2*I131</f>
+        <v>0.99997151782352012</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132">
+        <v>-1.4004132509949254E-17</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="K133" t="s">
         <v>22</v>
       </c>
-      <c r="O121" t="s">
-        <v>75</v>
-      </c>
-      <c r="X121" t="s">
+      <c r="P133" t="s">
         <v>23</v>
       </c>
-      <c r="AC121" t="s">
+      <c r="U133" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134">
+        <f t="array" ref="A134:D137">MMULT(MMULT(K129:N132,A117:D120),K129:N132)</f>
+        <v>12.543402848628933</v>
+      </c>
+      <c r="B134">
+        <v>10.38361628152467</v>
+      </c>
+      <c r="C134">
+        <v>11.46428805052836</v>
+      </c>
+      <c r="D134">
+        <v>8.8961724410280798</v>
+      </c>
+      <c r="F134" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134">
+        <f>SQRT(A135*A135+A136*A136)</f>
+        <v>4.8458706583770043E-2</v>
+      </c>
+      <c r="H134" t="s">
+        <v>27</v>
+      </c>
+      <c r="I134">
+        <f>A135/G134</f>
+        <v>0.99811214147838778</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>1</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <f t="array" ref="U134:X137">MMULT(P134:S137,MMULT(K134:N137,A134:D137))</f>
+        <v>12.543402848628933</v>
+      </c>
+      <c r="V134">
+        <v>10.38361628152467</v>
+      </c>
+      <c r="W134">
+        <v>11.46428805052836</v>
+      </c>
+      <c r="X134">
+        <v>8.8961724410280798</v>
+      </c>
+      <c r="Z134">
+        <f t="array" ref="Z134:AC137">MMULT(MMULT(U134:X137,TRANSPOSE(K134:N137)), TRANSPOSE(P134:S137))</f>
+        <v>12.543402848628933</v>
+      </c>
+      <c r="AA134">
+        <v>9.6606533353087247</v>
+      </c>
+      <c r="AB134">
+        <v>12.080384545989075</v>
+      </c>
+      <c r="AC134">
+        <v>8.8953559818568149</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135">
+        <v>4.8367223401599567E-2</v>
+      </c>
+      <c r="B135">
+        <v>-0.10322784484422237</v>
+      </c>
+      <c r="C135">
+        <v>-6.8651042277252365</v>
+      </c>
+      <c r="D135">
+        <v>0.85492280427172729</v>
+      </c>
+      <c r="H135" t="s">
+        <v>28</v>
+      </c>
+      <c r="I135">
+        <f>A136/G134</f>
+        <v>-6.1417855982008537E-2</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <f>I134</f>
+        <v>0.99811214147838778</v>
+      </c>
+      <c r="M135">
+        <f>I135</f>
+        <v>-6.1417855982008537E-2</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <f>I136</f>
+        <v>0.99999999642842519</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <f>I137</f>
+        <v>8.45171556576264E-5</v>
+      </c>
+      <c r="U135">
+        <v>4.8458706756843939E-2</v>
+      </c>
+      <c r="V135">
+        <v>-0.45057665623177873</v>
+      </c>
+      <c r="W135">
+        <v>-6.3389533360843542</v>
+      </c>
+      <c r="X135">
+        <v>0.4517241576942187</v>
+      </c>
+      <c r="Z135">
+        <v>4.8458706756843939E-2</v>
+      </c>
+      <c r="AA135">
+        <v>-6.0362929522693384E-2</v>
+      </c>
+      <c r="AB135">
+        <v>-6.354659741192024</v>
+      </c>
+      <c r="AC135">
+        <v>0.45172926101071398</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136">
+        <v>-2.9762298620363975E-3</v>
+      </c>
+      <c r="B136">
+        <v>5.6586751037058871</v>
+      </c>
+      <c r="C136">
+        <v>-8.3557226338159882</v>
+      </c>
+      <c r="D136">
+        <v>6.5379969457366585</v>
+      </c>
+      <c r="F136" t="s">
+        <v>26</v>
+      </c>
+      <c r="G136">
+        <f>SQRT(G134*G134+A137*A137)</f>
+        <v>4.8458706756843939E-2</v>
+      </c>
+      <c r="H136" t="s">
+        <v>27</v>
+      </c>
+      <c r="I136">
+        <f>G134/G136</f>
+        <v>0.99999999642842519</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <f>-M135</f>
+        <v>6.1417855982008537E-2</v>
+      </c>
+      <c r="M136">
+        <f>L135</f>
+        <v>0.99811214147838778</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>1</v>
+      </c>
+      <c r="S136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>-4.3368086899420177E-19</v>
+      </c>
+      <c r="V136">
+        <v>5.6416522927823456</v>
+      </c>
+      <c r="W136">
+        <v>-8.761588194397417</v>
+      </c>
+      <c r="X136">
+        <v>6.5781616581568709</v>
+      </c>
+      <c r="Z136">
+        <v>-4.3368086899420177E-19</v>
+      </c>
+      <c r="AA136">
+        <v>6.1696755588019423</v>
+      </c>
+      <c r="AB136">
+        <v>-8.398549367443092</v>
+      </c>
+      <c r="AC136">
+        <v>6.5776402382198444</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137">
+        <v>4.0955920619354514E-6</v>
+      </c>
+      <c r="B137">
+        <v>5.9207199285967954E-8</v>
+      </c>
+      <c r="C137">
+        <v>-5.426892347823077E-4</v>
+      </c>
+      <c r="D137">
+        <v>-0.41313314811360746</v>
+      </c>
+      <c r="H137" t="s">
+        <v>28</v>
+      </c>
+      <c r="I137">
+        <f>A137/G136</f>
+        <v>8.45171556576264E-5</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <f>-S135</f>
+        <v>-8.45171556576264E-5</v>
+      </c>
+      <c r="R137">
+        <v>0</v>
+      </c>
+      <c r="S137">
+        <f>Q135</f>
+        <v>0.99999999642842519</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>3.814066472594227E-5</v>
+      </c>
+      <c r="W137">
+        <v>-6.938928994819067E-6</v>
+      </c>
+      <c r="X137">
+        <v>-0.41317132803022988</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>3.5747691068062809E-6</v>
+      </c>
+      <c r="AB137">
+        <v>-4.5833114253893405E-6</v>
+      </c>
+      <c r="AC137">
+        <v>-0.41317132980803151</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="K138" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="122" spans="1:32">
-      <c r="A122">
-        <f>A117-F118</f>
-        <v>0.46409671952898712</v>
-      </c>
-      <c r="B122">
-        <f t="shared" ref="B122:C122" si="57">B117</f>
-        <v>-14.091026565094293</v>
-      </c>
-      <c r="C122">
-        <f t="shared" si="57"/>
-        <v>-4.6156420434326515</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="P138" t="s">
+        <v>30</v>
+      </c>
+      <c r="U138" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139">
+        <f>Z134</f>
+        <v>12.543402848628933</v>
+      </c>
+      <c r="B139">
+        <f t="shared" ref="B139:B142" si="58">AA134</f>
+        <v>9.6606533353087247</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ref="C139:C142" si="59">AB134</f>
+        <v>12.080384545989075</v>
+      </c>
+      <c r="D139">
+        <f t="shared" ref="D139:D142" si="60">AC134</f>
+        <v>8.8953559818568149</v>
+      </c>
+      <c r="F139" t="s">
         <v>26</v>
       </c>
-      <c r="F122">
-        <f>SQRT(A122*A122+A123*A123)</f>
-        <v>0.70850459394514342</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="G139">
+        <f>SQRT(B141*B141+B142*B142)</f>
+        <v>6.169675558802977</v>
+      </c>
+      <c r="H139" t="s">
         <v>27</v>
       </c>
-      <c r="H122">
-        <f>A122/F122</f>
-        <v>0.65503699410722549</v>
-      </c>
-      <c r="J122">
-        <f>H122</f>
-        <v>0.65503699410722549</v>
-      </c>
-      <c r="K122">
-        <f>-J123</f>
-        <v>0.75559680806033747</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="M122">
-        <v>0</v>
-      </c>
-      <c r="O122">
-        <f t="array" ref="O122:Q124">MMULT(J122:L124,A122:C124)</f>
-        <v>0.70850459394514331</v>
-      </c>
-      <c r="P122">
-        <v>-21.029186809961466</v>
-      </c>
-      <c r="Q122">
-        <v>-10.760851021095752</v>
-      </c>
-      <c r="S122" t="s">
-        <v>26</v>
-      </c>
-      <c r="T122">
-        <f>SQRT(P123*P123+P124*P124)</f>
-        <v>2.4432264194659932</v>
-      </c>
-      <c r="U122" t="s">
-        <v>27</v>
-      </c>
-      <c r="V122">
-        <f>P123/T122</f>
-        <v>0.17124330299950041</v>
-      </c>
-      <c r="X122">
+      <c r="I139">
+        <f>B141/G139</f>
+        <v>0.99999999999983225</v>
+      </c>
+      <c r="K139">
         <v>1</v>
       </c>
-      <c r="Y122">
-        <v>0</v>
-      </c>
-      <c r="Z122">
-        <v>0</v>
-      </c>
-      <c r="AA122">
-        <v>0</v>
-      </c>
-      <c r="AC122">
-        <f t="array" ref="AC122:AF125">MMULT(X122:AA125,J122:M125)</f>
-        <v>0.65503699410722549</v>
-      </c>
-      <c r="AD122">
-        <v>0.75559680806033747</v>
-      </c>
-      <c r="AE122">
-        <v>0</v>
-      </c>
-      <c r="AF122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:32">
-      <c r="A123">
-        <f t="shared" ref="A123:C123" si="58">A118</f>
-        <v>0.5353438096810359</v>
-      </c>
-      <c r="B123">
-        <f>B118-F118</f>
-        <v>-15.615528015749423</v>
-      </c>
-      <c r="C123">
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <f t="array" ref="P139:S142">MMULT(K139:N142,A139:D142)</f>
+        <v>12.543402848628933</v>
+      </c>
+      <c r="Q139">
+        <v>9.6606533353087247</v>
+      </c>
+      <c r="R139">
+        <v>12.080384545989075</v>
+      </c>
+      <c r="S139">
+        <v>8.8953559818568149</v>
+      </c>
+      <c r="U139">
+        <f t="array" ref="U139:X142">MMULT(P139:S142,TRANSPOSE(K139:N142))</f>
+        <v>12.543402848628933</v>
+      </c>
+      <c r="V139">
+        <v>9.6606533353087247</v>
+      </c>
+      <c r="W139">
+        <v>12.080389700041497</v>
+      </c>
+      <c r="X139">
+        <v>8.8953489823648209</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140">
+        <f t="shared" ref="A140:A142" si="61">Z135</f>
+        <v>4.8458706756843939E-2</v>
+      </c>
+      <c r="B140">
         <f t="shared" si="58"/>
-        <v>-10.240163336519586</v>
-      </c>
-      <c r="G123" t="s">
+        <v>-6.0362929522693384E-2</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="59"/>
+        <v>-6.354659741192024</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="60"/>
+        <v>0.45172926101071398</v>
+      </c>
+      <c r="H140" t="s">
         <v>28</v>
       </c>
-      <c r="H123">
-        <f>A123/F122</f>
-        <v>0.75559680806033747</v>
-      </c>
-      <c r="J123">
-        <f>-H123</f>
-        <v>-0.75559680806033747</v>
-      </c>
-      <c r="K123">
-        <f>J122</f>
-        <v>0.65503699410722549</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-      <c r="P123">
-        <v>0.41838616204499957</v>
-      </c>
-      <c r="Q123">
-        <v>-3.2201214159540017</v>
-      </c>
-      <c r="U123" t="s">
-        <v>28</v>
-      </c>
-      <c r="V123">
-        <f>P124/T122</f>
-        <v>0.9852287709856129</v>
-      </c>
-      <c r="X123">
-        <v>0</v>
-      </c>
-      <c r="Y123">
-        <f>V122</f>
-        <v>0.17124330299950041</v>
-      </c>
-      <c r="Z123">
-        <f>-Y124</f>
-        <v>0.9852287709856129</v>
-      </c>
-      <c r="AA123">
-        <v>0</v>
-      </c>
-      <c r="AC123">
-        <v>-0.12939089314813174</v>
-      </c>
-      <c r="AD123">
-        <v>0.11217069845778559</v>
-      </c>
-      <c r="AE123">
-        <v>0.9852287709856129</v>
-      </c>
-      <c r="AF123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:32">
-      <c r="A124">
-        <f t="shared" ref="A124:B124" si="59">A119</f>
-        <v>2.7755575616280094E-17</v>
-      </c>
-      <c r="B124">
+      <c r="I140">
+        <f>B142/G139</f>
+        <v>5.7940957717067505E-7</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>4.8458706756843939E-2</v>
+      </c>
+      <c r="Q140">
+        <v>-6.0362929522693384E-2</v>
+      </c>
+      <c r="R140">
+        <v>-6.354659741192024</v>
+      </c>
+      <c r="S140">
+        <v>0.45172926101071398</v>
+      </c>
+      <c r="U140">
+        <v>4.8458706756843939E-2</v>
+      </c>
+      <c r="V140">
+        <v>-6.0362929522693384E-2</v>
+      </c>
+      <c r="W140">
+        <v>-6.354659479454698</v>
+      </c>
+      <c r="X140">
+        <v>0.45173294296135191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141">
+        <f t="shared" si="61"/>
+        <v>-4.3368086899420177E-19</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="58"/>
+        <v>6.1696755588019423</v>
+      </c>
+      <c r="C141">
         <f t="shared" si="59"/>
-        <v>2.40713696249006</v>
-      </c>
-      <c r="C124">
-        <f>C119-F118</f>
-        <v>-18.526600512215847</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>1</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="O124">
-        <v>2.7755575616280094E-17</v>
-      </c>
-      <c r="P124">
-        <v>2.40713696249006</v>
-      </c>
-      <c r="Q124">
-        <v>-18.526600512215847</v>
-      </c>
-      <c r="X124">
-        <v>0</v>
-      </c>
-      <c r="Y124">
-        <f>-V123</f>
-        <v>-0.9852287709856129</v>
-      </c>
-      <c r="Z124">
-        <f>Y123</f>
-        <v>0.17124330299950041</v>
-      </c>
-      <c r="AA124">
-        <v>0</v>
-      </c>
-      <c r="AC124">
-        <v>0.74443571456593838</v>
-      </c>
-      <c r="AD124">
-        <v>-0.64536129265437192</v>
-      </c>
-      <c r="AE124">
-        <v>0.17124330299950041</v>
-      </c>
-      <c r="AF124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:32">
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125">
-        <v>1</v>
-      </c>
-      <c r="X125">
-        <v>0</v>
-      </c>
-      <c r="Y125">
-        <v>0</v>
-      </c>
-      <c r="Z125">
-        <v>0</v>
-      </c>
-      <c r="AA125">
-        <v>1</v>
-      </c>
-      <c r="AC125">
-        <v>0</v>
-      </c>
-      <c r="AD125">
-        <v>0</v>
-      </c>
-      <c r="AE125">
-        <v>0</v>
-      </c>
-      <c r="AF125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:32">
-      <c r="A126">
-        <f t="array" ref="A126:D129">MMULT(MMULT(AC122:AF125,A117:D120),TRANSPOSE(AC122:AF125))</f>
-        <v>-2.8379809866250625</v>
-      </c>
-      <c r="B126">
-        <v>-13.052432640956191</v>
-      </c>
-      <c r="C126">
-        <v>12.25613563487582</v>
-      </c>
-      <c r="D126">
-        <v>-3.2104944435719975</v>
-      </c>
-    </row>
-    <row r="127" spans="1:32">
-      <c r="A127">
-        <v>1.8460940839171913</v>
-      </c>
-      <c r="B127">
-        <v>-5.66503337469657</v>
-      </c>
-      <c r="C127">
-        <v>-4.796885176267164</v>
-      </c>
-      <c r="D127">
-        <v>6.7797628301938708</v>
-      </c>
-    </row>
-    <row r="128" spans="1:32">
-      <c r="A128">
-        <v>-8.8817841970012523E-16</v>
-      </c>
-      <c r="B128">
-        <v>7.2386541205560206E-13</v>
-      </c>
-      <c r="C128">
-        <v>12.587508723557514</v>
-      </c>
-      <c r="D128">
-        <v>-8.1439702435844623</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129">
-        <v>1.2189548754535524E-21</v>
-      </c>
-      <c r="B129">
-        <v>2.0500754935605615E-11</v>
-      </c>
-      <c r="C129">
-        <v>3.563250578304064E-12</v>
-      </c>
-      <c r="D129">
-        <v>-0.41317514038075642</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" t="s">
+        <v>-8.398549367443092</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="60"/>
+        <v>6.5776402382198444</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <f>I139</f>
+        <v>0.99999999999983225</v>
+      </c>
+      <c r="N141">
+        <f>I140</f>
+        <v>5.7940957717067505E-7</v>
+      </c>
+      <c r="P141">
+        <v>-4.3368086899412902E-19</v>
+      </c>
+      <c r="Q141">
+        <v>6.1696755588029788</v>
+      </c>
+      <c r="R141">
+        <v>-8.398549367444339</v>
+      </c>
+      <c r="S141">
+        <v>6.5776399988233161</v>
+      </c>
+      <c r="U141">
+        <v>-4.3368086899412902E-19</v>
+      </c>
+      <c r="V141">
+        <v>6.1696755588029788</v>
+      </c>
+      <c r="W141">
+        <v>-8.3985455562953195</v>
+      </c>
+      <c r="X141">
+        <v>6.5776448650221511</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="58"/>
+        <v>3.5747691068062809E-6</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="59"/>
+        <v>-4.5833114253893405E-6</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="60"/>
+        <v>-0.41317132980803151</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <f>-N141</f>
+        <v>-5.7940957717067505E-7</v>
+      </c>
+      <c r="N142">
+        <f>M141</f>
+        <v>0.99999999999983225</v>
+      </c>
+      <c r="P142">
+        <v>2.5127884893094137E-25</v>
+      </c>
+      <c r="Q142">
+        <v>-4.2351647362715017E-22</v>
+      </c>
+      <c r="R142">
+        <v>2.8288851244867093E-7</v>
+      </c>
+      <c r="S142">
+        <v>-0.4131751409557114</v>
+      </c>
+      <c r="U142">
+        <v>2.5127884893094137E-25</v>
+      </c>
+      <c r="V142">
+        <v>-4.2351647362715017E-22</v>
+      </c>
+      <c r="W142">
+        <v>4.3490878730040687E-8</v>
+      </c>
+      <c r="X142">
+        <v>-0.41317514095580599</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
-      <c r="A132">
+    <row r="145" spans="1:48">
+      <c r="A145">
         <v>4</v>
       </c>
-      <c r="B132">
+      <c r="B145">
         <v>4</v>
       </c>
-      <c r="F132" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133">
-        <f>A126</f>
-        <v>-2.8379809866250625</v>
-      </c>
-      <c r="B133">
-        <f t="shared" ref="B133:D133" si="60">B126</f>
-        <v>-13.052432640956191</v>
-      </c>
-      <c r="C133" s="2">
-        <f t="shared" si="60"/>
-        <v>12.25613563487582</v>
-      </c>
-      <c r="D133" s="2">
-        <f t="shared" si="60"/>
-        <v>-3.2104944435719975</v>
-      </c>
-      <c r="F133" t="s">
+    </row>
+    <row r="146" spans="1:48">
+      <c r="A146">
+        <f>U139</f>
+        <v>12.543402848628933</v>
+      </c>
+      <c r="B146">
+        <f t="shared" ref="B146:D146" si="62">V139</f>
+        <v>9.6606533353087247</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="62"/>
+        <v>12.080389700041497</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="62"/>
+        <v>8.8953489823648209</v>
+      </c>
+      <c r="F146">
+        <f>C148</f>
+        <v>-8.3985455562953195</v>
+      </c>
+      <c r="G146">
+        <f>D148</f>
+        <v>6.5776448650221511</v>
+      </c>
+      <c r="I146" t="s">
         <v>11</v>
       </c>
-      <c r="G133">
-        <f>A133+B134</f>
-        <v>-8.5030143613216325</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134">
-        <f t="shared" ref="A134:D134" si="61">A127</f>
-        <v>1.8460940839171913</v>
-      </c>
-      <c r="B134">
-        <f t="shared" si="61"/>
-        <v>-5.66503337469657</v>
-      </c>
-      <c r="C134" s="2">
-        <f t="shared" si="61"/>
-        <v>-4.796885176267164</v>
-      </c>
-      <c r="D134" s="2">
-        <f t="shared" si="61"/>
-        <v>6.7797628301938708</v>
-      </c>
-      <c r="F134" t="s">
+      <c r="J146">
+        <f>F146+G147</f>
+        <v>-8.8117206972511255</v>
+      </c>
+      <c r="L146" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="147" spans="1:48">
+      <c r="A147">
+        <f t="shared" ref="A147:A149" si="63">U140</f>
+        <v>4.8458706756843939E-2</v>
+      </c>
+      <c r="B147">
+        <f t="shared" ref="B147:B149" si="64">V140</f>
+        <v>-6.0362929522693384E-2</v>
+      </c>
+      <c r="C147">
+        <f t="shared" ref="C147:C149" si="65">W140</f>
+        <v>-6.354659479454698</v>
+      </c>
+      <c r="D147">
+        <f t="shared" ref="D147:D149" si="66">X140</f>
+        <v>0.45173294296135191</v>
+      </c>
+      <c r="F147">
+        <f>C149</f>
+        <v>4.3490878730040687E-8</v>
+      </c>
+      <c r="G147">
+        <f>D149</f>
+        <v>-0.41317514095580599</v>
+      </c>
+      <c r="I147" t="s">
         <v>12</v>
       </c>
-      <c r="G134">
-        <f>A133*B134-A134*B133</f>
-        <v>40.173275685182148</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="2">
-        <f t="shared" ref="A135:D135" si="62">A128</f>
-        <v>-8.8817841970012523E-16</v>
-      </c>
-      <c r="B135" s="2">
-        <f t="shared" si="62"/>
-        <v>7.2386541205560206E-13</v>
-      </c>
-      <c r="C135" s="2">
-        <f t="shared" si="62"/>
-        <v>12.587508723557514</v>
-      </c>
-      <c r="D135" s="2">
-        <f t="shared" si="62"/>
-        <v>-8.1439702435844623</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G135" s="1">
-        <f>G133*G133-4*G134</f>
-        <v>-88.391849511886662</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="2">
-        <f t="shared" ref="A136:D136" si="63">A129</f>
-        <v>1.2189548754535524E-21</v>
-      </c>
-      <c r="B136" s="2">
+      <c r="J147">
+        <f>F146*G147-F147*G146</f>
+        <v>3.4700699579785215</v>
+      </c>
+      <c r="L147">
+        <f>D149/C149</f>
+        <v>-9500271.1607758645</v>
+      </c>
+    </row>
+    <row r="148" spans="1:48">
+      <c r="A148">
         <f t="shared" si="63"/>
-        <v>2.0500754935605615E-11</v>
-      </c>
-      <c r="C136" s="2">
-        <f t="shared" si="63"/>
-        <v>3.563250578304064E-12</v>
-      </c>
-      <c r="D136" s="2">
-        <f t="shared" si="63"/>
-        <v>-0.41317514038075642</v>
-      </c>
-      <c r="F136" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139">
-        <v>-3.5694421973592254</v>
-      </c>
-      <c r="B139">
-        <v>9.3160263708859929</v>
-      </c>
-      <c r="C139">
-        <v>-3.6938610070449012</v>
-      </c>
-      <c r="D139">
-        <v>12.601891140270173</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140">
-        <v>-4.4853808533749326</v>
-      </c>
-      <c r="B140">
-        <v>5.7762222832594485</v>
-      </c>
-      <c r="C140">
-        <v>4.3840444220588299</v>
-      </c>
-      <c r="D140">
-        <v>7.5497403497491895</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141">
-        <v>1.4431979036318978</v>
-      </c>
-      <c r="B141">
-        <v>3.7636328907381351</v>
-      </c>
-      <c r="C141">
-        <v>-4.3545403170178503</v>
-      </c>
-      <c r="D141">
-        <v>5.6371367508942392</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142">
-        <v>-3.7509122499594487</v>
-      </c>
-      <c r="B142">
-        <v>5.5094838761070211</v>
-      </c>
-      <c r="C142">
-        <v>11.018198478193678</v>
-      </c>
-      <c r="D142">
-        <v>5.8190794529727725</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" t="s">
-        <v>60</v>
-      </c>
-      <c r="B144">
-        <f>C135</f>
-        <v>12.587508723557514</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" t="s">
-        <v>83</v>
-      </c>
-      <c r="F146" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <f>A139-B144</f>
-        <v>-16.156950920916739</v>
-      </c>
-      <c r="B147">
-        <f t="shared" ref="B147:D147" si="64">B139</f>
-        <v>9.3160263708859929</v>
-      </c>
-      <c r="C147">
+        <v>-4.3368086899412902E-19</v>
+      </c>
+      <c r="B148">
         <f t="shared" si="64"/>
-        <v>-3.6938610070449012</v>
-      </c>
-      <c r="D147">
-        <f t="shared" si="64"/>
-        <v>12.601891140270173</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <f t="shared" ref="A148:D148" si="65">A140</f>
-        <v>-4.4853808533749326</v>
-      </c>
-      <c r="B148">
-        <f>B140-B144</f>
-        <v>-6.8112864402980655</v>
+        <v>6.1696755588029788</v>
       </c>
       <c r="C148">
         <f t="shared" si="65"/>
-        <v>4.3840444220588299</v>
+        <v>-8.3985455562953195</v>
       </c>
       <c r="D148">
+        <f t="shared" si="66"/>
+        <v>6.5776448650221511</v>
+      </c>
+      <c r="L148" t="s">
+        <v>74</v>
+      </c>
+      <c r="M148">
+        <f>D149</f>
+        <v>-0.41317514095580599</v>
+      </c>
+    </row>
+    <row r="149" spans="1:48">
+      <c r="A149">
+        <f t="shared" si="63"/>
+        <v>2.5127884893094137E-25</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="64"/>
+        <v>-4.2351647362715017E-22</v>
+      </c>
+      <c r="C149">
         <f t="shared" si="65"/>
-        <v>7.5497403497491895</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <f t="shared" ref="A149:D149" si="66">A141</f>
-        <v>1.4431979036318978</v>
-      </c>
-      <c r="B149">
-        <f t="shared" si="66"/>
-        <v>3.7636328907381351</v>
-      </c>
-      <c r="C149">
-        <f>C141-B144</f>
-        <v>-16.942049040575363</v>
+        <v>4.3490878730040687E-8</v>
       </c>
       <c r="D149">
         <f t="shared" si="66"/>
-        <v>5.6371367508942392</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <f t="shared" ref="A150:C150" si="67">A142</f>
-        <v>-3.7509122499594487</v>
-      </c>
-      <c r="B150">
+        <v>-0.41317514095580599</v>
+      </c>
+    </row>
+    <row r="150" spans="1:48">
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+      <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W150" s="1"/>
+      <c r="X150" s="1"/>
+      <c r="Y150" s="1"/>
+      <c r="Z150" s="1"/>
+      <c r="AA150" s="1"/>
+      <c r="AB150" s="1"/>
+      <c r="AC150" s="1"/>
+      <c r="AD150" s="1"/>
+      <c r="AE150" s="1"/>
+      <c r="AF150" s="1"/>
+      <c r="AG150" s="1"/>
+      <c r="AH150" s="1"/>
+      <c r="AI150" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ150" s="1"/>
+      <c r="AK150" s="1"/>
+      <c r="AL150" s="1"/>
+      <c r="AM150" s="1"/>
+      <c r="AN150" s="1"/>
+      <c r="AO150" s="1"/>
+      <c r="AP150" s="1"/>
+      <c r="AQ150" s="1"/>
+      <c r="AR150" s="1"/>
+      <c r="AS150" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT150" s="1"/>
+      <c r="AU150" s="1"/>
+      <c r="AV150" s="1"/>
+    </row>
+    <row r="151" spans="1:48">
+      <c r="A151">
+        <f>A146-M148</f>
+        <v>12.956577989584739</v>
+      </c>
+      <c r="B151">
+        <f t="shared" ref="B151:D151" si="67">B146</f>
+        <v>9.6606533353087247</v>
+      </c>
+      <c r="C151">
         <f t="shared" si="67"/>
-        <v>5.5094838761070211</v>
-      </c>
-      <c r="C150">
+        <v>12.080389700041497</v>
+      </c>
+      <c r="D151">
         <f t="shared" si="67"/>
-        <v>11.018198478193678</v>
-      </c>
-      <c r="D150">
-        <f>D142-B144</f>
-        <v>-6.7684292705847415</v>
+        <v>8.8953489823648209</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G151" s="1">
+        <f>SQRT(SUMPRODUCT(A151:A152,A151:A152))</f>
+        <v>12.956668609116011</v>
+      </c>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1">
+        <f>G152</f>
+        <v>0.99999300595438489</v>
+      </c>
+      <c r="J151" s="1">
+        <f>-G153</f>
+        <v>3.7400591323875892E-3</v>
+      </c>
+      <c r="K151" s="1">
+        <v>0</v>
+      </c>
+      <c r="L151" s="1">
+        <v>0</v>
+      </c>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1">
+        <f t="array" ref="N151:Q154">MMULT(I151:L154,A151:D154)</f>
+        <v>12.956668609116013</v>
+      </c>
+      <c r="O151" s="1">
+        <v>9.6619053067920149</v>
+      </c>
+      <c r="P151" s="1">
+        <v>12.05653840702554</v>
+      </c>
+      <c r="Q151" s="1">
+        <v>8.896976275806999</v>
+      </c>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+      <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1">
+        <v>1</v>
+      </c>
+      <c r="W151" s="1">
+        <v>0</v>
+      </c>
+      <c r="X151" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y151" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z151" s="1"/>
+      <c r="AA151" s="1">
+        <f t="array" ref="AA151:AD154">MMULT(V151:Y154,N151:Q154)</f>
+        <v>12.956668609116013</v>
+      </c>
+      <c r="AB151" s="1">
+        <v>9.6619053067920149</v>
+      </c>
+      <c r="AC151" s="1">
+        <v>12.05653840702554</v>
+      </c>
+      <c r="AD151" s="1">
+        <v>8.896976275806999</v>
+      </c>
+      <c r="AE151" s="1"/>
+      <c r="AF151" s="1"/>
+      <c r="AG151" s="1"/>
+      <c r="AH151" s="1"/>
+      <c r="AI151" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM151" s="1"/>
+      <c r="AN151" s="1">
+        <f t="array" ref="AN151:AQ154">MMULT(AI151:AL154,AA151:AD154)</f>
+        <v>12.956668609116013</v>
+      </c>
+      <c r="AO151" s="1">
+        <v>9.6619053067920149</v>
+      </c>
+      <c r="AP151" s="1">
+        <v>12.05653840702554</v>
+      </c>
+      <c r="AQ151" s="1">
+        <v>8.896976275806999</v>
+      </c>
+      <c r="AR151" s="1"/>
+      <c r="AS151" s="1">
+        <f t="array" ref="AS151:AV154">MMULT(AI151:AL154,MMULT(V151:Y154,I151:L154))</f>
+        <v>0.99999300595438489</v>
+      </c>
+      <c r="AT151" s="1">
+        <v>3.7400591323875892E-3</v>
+      </c>
+      <c r="AU151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:48">
+      <c r="A152">
+        <f t="shared" ref="A152:D152" si="68">A147</f>
+        <v>4.8458706756843939E-2</v>
+      </c>
+      <c r="B152">
+        <f>B147-M148</f>
+        <v>0.35281221143311259</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="68"/>
+        <v>-6.354659479454698</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="68"/>
+        <v>0.45173294296135191</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G152" s="1">
+        <f>A151/G151</f>
+        <v>0.99999300595438489</v>
+      </c>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1">
+        <f>-J151</f>
+        <v>-3.7400591323875892E-3</v>
+      </c>
+      <c r="J152" s="1">
+        <f>I151</f>
+        <v>0.99999300595438489</v>
+      </c>
+      <c r="K152" s="1">
+        <v>0</v>
+      </c>
+      <c r="L152" s="1">
+        <v>0</v>
+      </c>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1">
+        <v>0</v>
+      </c>
+      <c r="O152" s="1">
+        <v>0.31667832911686022</v>
+      </c>
+      <c r="P152" s="1">
+        <v>-6.399796406496872</v>
+      </c>
+      <c r="Q152" s="1">
+        <v>0.41846065232327478</v>
+      </c>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T152" s="1">
+        <f>SQRT(SUMPRODUCT(O152:O153,O152:O153))</f>
+        <v>6.1777974768539545</v>
+      </c>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1">
+        <v>0</v>
+      </c>
+      <c r="W152" s="1">
+        <f>T153</f>
+        <v>5.1260717157424328E-2</v>
+      </c>
+      <c r="X152" s="1">
+        <f>-T154</f>
+        <v>0.99868530522708043</v>
+      </c>
+      <c r="Y152" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z152" s="1"/>
+      <c r="AA152" s="1">
+        <v>-4.3311071102254723E-19</v>
+      </c>
+      <c r="AB152" s="1">
+        <v>6.1777974768539563</v>
+      </c>
+      <c r="AC152" s="1">
+        <v>-8.3029302440531758</v>
+      </c>
+      <c r="AD152" s="1">
+        <v>6.5904478628402403</v>
+      </c>
+      <c r="AE152" s="1"/>
+      <c r="AF152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG152" s="1">
+        <f>SQRT(SUMPRODUCT(AC153:AC154,AC153:AC154))</f>
+        <v>5.9820468133555185</v>
+      </c>
+      <c r="AH152" s="1"/>
+      <c r="AI152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ152" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL152" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM152" s="1"/>
+      <c r="AN152" s="1">
+        <v>-4.3311071102254723E-19</v>
+      </c>
+      <c r="AO152" s="1">
+        <v>6.1777974768539563</v>
+      </c>
+      <c r="AP152" s="1">
+        <v>-8.3029302440531758</v>
+      </c>
+      <c r="AQ152" s="1">
+        <v>6.5904478628402403</v>
+      </c>
+      <c r="AR152" s="1"/>
+      <c r="AS152" s="1">
+        <v>-1.9171811333736205E-4</v>
+      </c>
+      <c r="AT152" s="1">
+        <v>5.1260358637630267E-2</v>
+      </c>
+      <c r="AU152" s="1">
+        <v>0.99868530522708043</v>
+      </c>
+      <c r="AV152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:48">
+      <c r="A153">
+        <f t="shared" ref="A153:D153" si="69">A148</f>
+        <v>-4.3368086899412902E-19</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="69"/>
+        <v>6.1696755588029788</v>
+      </c>
+      <c r="C153">
+        <f>C148-M148</f>
+        <v>-7.9853704153395135</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="69"/>
+        <v>6.5776448650221511</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G153" s="1">
+        <f>-A152/G151</f>
+        <v>-3.7400591323875892E-3</v>
+      </c>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1">
+        <v>0</v>
+      </c>
+      <c r="J153" s="1">
+        <v>0</v>
+      </c>
+      <c r="K153" s="1">
+        <v>1</v>
+      </c>
+      <c r="L153" s="1">
+        <v>0</v>
+      </c>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1">
+        <v>-4.3368086899412902E-19</v>
+      </c>
+      <c r="O153" s="1">
+        <v>6.1696755588029788</v>
+      </c>
+      <c r="P153" s="1">
+        <v>-7.9853704153395135</v>
+      </c>
+      <c r="Q153" s="1">
+        <v>6.5776448650221511</v>
+      </c>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T153" s="1">
+        <f>O152/T152</f>
+        <v>5.1260717157424328E-2</v>
+      </c>
+      <c r="U153" s="1"/>
+      <c r="V153" s="1">
+        <v>0</v>
+      </c>
+      <c r="W153" s="1">
+        <f>-X152</f>
+        <v>-0.99868530522708043</v>
+      </c>
+      <c r="X153" s="1">
+        <f>W152</f>
+        <v>5.1260717157424328E-2</v>
+      </c>
+      <c r="Y153" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z153" s="1"/>
+      <c r="AA153" s="1">
+        <v>-2.2230792362094043E-20</v>
+      </c>
+      <c r="AB153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC153" s="1">
+        <v>5.9820468133555185</v>
+      </c>
+      <c r="AD153" s="1">
+        <v>-8.073571130310786E-2</v>
+      </c>
+      <c r="AE153" s="1"/>
+      <c r="AF153" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG153" s="1">
+        <f>AC153/AG152</f>
+        <v>1</v>
+      </c>
+      <c r="AH153" s="1"/>
+      <c r="AI153" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ153" s="1">
+        <f>-AK152</f>
+        <v>0</v>
+      </c>
+      <c r="AK153" s="1">
+        <f>AG153</f>
+        <v>1</v>
+      </c>
+      <c r="AL153" s="1">
+        <f>-AG154</f>
+        <v>7.2702337656306778E-9</v>
+      </c>
+      <c r="AM153" s="1"/>
+      <c r="AN153" s="1">
+        <v>-2.2230792362092216E-20</v>
+      </c>
+      <c r="AO153" s="1">
+        <v>-3.0790637668649416E-30</v>
+      </c>
+      <c r="AP153" s="1">
+        <v>5.9820468133555185</v>
+      </c>
+      <c r="AQ153" s="1">
+        <v>-8.073571130310786E-2</v>
+      </c>
+      <c r="AR153" s="1"/>
+      <c r="AS153" s="1">
+        <v>3.735142096195829E-3</v>
+      </c>
+      <c r="AT153" s="1">
+        <v>-0.99867832037650051</v>
+      </c>
+      <c r="AU153" s="1">
+        <v>5.1260717157424328E-2</v>
+      </c>
+      <c r="AV153" s="1">
+        <v>7.2702337656306778E-9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:48">
+      <c r="A154">
+        <f t="shared" ref="A154:C154" si="70">A149</f>
+        <v>2.5127884893094137E-25</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="70"/>
+        <v>-4.2351647362715017E-22</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="70"/>
+        <v>4.3490878730040687E-8</v>
+      </c>
+      <c r="D154">
+        <f>D149-M148</f>
+        <v>0</v>
+      </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1">
+        <v>0</v>
+      </c>
+      <c r="J154" s="1">
+        <v>0</v>
+      </c>
+      <c r="K154" s="1">
+        <v>0</v>
+      </c>
+      <c r="L154" s="1">
+        <v>1</v>
+      </c>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1">
+        <v>2.5127884893094137E-25</v>
+      </c>
+      <c r="O154" s="1">
+        <v>-4.2351647362715017E-22</v>
+      </c>
+      <c r="P154" s="1">
+        <v>4.3490878730040687E-8</v>
+      </c>
+      <c r="Q154" s="1">
+        <v>0</v>
+      </c>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T154" s="1">
+        <f>-O153/T152</f>
+        <v>-0.99868530522708043</v>
+      </c>
+      <c r="U154" s="1"/>
+      <c r="V154" s="1">
+        <v>0</v>
+      </c>
+      <c r="W154" s="1">
+        <v>0</v>
+      </c>
+      <c r="X154" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y154" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z154" s="1"/>
+      <c r="AA154" s="1">
+        <v>2.5127884893094137E-25</v>
+      </c>
+      <c r="AB154" s="1">
+        <v>-4.2351647362715017E-22</v>
+      </c>
+      <c r="AC154" s="1">
+        <v>4.3490878730040687E-8</v>
+      </c>
+      <c r="AD154" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE154" s="1"/>
+      <c r="AF154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG154" s="1">
+        <f>-AC154/AG152</f>
+        <v>-7.2702337656306778E-9</v>
+      </c>
+      <c r="AH154" s="1"/>
+      <c r="AI154" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ154" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK154" s="1">
+        <f>-AL153</f>
+        <v>-7.2702337656306778E-9</v>
+      </c>
+      <c r="AL154" s="1">
+        <f>AK153</f>
+        <v>1</v>
+      </c>
+      <c r="AM154" s="1"/>
+      <c r="AN154" s="1">
+        <v>2.5144047198820901E-25</v>
+      </c>
+      <c r="AO154" s="1">
+        <v>-4.2351647362715017E-22</v>
+      </c>
+      <c r="AP154" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ154" s="1">
+        <v>5.8696749440806511E-10</v>
+      </c>
+      <c r="AR154" s="1"/>
+      <c r="AS154" s="1">
+        <v>-2.7155356187191465E-11</v>
+      </c>
+      <c r="AT154" s="1">
+        <v>7.2606248458045656E-9</v>
+      </c>
+      <c r="AU154" s="1">
+        <v>-3.7267739672835018E-10</v>
+      </c>
+      <c r="AV154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:48">
+      <c r="A156" s="1">
+        <f t="array" ref="A156:D159">MMULT(AN151:AQ154,TRANSPOSE(AS151:AV154))</f>
+        <v>12.992714086763673</v>
+      </c>
+      <c r="B156" s="1">
+        <v>12.533476442090423</v>
+      </c>
+      <c r="C156" s="1">
+        <v>-8.9827134952122218</v>
+      </c>
+      <c r="D156" s="1">
+        <v>8.8969763411134259</v>
+      </c>
+    </row>
+    <row r="157" spans="1:48">
+      <c r="A157" s="1">
+        <v>2.3105327871348644E-2</v>
+      </c>
+      <c r="B157" s="1">
+        <v>-7.9753383108072216</v>
+      </c>
+      <c r="C157" s="1">
+        <v>-6.5952465187148288</v>
+      </c>
+      <c r="D157" s="1">
+        <v>6.5904479107892247</v>
+      </c>
+    </row>
+    <row r="158" spans="1:48">
+      <c r="A158" s="1">
+        <v>-2.2230636878927892E-20</v>
+      </c>
+      <c r="B158" s="1">
+        <v>5.9741822476786401</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0.30664400913492129</v>
+      </c>
+      <c r="D158" s="1">
+        <v>-8.073571353248149E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:48">
+      <c r="A159" s="1">
+        <v>-1.3325379415037321E-24</v>
+      </c>
+      <c r="B159" s="1">
+        <v>-2.1709654532765104E-23</v>
+      </c>
+      <c r="C159" s="1">
+        <v>4.2678138548328508E-18</v>
+      </c>
+      <c r="D159" s="1">
+        <v>5.8696749440806511E-10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:35">
+      <c r="A161" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:35">
+      <c r="A162">
+        <v>4</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:35">
+      <c r="A163">
+        <f>A156+M148</f>
+        <v>12.579538945807867</v>
+      </c>
+      <c r="B163">
+        <f t="shared" ref="B163:D163" si="71">B156</f>
+        <v>12.533476442090423</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="71"/>
+        <v>-8.9827134952122218</v>
+      </c>
+      <c r="D163" s="2">
+        <f t="shared" si="71"/>
+        <v>8.8969763411134259</v>
+      </c>
+      <c r="F163" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="164" spans="1:35">
+      <c r="A164">
+        <f t="shared" ref="A164:D164" si="72">A157</f>
+        <v>2.3105327871348644E-2</v>
+      </c>
+      <c r="B164">
+        <f>B157+M148</f>
+        <v>-8.3885134517630284</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="72"/>
+        <v>-6.5952465187148288</v>
+      </c>
+      <c r="D164" s="2">
+        <f t="shared" si="72"/>
+        <v>6.5904479107892247</v>
+      </c>
+    </row>
+    <row r="165" spans="1:35">
+      <c r="A165">
+        <f t="shared" ref="A165:D165" si="73">A158</f>
+        <v>-2.2230636878927892E-20</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="73"/>
+        <v>5.9741822476786401</v>
+      </c>
+      <c r="C165">
+        <f>C158+M148</f>
+        <v>-0.10653113182088469</v>
+      </c>
+      <c r="D165" s="2">
+        <f t="shared" si="73"/>
+        <v>-8.073571353248149E-2</v>
+      </c>
+      <c r="L165" t="s">
+        <v>74</v>
+      </c>
+      <c r="M165">
+        <v>12.587508723557315</v>
+      </c>
+    </row>
+    <row r="166" spans="1:35">
+      <c r="A166" s="2">
+        <f t="shared" ref="A166:C166" si="74">A159</f>
+        <v>-1.3325379415037321E-24</v>
+      </c>
+      <c r="B166" s="2">
+        <f t="shared" si="74"/>
+        <v>-2.1709654532765104E-23</v>
+      </c>
+      <c r="C166" s="2">
+        <f t="shared" si="74"/>
+        <v>4.2678138548328508E-18</v>
+      </c>
+      <c r="D166" s="2">
+        <f>D159+M148</f>
+        <v>-0.41317514036883851</v>
+      </c>
+    </row>
+    <row r="167" spans="1:35">
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
+      <c r="U167" s="1"/>
+      <c r="V167" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W167" s="1"/>
+      <c r="X167" s="1"/>
+      <c r="Y167" s="1"/>
+      <c r="Z167" s="1"/>
+      <c r="AA167" s="1"/>
+      <c r="AB167" s="1"/>
+      <c r="AC167" s="1"/>
+      <c r="AD167" s="1"/>
+      <c r="AE167" s="1"/>
+      <c r="AF167" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG167" s="1"/>
+      <c r="AH167" s="1"/>
+      <c r="AI167" s="1"/>
+    </row>
+    <row r="168" spans="1:35">
+      <c r="A168">
+        <f>A163-M165</f>
+        <v>-7.9697777494480704E-3</v>
+      </c>
+      <c r="B168">
+        <f t="shared" ref="B168:D168" si="75">B163</f>
+        <v>12.533476442090423</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="75"/>
+        <v>-8.9827134952122218</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="75"/>
+        <v>8.8969763411134259</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G168" s="1">
+        <f>SQRT(SUMPRODUCT(A168:A169,A168:A169))</f>
+        <v>2.4441226103003057E-2</v>
+      </c>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1">
+        <f>G169</f>
+        <v>-0.326079293888977</v>
+      </c>
+      <c r="J168" s="1">
+        <f>-G170</f>
+        <v>0.94534242161074422</v>
+      </c>
+      <c r="K168" s="1">
+        <v>0</v>
+      </c>
+      <c r="L168" s="1">
+        <v>0</v>
+      </c>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1">
+        <f t="array" ref="N168:Q171">MMULT(I168:L171,A168:D171)</f>
+        <v>2.4441226103003057E-2</v>
+      </c>
+      <c r="O168" s="1">
+        <v>-23.916430747188979</v>
+      </c>
+      <c r="P168" s="1">
+        <v>-3.3056894413959212</v>
+      </c>
+      <c r="Q168" s="1">
+        <v>3.3291102244277555</v>
+      </c>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="T168" s="1"/>
+      <c r="U168" s="1"/>
+      <c r="V168" s="1">
+        <v>1</v>
+      </c>
+      <c r="W168" s="1">
+        <v>0</v>
+      </c>
+      <c r="X168" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y168" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z168" s="1"/>
+      <c r="AA168" s="1">
+        <f t="array" ref="AA168:AD171">MMULT(V168:Y171,N168:Q171)</f>
+        <v>2.4441226103003057E-2</v>
+      </c>
+      <c r="AB168" s="1">
+        <v>-23.916430747188979</v>
+      </c>
+      <c r="AC168" s="1">
+        <v>-3.3056894413959212</v>
+      </c>
+      <c r="AD168" s="1">
+        <v>3.3291102244277555</v>
+      </c>
+      <c r="AE168" s="1"/>
+      <c r="AF168" s="1">
+        <f t="array" ref="AF168:AI171">MMULT(V168:Y171, I168:L171)</f>
+        <v>-0.326079293888977</v>
+      </c>
+      <c r="AG168" s="1">
+        <v>0.94534242161074422</v>
+      </c>
+      <c r="AH168" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI168" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:35">
+      <c r="A169">
+        <f t="shared" ref="A169" si="76">A164</f>
+        <v>2.3105327871348644E-2</v>
+      </c>
+      <c r="B169">
+        <f>B164-M165</f>
+        <v>-20.976022175320345</v>
+      </c>
+      <c r="C169">
+        <f t="shared" ref="C169:D169" si="77">C164</f>
+        <v>-6.5952465187148288</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="77"/>
+        <v>6.5904479107892247</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G169" s="1">
+        <f>A168/G168</f>
+        <v>-0.326079293888977</v>
+      </c>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1">
+        <f>-J168</f>
+        <v>-0.94534242161074422</v>
+      </c>
+      <c r="J169" s="1">
+        <f>I168</f>
+        <v>-0.326079293888977</v>
+      </c>
+      <c r="K169" s="1">
+        <v>0</v>
+      </c>
+      <c r="L169" s="1">
+        <v>0</v>
+      </c>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1">
+        <v>8.6736173798840355E-19</v>
+      </c>
+      <c r="O169" s="1">
+        <v>-5.0085804714389948</v>
+      </c>
+      <c r="P169" s="1">
+        <v>10.642313456045699</v>
+      </c>
+      <c r="Q169" s="1">
+        <v>-10.5596977604839</v>
+      </c>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T169" s="1">
+        <f>SQRT(SUMPRODUCT(O169:O170,O169:O170))</f>
+        <v>7.7959432955453618</v>
+      </c>
+      <c r="U169" s="1"/>
+      <c r="V169" s="1">
+        <v>0</v>
+      </c>
+      <c r="W169" s="1">
+        <f>T170</f>
+        <v>-0.64245983860617883</v>
+      </c>
+      <c r="X169" s="1">
+        <f>-T171</f>
+        <v>0.76631935625959668</v>
+      </c>
+      <c r="Y169" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z169" s="1"/>
+      <c r="AA169" s="1">
+        <v>-5.7428084954350538E-19</v>
+      </c>
+      <c r="AB169" s="1">
+        <v>7.7959432955453618</v>
+      </c>
+      <c r="AC169" s="1">
+        <v>-16.564947435674572</v>
+      </c>
+      <c r="AD169" s="1">
+        <v>6.7223123789091437</v>
+      </c>
+      <c r="AE169" s="1"/>
+      <c r="AF169" s="1">
+        <v>0.60734453961561297</v>
+      </c>
+      <c r="AG169" s="1">
+        <v>0.20949285052472891</v>
+      </c>
+      <c r="AH169" s="1">
+        <v>0.76631935625959668</v>
+      </c>
+      <c r="AI169" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:35">
+      <c r="A170">
+        <f t="shared" ref="A170:B170" si="78">A165</f>
+        <v>-2.2230636878927892E-20</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="78"/>
+        <v>5.9741822476786401</v>
+      </c>
+      <c r="C170">
+        <f>C165-M165</f>
+        <v>-12.6940398553782</v>
+      </c>
+      <c r="D170">
+        <f t="shared" ref="D170" si="79">D165</f>
+        <v>-8.073571353248149E-2</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G170" s="1">
+        <f>-A169/G168</f>
+        <v>-0.94534242161074422</v>
+      </c>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1">
+        <v>0</v>
+      </c>
+      <c r="J170" s="1">
+        <v>0</v>
+      </c>
+      <c r="K170" s="1">
+        <v>1</v>
+      </c>
+      <c r="L170" s="1">
+        <v>0</v>
+      </c>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1">
+        <v>-2.2230636878927892E-20</v>
+      </c>
+      <c r="O170" s="1">
+        <v>5.9741822476786401</v>
+      </c>
+      <c r="P170" s="1">
+        <v>-12.6940398553782</v>
+      </c>
+      <c r="Q170" s="1">
+        <v>-8.073571353248149E-2</v>
+      </c>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T170" s="1">
+        <f>O169/T169</f>
+        <v>-0.64245983860617883</v>
+      </c>
+      <c r="U170" s="1"/>
+      <c r="V170" s="1">
+        <v>0</v>
+      </c>
+      <c r="W170" s="1">
+        <f>-X169</f>
+        <v>-0.76631935625959668</v>
+      </c>
+      <c r="X170" s="1">
+        <f>W169</f>
+        <v>-0.64245983860617883</v>
+      </c>
+      <c r="Y170" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z170" s="1"/>
+      <c r="AA170" s="1">
+        <v>-6.5039379731812975E-19</v>
+      </c>
+      <c r="AB170" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC170" s="1">
+        <v>-3.1032953984322376E-12</v>
+      </c>
+      <c r="AD170" s="1">
+        <v>8.1439702435957582</v>
+      </c>
+      <c r="AE170" s="1"/>
+      <c r="AF170" s="1">
+        <v>0.72443419597363379</v>
+      </c>
+      <c r="AG170" s="1">
+        <v>0.24988087458258468</v>
+      </c>
+      <c r="AH170" s="1">
+        <v>-0.64245983860617883</v>
+      </c>
+      <c r="AI170" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:35">
+      <c r="A171">
+        <f t="shared" ref="A171:C171" si="80">A166</f>
+        <v>-1.3325379415037321E-24</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="80"/>
+        <v>-2.1709654532765104E-23</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="80"/>
+        <v>4.2678138548328508E-18</v>
+      </c>
+      <c r="D171">
+        <f>D166-M165</f>
+        <v>-13.000683863926154</v>
+      </c>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1">
+        <v>0</v>
+      </c>
+      <c r="J171" s="1">
+        <v>0</v>
+      </c>
+      <c r="K171" s="1">
+        <v>0</v>
+      </c>
+      <c r="L171" s="1">
+        <v>1</v>
+      </c>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1">
+        <v>-1.3325379415037321E-24</v>
+      </c>
+      <c r="O171" s="1">
+        <v>-2.1709654532765104E-23</v>
+      </c>
+      <c r="P171" s="1">
+        <v>4.2678138548328508E-18</v>
+      </c>
+      <c r="Q171" s="1">
+        <v>-13.000683863926154</v>
+      </c>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T171" s="1">
+        <f>-O170/T169</f>
+        <v>-0.76631935625959668</v>
+      </c>
+      <c r="U171" s="1"/>
+      <c r="V171" s="1">
+        <v>0</v>
+      </c>
+      <c r="W171" s="1">
+        <v>0</v>
+      </c>
+      <c r="X171" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y171" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z171" s="1"/>
+      <c r="AA171" s="1">
+        <v>-1.3325379415037321E-24</v>
+      </c>
+      <c r="AB171" s="1">
+        <v>-2.1709654532765104E-23</v>
+      </c>
+      <c r="AC171" s="1">
+        <v>4.2678138548328508E-18</v>
+      </c>
+      <c r="AD171" s="1">
+        <v>-13.000683863926154</v>
+      </c>
+      <c r="AE171" s="1"/>
+      <c r="AF171" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG171" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH171" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI171" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:35">
+      <c r="A173" s="1">
+        <f t="array" ref="A173:D176">MMULT(AA168:AD171,TRANSPOSE(AF168:AI171))</f>
+        <v>-22.617186336582737</v>
+      </c>
+      <c r="B173" s="1">
+        <v>-7.5286908111153901</v>
+      </c>
+      <c r="C173" s="1">
+        <v>-3.8347798670194888</v>
+      </c>
+      <c r="D173" s="1">
+        <v>3.3291102244277555</v>
+      </c>
+    </row>
+    <row r="174" spans="1:35">
+      <c r="A174" s="1">
+        <v>7.3698359137508982</v>
+      </c>
+      <c r="B174" s="1">
+        <v>-11.060845471867248</v>
+      </c>
+      <c r="C174" s="1">
+        <v>12.590370584930435</v>
+      </c>
+      <c r="D174" s="1">
+        <v>6.7223123789091437</v>
+      </c>
+    </row>
+    <row r="175" spans="1:35">
+      <c r="A175" s="1">
+        <v>2.1207995017926617E-19</v>
+      </c>
+      <c r="B175" s="1">
+        <v>-2.3781157270230822E-12</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1.9937421896565653E-12</v>
+      </c>
+      <c r="D175" s="1">
+        <v>8.1439702435957582</v>
+      </c>
+    </row>
+    <row r="176" spans="1:35">
+      <c r="A176" s="1">
+        <v>-2.0088544357291023E-23</v>
+      </c>
+      <c r="B176" s="1">
+        <v>3.2705030085442435E-18</v>
+      </c>
+      <c r="C176" s="1">
+        <v>-2.741905390540641E-18</v>
+      </c>
+      <c r="D176" s="1">
+        <v>-13.000683863926154</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179">
+        <v>4</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180">
+        <f>A173+M165</f>
+        <v>-10.029677613025422</v>
+      </c>
+      <c r="B180">
+        <f t="shared" ref="B180:D180" si="81">B173</f>
+        <v>-7.5286908111153901</v>
+      </c>
+      <c r="C180" s="2">
+        <f t="shared" si="81"/>
+        <v>-3.8347798670194888</v>
+      </c>
+      <c r="D180" s="2">
+        <f t="shared" si="81"/>
+        <v>3.3291102244277555</v>
+      </c>
+      <c r="F180" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="A181">
+        <f t="shared" ref="A181" si="82">A174</f>
+        <v>7.3698359137508982</v>
+      </c>
+      <c r="B181">
+        <f>B174+M165</f>
+        <v>1.5266632516900671</v>
+      </c>
+      <c r="C181" s="2">
+        <f t="shared" ref="C181:D181" si="83">C174</f>
+        <v>12.590370584930435</v>
+      </c>
+      <c r="D181" s="2">
+        <f t="shared" si="83"/>
+        <v>6.7223123789091437</v>
+      </c>
+      <c r="F181">
+        <f>A180</f>
+        <v>-10.029677613025422</v>
+      </c>
+      <c r="G181">
+        <f>B180</f>
+        <v>-7.5286908111153901</v>
+      </c>
+      <c r="I181" t="s">
+        <v>11</v>
+      </c>
+      <c r="J181">
+        <f>F181+G182</f>
+        <v>-8.5030143613353548</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" s="2">
+        <f t="shared" ref="A182:B182" si="84">A175</f>
+        <v>2.1207995017926617E-19</v>
+      </c>
+      <c r="B182" s="2">
+        <f t="shared" si="84"/>
+        <v>-2.3781157270230822E-12</v>
+      </c>
+      <c r="C182" s="2">
+        <f>C175+M165</f>
+        <v>12.587508723559308</v>
+      </c>
+      <c r="D182" s="2">
+        <f t="shared" ref="D182" si="85">D175</f>
+        <v>8.1439702435957582</v>
+      </c>
+      <c r="F182">
+        <f>A181</f>
+        <v>7.3698359137508982</v>
+      </c>
+      <c r="G182">
+        <f>B181</f>
+        <v>1.5266632516900671</v>
+      </c>
+      <c r="I182" t="s">
+        <v>12</v>
+      </c>
+      <c r="J182">
+        <f>F181*G182-F182*G181</f>
+        <v>40.173275685180123</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="A183" s="2">
+        <f t="shared" ref="A183:C183" si="86">A176</f>
+        <v>-2.0088544357291023E-23</v>
+      </c>
+      <c r="B183" s="2">
+        <f t="shared" si="86"/>
+        <v>3.2705030085442435E-18</v>
+      </c>
+      <c r="C183" s="2">
+        <f t="shared" si="86"/>
+        <v>-2.741905390540641E-18</v>
+      </c>
+      <c r="D183" s="2">
+        <f>D176+M165</f>
+        <v>-0.41317514036883907</v>
+      </c>
+      <c r="I183" t="s">
+        <v>88</v>
+      </c>
+      <c r="J183">
+        <f>J181*J181-4*J182</f>
+        <v>-88.391849511645205</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188">
+        <v>4</v>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="A189">
+        <f>A180</f>
+        <v>-10.029677613025422</v>
+      </c>
+      <c r="B189">
+        <f t="shared" ref="B189:D189" si="87">B180</f>
+        <v>-7.5286908111153901</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="87"/>
+        <v>-3.8347798670194888</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="87"/>
+        <v>3.3291102244277555</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="A190">
+        <f t="shared" ref="A190:D190" si="88">A181</f>
+        <v>7.3698359137508982</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="88"/>
+        <v>1.5266632516900671</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="88"/>
+        <v>12.590370584930435</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="88"/>
+        <v>6.7223123789091437</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="A191">
+        <f t="shared" ref="A191:D191" si="89">A182</f>
+        <v>2.1207995017926617E-19</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="89"/>
+        <v>-2.3781157270230822E-12</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="89"/>
+        <v>12.587508723559308</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="89"/>
+        <v>8.1439702435957582</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="A192">
+        <f t="shared" ref="A192:D192" si="90">A183</f>
+        <v>-2.0088544357291023E-23</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="90"/>
+        <v>3.2705030085442435E-18</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="90"/>
+        <v>-2.741905390540641E-18</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="90"/>
+        <v>-0.41317514036883907</v>
       </c>
     </row>
   </sheetData>
@@ -5260,7 +7153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
@@ -5381,7 +7274,7 @@
         <v>-2.648082355803556</v>
       </c>
       <c r="L10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -6410,7 +8303,7 @@
         <v>1.4690478887352136</v>
       </c>
       <c r="L39" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -7439,7 +9332,7 @@
         <v>0.92061840503931025</v>
       </c>
       <c r="L68" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -8468,7 +10361,7 @@
         <v>1.0384678855807954</v>
       </c>
       <c r="L97" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -9497,7 +11390,7 @@
         <v>1.2428288404384302</v>
       </c>
       <c r="L126" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -10319,7 +12212,7 @@
     </row>
     <row r="146" spans="1:29">
       <c r="A146">
-        <f t="shared" ref="A146:D146" si="73">A139</f>
+        <f t="shared" ref="A146:C146" si="73">A139</f>
         <v>0</v>
       </c>
       <c r="B146">
@@ -13380,7 +15273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -13404,39 +15297,39 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>13.051605443086375</v>
+        <v>12.579538945807867</v>
       </c>
       <c r="B3">
-        <v>-14.091026565094293</v>
+        <v>12.533476442090423</v>
       </c>
       <c r="C3">
-        <v>-4.6156420434326515</v>
+        <v>-8.9827134952122218</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
       </c>
       <c r="F3">
         <f>A3</f>
-        <v>13.051605443086375</v>
+        <v>12.579538945807867</v>
       </c>
       <c r="H3" t="s">
         <v>40</v>
       </c>
       <c r="I3">
         <f>F3+F7+F10</f>
-        <v>4.0844943622358807</v>
+        <v>4.0844943622239542</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L3" s="1">
         <f>R9</f>
-        <v>-72.419523162864138</v>
+        <v>-72.419523162995262</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
         <f>L3/3</f>
-        <v>-24.139841054288045</v>
+        <v>-24.139841054331754</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -13445,44 +15338,44 @@
       </c>
       <c r="R3" s="1">
         <f>-I3</f>
-        <v>-4.0844943622358807</v>
+        <v>-4.0844943622239542</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>0.5353438096810359</v>
+        <v>2.3105327871348644E-2</v>
       </c>
       <c r="B4">
-        <v>-3.0280192921920341</v>
+        <v>-8.3885134517630284</v>
       </c>
       <c r="C4">
-        <v>-10.240163336519586</v>
+        <v>-6.5952465187148288</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
       </c>
       <c r="F4">
         <f>B3</f>
-        <v>-14.091026565094293</v>
+        <v>12.533476442090423</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4">
         <f>F3*F7+F3*F10+F7*F10-F9*F8-F4*F6</f>
-        <v>-66.858491764485237</v>
+        <v>-66.858491764648832</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="1">
         <f>R10</f>
-        <v>-601.75672489986141</v>
+        <v>-601.75672489958095</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
         <f>L4/2</f>
-        <v>-300.87836244993071</v>
+        <v>-300.87836244979047</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -13491,32 +15384,32 @@
       </c>
       <c r="R4" s="1">
         <f>I4</f>
-        <v>-66.858491764485237</v>
+        <v>-66.858491764648832</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>2.7755575616280094E-17</v>
+        <v>-2.2230636878927892E-20</v>
       </c>
       <c r="B5">
-        <v>2.40713696249006</v>
+        <v>5.9741822476786401</v>
       </c>
       <c r="C5">
-        <v>-5.9390917886584598</v>
+        <v>-0.10653113182088469</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
       </c>
       <c r="F5">
         <f>C3</f>
-        <v>-4.6156420434326515</v>
+        <v>-8.9827134952122218</v>
       </c>
       <c r="H5" t="s">
         <v>47</v>
       </c>
       <c r="I5">
         <f>F3*F7*F10+F5*F6*F9-F3*F9*F8-F4*F6*F10</f>
-        <v>505.68145814111784</v>
+        <v>505.68145814092458</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -13529,7 +15422,7 @@
       </c>
       <c r="R5" s="1">
         <f>-I5</f>
-        <v>-505.68145814111784</v>
+        <v>-505.68145814092458</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -13538,21 +15431,21 @@
       </c>
       <c r="F6">
         <f>A4</f>
-        <v>0.5353438096810359</v>
+        <v>2.3105327871348644E-2</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L6" s="1">
         <f>-L4/2</f>
-        <v>300.87836244993071</v>
+        <v>300.87836244979047</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="1">
         <f>L4*L4/4 + L3*L3*L3/27</f>
-        <v>76460.732916604087</v>
+        <v>76460.732916443289</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>52</v>
@@ -13567,21 +15460,21 @@
       </c>
       <c r="F7">
         <f>B4</f>
-        <v>-3.0280192921920341</v>
+        <v>-8.3885134517630284</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="L7" s="1">
         <f>L6</f>
-        <v>300.87836244993071</v>
+        <v>300.87836244979047</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N7" s="1">
         <f>N6</f>
-        <v>76460.732916604087</v>
+        <v>76460.732916443289</v>
       </c>
       <c r="O7" s="1" t="str">
         <f>O6</f>
@@ -13593,7 +15486,7 @@
       </c>
       <c r="R7" s="1">
         <f>-R3/3</f>
-        <v>1.3614981207452936</v>
+        <v>1.3614981207413182</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -13602,7 +15495,7 @@
       </c>
       <c r="F8">
         <f>C4</f>
-        <v>-10.240163336519586</v>
+        <v>-6.5952465187148288</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -13619,14 +15512,14 @@
       </c>
       <c r="F9">
         <f>B5</f>
-        <v>2.40713696249006</v>
+        <v>5.9741822476786401</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L9" s="1">
         <f>POWER(L6+SQRT(N6), 1/3)</f>
-        <v>8.3270405737126474</v>
+        <v>8.3270405737105762</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -13637,7 +15530,7 @@
       </c>
       <c r="R9" s="1">
         <f>3*R7*R7+2*R3*R7+R4</f>
-        <v>-72.419523162864138</v>
+        <v>-72.419523162995262</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -13646,14 +15539,14 @@
       </c>
       <c r="F10">
         <f>C5</f>
-        <v>-5.9390917886584598</v>
+        <v>-0.10653113182088469</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L10" s="1">
         <f>POWER(L7-SQRT(N7), 1/3)</f>
-        <v>2.8989700290994471</v>
+        <v>2.8989700291054201</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -13664,7 +15557,7 @@
       </c>
       <c r="R10" s="1">
         <f>R7*R7*R7+R3*R7*R7+R4*R7+R5</f>
-        <v>-601.75672489986141</v>
+        <v>-601.75672489958095</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -13683,7 +15576,7 @@
       </c>
       <c r="L12" s="1">
         <f>L9+L10</f>
-        <v>11.226010602812094</v>
+        <v>11.226010602815997</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -13694,7 +15587,7 @@
       </c>
       <c r="R12" s="1">
         <f>L12+R7</f>
-        <v>12.587508723557388</v>
+        <v>12.587508723557315</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -13714,7 +15607,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1">
         <f>L12*L12*L12+L3*L12+L4</f>
-        <v>-1.1368683772161603E-12</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -13740,7 +15633,7 @@
       </c>
       <c r="L16" s="1">
         <f>SQRT(L6*L6+ABS(N6))</f>
-        <v>408.64229089407274</v>
+        <v>408.64229089377272</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
@@ -13748,7 +15641,7 @@
       </c>
       <c r="O16" s="1">
         <f>SQRT(-L3/3)</f>
-        <v>4.9132312233690003</v>
+        <v>4.9132312233734483</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -13847,31 +15740,31 @@
     <row r="24" spans="1:33">
       <c r="A24">
         <f>A3-R12</f>
-        <v>0.46409671952898712</v>
+        <v>-7.9697777494480704E-3</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24:C24" si="0">B3</f>
-        <v>-14.091026565094293</v>
+        <v>12.533476442090423</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>-4.6156420434326515</v>
+        <v>-8.9827134952122218</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F24" s="1">
         <f>SQRT(A24*A24+A25*A25)</f>
-        <v>0.70850459394514342</v>
+        <v>2.4441226103003057E-2</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1">
         <f>F25</f>
-        <v>0.65503699410722549</v>
+        <v>-0.326079293888977</v>
       </c>
       <c r="I24" s="1">
         <f>-F26</f>
-        <v>0.75559680806033747</v>
+        <v>0.94534242161074422</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -13879,13 +15772,13 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1">
         <f t="array" ref="L24:N26">MMULT(H24:J26,A24:C26)</f>
-        <v>0.70850459394514331</v>
+        <v>2.4441226103003057E-2</v>
       </c>
       <c r="M24" s="1">
-        <v>-21.029186809961466</v>
+        <v>-23.916430747188979</v>
       </c>
       <c r="N24" s="1">
-        <v>-10.760851021095752</v>
+        <v>-3.3056894413959212</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
@@ -13893,7 +15786,7 @@
       </c>
       <c r="Q24" s="1">
         <f>SQRT(M25*M25+M26*M26)</f>
-        <v>2.4432264194659932</v>
+        <v>7.7959432955453618</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1">
@@ -13908,77 +15801,77 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1">
         <f t="array" ref="W24:Y26">MMULT(S24:U26,L24:N26)</f>
-        <v>0.70850459394514331</v>
+        <v>2.4441226103003057E-2</v>
       </c>
       <c r="X24" s="1">
-        <v>-21.029186809961466</v>
+        <v>-23.916430747188979</v>
       </c>
       <c r="Y24" s="1">
-        <v>-10.760851021095752</v>
+        <v>-3.3056894413959212</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1">
         <f t="array" ref="AA24:AC26">MMULT(W24:Y26,TRANSPOSE(H24:J26))</f>
-        <v>-15.425489710182447</v>
+        <v>-22.617186336582737</v>
       </c>
       <c r="AB24" s="1">
-        <v>-14.310239126197509</v>
+        <v>7.7755475225166517</v>
       </c>
       <c r="AC24" s="1">
-        <v>-10.760851021095752</v>
+        <v>-3.3056894413959212</v>
       </c>
       <c r="AE24" s="1">
         <f t="array" ref="AE24:AG26">MMULT(AA24:AC26,TRANSPOSE(S24:U26))</f>
-        <v>-15.425489710182447</v>
+        <v>-22.617186336582737</v>
       </c>
       <c r="AF24" s="1">
-        <v>-13.052432640956191</v>
+        <v>-7.5286908111153901</v>
       </c>
       <c r="AG24" s="1">
-        <v>12.256135634875818</v>
+        <v>-3.8347798670194897</v>
       </c>
     </row>
     <row r="25" spans="1:33">
       <c r="A25">
         <f t="shared" ref="A25:C26" si="1">A4</f>
-        <v>0.5353438096810359</v>
+        <v>2.3105327871348644E-2</v>
       </c>
       <c r="B25">
         <f>B4-R12</f>
-        <v>-15.615528015749423</v>
+        <v>-20.976022175320345</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>-10.240163336519586</v>
+        <v>-6.5952465187148288</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F25" s="1">
         <f>A24/F24</f>
-        <v>0.65503699410722549</v>
+        <v>-0.326079293888977</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1">
         <f>F26</f>
-        <v>-0.75559680806033747</v>
+        <v>-0.94534242161074422</v>
       </c>
       <c r="I25" s="1">
         <f>F25</f>
-        <v>0.65503699410722549</v>
+        <v>-0.326079293888977</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>8.6736173798840355E-19</v>
       </c>
       <c r="M25" s="1">
-        <v>0.41838616204499957</v>
+        <v>-5.0085804714389948</v>
       </c>
       <c r="N25" s="1">
-        <v>-3.2201214159540017</v>
+        <v>10.642313456045699</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
@@ -13986,7 +15879,7 @@
       </c>
       <c r="Q25" s="1">
         <f>M25/Q24</f>
-        <v>0.17124330299950041</v>
+        <v>-0.64245983860617883</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1">
@@ -13994,61 +15887,61 @@
       </c>
       <c r="T25" s="1">
         <f>Q25</f>
-        <v>0.17124330299950041</v>
+        <v>-0.64245983860617883</v>
       </c>
       <c r="U25" s="1">
         <f>-Q26</f>
-        <v>0.9852287709856129</v>
+        <v>0.76631935625959668</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1">
-        <v>2.7345591652425883E-17</v>
+        <v>-5.7428084954350538E-19</v>
       </c>
       <c r="X25" s="1">
-        <v>2.4432264194659932</v>
+        <v>7.7959432955453618</v>
       </c>
       <c r="Y25" s="1">
-        <v>-18.804364080519235</v>
+        <v>-16.564947435674572</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1">
-        <v>1.8460940839171915</v>
+        <v>7.3698359137508982</v>
       </c>
       <c r="AB25" s="1">
-        <v>1.6004036897303635</v>
+        <v>-2.5420956850099357</v>
       </c>
       <c r="AC25" s="1">
-        <v>-18.804364080519235</v>
+        <v>-16.564947435674572</v>
       </c>
       <c r="AE25" s="1">
-        <v>1.8460940839171915</v>
+        <v>7.3698359137508982</v>
       </c>
       <c r="AF25" s="1">
-        <v>-18.252542098253954</v>
+        <v>-11.060845471867248</v>
       </c>
       <c r="AG25" s="1">
-        <v>-4.796885176267164</v>
+        <v>12.590370584930435</v>
       </c>
     </row>
     <row r="26" spans="1:33">
       <c r="A26">
         <f t="shared" si="1"/>
-        <v>2.7755575616280094E-17</v>
+        <v>-2.2230636878927892E-20</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>2.40713696249006</v>
+        <v>5.9741822476786401</v>
       </c>
       <c r="C26">
         <f>C5-R12</f>
-        <v>-18.526600512215847</v>
+        <v>-12.6940398553782</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F26" s="1">
         <f>-A25/F24</f>
-        <v>-0.75559680806033747</v>
+        <v>-0.94534242161074422</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
@@ -14062,13 +15955,13 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
-        <v>2.7755575616280094E-17</v>
+        <v>-2.2230636878927892E-20</v>
       </c>
       <c r="M26" s="1">
-        <v>2.40713696249006</v>
+        <v>5.9741822476786401</v>
       </c>
       <c r="N26" s="1">
-        <v>-18.526600512215847</v>
+        <v>-12.6940398553782</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
@@ -14076,7 +15969,7 @@
       </c>
       <c r="Q26" s="1">
         <f>-M26/Q24</f>
-        <v>-0.9852287709856129</v>
+        <v>-0.76631935625959668</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1">
@@ -14084,40 +15977,40 @@
       </c>
       <c r="T26" s="1">
         <f>Q26</f>
-        <v>-0.9852287709856129</v>
+        <v>-0.76631935625959668</v>
       </c>
       <c r="U26" s="1">
         <f>Q25</f>
-        <v>0.17124330299950041</v>
+        <v>-0.64245983860617883</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1">
-        <v>4.7529564451841978E-18</v>
+        <v>-6.5039379731812975E-19</v>
       </c>
       <c r="X26" s="1">
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>7.3452355309200357E-13</v>
+        <v>-3.1032953984322376E-12</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1">
-        <v>3.113362302976021E-18</v>
+        <v>2.1207995017926617E-19</v>
       </c>
       <c r="AB26" s="1">
-        <v>-3.5913187188309878E-18</v>
+        <v>6.1484484735732833E-19</v>
       </c>
       <c r="AC26" s="1">
-        <v>7.3452355309200357E-13</v>
+        <v>-3.1032953984322376E-12</v>
       </c>
       <c r="AE26" s="1">
-        <v>3.113362302976021E-18</v>
+        <v>2.1207995017926617E-19</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.2367312248354075E-13</v>
+        <v>-2.3781157270230822E-12</v>
       </c>
       <c r="AG26" s="1">
-        <v>1.2578577763293116E-13</v>
+        <v>1.9937421896565653E-12</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -14136,43 +16029,43 @@
     <row r="30" spans="1:33">
       <c r="A30">
         <f>AE24+R12</f>
-        <v>-2.8379809866250589</v>
+        <v>-10.029677613025422</v>
       </c>
       <c r="B30">
         <f t="shared" ref="B30:C31" si="2">AF24</f>
-        <v>-13.052432640956191</v>
+        <v>-7.5286908111153901</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>12.256135634875818</v>
+        <v>-3.8347798670194897</v>
       </c>
     </row>
     <row r="31" spans="1:33">
       <c r="A31">
         <f t="shared" ref="A31:B32" si="3">AE25</f>
-        <v>1.8460940839171915</v>
+        <v>7.3698359137508982</v>
       </c>
       <c r="B31">
         <f>AF25+R12</f>
-        <v>-5.6650333746965664</v>
+        <v>1.5266632516900671</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>-4.796885176267164</v>
+        <v>12.590370584930435</v>
       </c>
     </row>
     <row r="32" spans="1:33">
       <c r="A32">
         <f t="shared" si="3"/>
-        <v>3.113362302976021E-18</v>
+        <v>2.1207995017926617E-19</v>
       </c>
       <c r="B32">
         <f t="shared" si="3"/>
-        <v>7.2367312248354075E-13</v>
+        <v>-2.3781157270230822E-12</v>
       </c>
       <c r="C32">
         <f>AG26+R12</f>
-        <v>12.587508723557514</v>
+        <v>12.587508723559308</v>
       </c>
     </row>
   </sheetData>
@@ -14208,13 +16101,13 @@
         <v>4</v>
       </c>
       <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" t="s">
         <v>76</v>
       </c>
-      <c r="N1" t="s">
+      <c r="X1" t="s">
         <v>77</v>
-      </c>
-      <c r="X1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -15130,7 +17023,7 @@
         <v>9</v>
       </c>
       <c r="X22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:27">
@@ -15249,15 +17142,15 @@
     </row>
     <row r="28" spans="1:27">
       <c r="X28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S29">
         <f>A3</f>
@@ -15541,545 +17434,545 @@
     <row r="1" spans="1:8">
       <c r="A1">
         <f ca="1">RAND()*20-7</f>
-        <v>-2.9530786626950194</v>
+        <v>7.9094871569319274</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:H16" ca="1" si="0">RAND()*20-7</f>
-        <v>3.0049818644082791</v>
+        <v>-2.2138207610073568</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>12.612938690084111</v>
+        <v>0.16392628576887791</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.202627321642133</v>
+        <v>2.4807129580119121</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5813037197686874</v>
+        <v>1.8454269769969489</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8739180287970871</v>
+        <v>10.952305541618887</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.5050848712844083</v>
+        <v>5.6879569056033894</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3873241864273407</v>
+        <v>-2.3220788411567739</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
         <f t="shared" ref="A2:A16" ca="1" si="1">RAND()*20-7</f>
-        <v>-4.7028947924695057</v>
+        <v>7.154616651938877</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5864322055773581</v>
+        <v>-6.0722813057663281</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.29018753737184966</v>
+        <v>6.8589355750185828</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4366493951353636</v>
+        <v>6.8104309583642326</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.998042188986851</v>
+        <v>11.903907712216387</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3780275646550812</v>
+        <v>4.4704604973111639</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41354388605220738</v>
+        <v>11.06795579635471</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.6298114963550581</v>
+        <v>8.6114264462145353</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7643370835102457</v>
+        <v>7.9441788242987919</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0944100749267562</v>
+        <v>-6.8455801347462124</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0391460601385569</v>
+        <v>-2.4161400049883168</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7914754974625406</v>
+        <v>5.6702013298754519</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8491559364884669</v>
+        <v>0.43812295381335975</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6448502143433501</v>
+        <v>10.760374468124951</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>10.000606171569217</v>
+        <v>3.4566905808556925</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1007477657751323</v>
+        <v>4.202985067324585</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.9850846132952817</v>
+        <v>5.5365652893755701</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1495152595816247</v>
+        <v>-0.53512826343225406</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6229700749624936</v>
+        <v>-5.9371992612388489</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7413249642500652</v>
+        <v>7.1057418654362507</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9220200725297509</v>
+        <v>10.168637744740472</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7431588888236096</v>
+        <v>12.991727240962906</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1389767642674773</v>
+        <v>12.937610113847718</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0042835896124629</v>
+        <v>-6.116145855941995</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2268593073233323</v>
+        <v>-3.2122666397695658</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.34589650593198229</v>
+        <v>-5.3759592070820794</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.069531829333366</v>
+        <v>0.30874508448758231</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7226188029199285</v>
+        <v>3.5059877810292868</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.696698132340412</v>
+        <v>8.6432924810681975</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.206340232174114</v>
+        <v>12.863566082160688</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.7645904732616318</v>
+        <v>-5.3994729453746464</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.928585660642621</v>
+        <v>-4.3563140236218283</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.51715980469262224</v>
+        <v>4.1474042697163096</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9567205284005569</v>
+        <v>11.883926417586459</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1805599328861405</v>
+        <v>7.5290794490463497E-2</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>11.746887663812341</v>
+        <v>-6.8234523684380326</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.816386041921092</v>
+        <v>1.5634531803317788</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0420438923205602</v>
+        <v>-2.8785691191847578</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>10.245120453521746</v>
+        <v>6.2250903913058711</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.5077679877571857</v>
+        <v>7.0889148392602852</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1001234320093669</v>
+        <v>-6.0707743800545648</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0190417928496487</v>
+        <v>11.915886062787262</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>12.906133828613036</v>
+        <v>-2.9504137569228766</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8697705480512283</v>
+        <v>5.6870951421601834</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.075529685158365</v>
+        <v>-5.1521695485011536</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7870939340882401</v>
+        <v>2.4098922805332847</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8818595335438779</v>
+        <v>10.613538162077941</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8999591498831876</v>
+        <v>3.4842832446064449</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8641412091416658</v>
+        <v>4.0210300772528171</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0716108405728697</v>
+        <v>-5.9767924811918114</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>11.028715661900549</v>
+        <v>8.2157914216620114</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0566859351320588</v>
+        <v>-4.3263856817163582</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5117870876617552</v>
+        <v>1.1908344620440214</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5506295469698621</v>
+        <v>-0.79433298462935653</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2534981896805082</v>
+        <v>12.301604438475227</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.5992845323671023</v>
+        <v>12.263878671103846</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9198813960412409</v>
+        <v>1.0931796125932998</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7385200013358695</v>
+        <v>6.5986783052002451</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>11.811702360884535</v>
+        <v>3.5016621816982987</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>12.582585460207486</v>
+        <v>12.800182717716236</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0399372433037328</v>
+        <v>8.6708079719297277</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4702091564861597</v>
+        <v>10.313852551123947</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3367892945560413</v>
+        <v>10.161431639908223</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5663698404808191</v>
+        <v>-6.5673860846408783</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1065819316575212</v>
+        <v>12.321981689606158</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5955766688730364</v>
+        <v>-2.2979819208274197</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3865433729669654</v>
+        <v>-2.7895414875692985</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>10.138745351954228</v>
+        <v>4.7579705126006289E-3</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6761374048722093</v>
+        <v>-2.1966783338395288</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.450557004186571</v>
+        <v>-5.9156939925415806</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2882252187478405</v>
+        <v>6.6675013499417517</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5440038742716169</v>
+        <v>6.8900172858018891</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5876056401369212</v>
+        <v>-3.4874203486113413</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3530546321657226</v>
+        <v>2.2868373843883401</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4174605082835807</v>
+        <v>-5.7940239705538836</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.878486389156677</v>
+        <v>10.557329688700356</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15770879761584489</v>
+        <v>9.7849322678626613</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.9002712930954218</v>
+        <v>-1.9963443354403525</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>10.07336870760501</v>
+        <v>-4.8846533745928093</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9104871642105992</v>
+        <v>12.501224931171734</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1708265633599844</v>
+        <v>-6.8330515491554982</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.43722978143823</v>
+        <v>7.7517097451064814</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0340008430416088</v>
+        <v>-6.8698550989101141</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2816735914785138</v>
+        <v>3.4235917077335305</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.71822765036841929</v>
+        <v>9.6695703985156456</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1087793109065291</v>
+        <v>1.3656712408824934</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2279648927698652</v>
+        <v>9.543033394831042</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9900014687634737</v>
+        <v>6.2118278029925555</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.026793341810901</v>
+        <v>6.6165361143597092</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.586565286452462</v>
+        <v>10.979414162129473</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0216419291646588E-3</v>
+        <v>-5.3028896373085743</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.714313852148795</v>
+        <v>2.8613306903397469</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3213225272757638</v>
+        <v>-2.2709419340851493</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.2602622997246193</v>
+        <v>1.5587063564986607</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6184127449622459</v>
+        <v>10.622747210037215</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.73227851274679345</v>
+        <v>5.1431560397569793</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>11.65101378922008</v>
+        <v>-2.4129087787761261</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6277103603542535</v>
+        <v>-2.7636084599836916</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>11.208232948387838</v>
+        <v>5.8316830352906344</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7323160885805979</v>
+        <v>2.8719301355950062</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9833405434164852</v>
+        <v>-1.3981668764028452</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7555004328230162</v>
+        <v>2.7768070380842502</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3470257564603472</v>
+        <v>1.0390050263302388</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4035483136596021</v>
+        <v>6.1839134187863944</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.6397374612399385</v>
+        <v>4.6149315603464398</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7363805504595806</v>
+        <v>-5.2387170381038928</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4379817302468183</v>
+        <v>0.48991898253817112</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0495542633252839</v>
+        <v>-2.1440092509603774</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>12.583191772106961</v>
+        <v>4.5025844029578561</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4497797268153327</v>
+        <v>-1.605404378478763</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2828481037224542</v>
+        <v>0.28932268624851787</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2435793440768386</v>
+        <v>6.4430537508880228</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3350607035573212</v>
+        <v>12.81497037526999</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5228147342639922</v>
+        <v>0.94359261929781724</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>11.320662756167458</v>
+        <v>2.6364329218515579</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4994927824662447</v>
+        <v>11.946267378849175</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.3152716096465333</v>
+        <v>4.3435110876448757</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8853289449977435</v>
+        <v>10.173089344657097</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0124540986640724</v>
+        <v>12.352980591162037</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>12.523566336776025</v>
+        <v>1.348361589264508</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/FullQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/FullQRTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1875" windowWidth="18915" windowHeight="8775" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="1875" windowWidth="18915" windowHeight="8775"/>
   </bookViews>
   <sheets>
     <sheet name="Full 4x4" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="90">
   <si>
     <t>#1</t>
   </si>
@@ -300,16 +300,13 @@
     <t>Deflated to 3x3 case</t>
   </si>
   <si>
-    <t>Deflated to 2x2 case</t>
-  </si>
-  <si>
     <t>Delta=</t>
   </si>
   <si>
-    <t>Both complex root, Done.</t>
+    <t>G2*G1=</t>
   </si>
   <si>
-    <t>G2*G1=</t>
+    <t>Deflated to 2x2. Both complex root, Done.</t>
   </si>
 </sst>
 </file>
@@ -359,13 +356,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV192"/>
+  <dimension ref="A1:AV207"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="AF173" sqref="AF173:AN176"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -682,6 +682,7 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
     <col min="32" max="33" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -6473,7 +6474,7 @@
       <c r="AD167" s="1"/>
       <c r="AE167" s="1"/>
       <c r="AF167" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG167" s="1"/>
       <c r="AH167" s="1"/>
@@ -6929,12 +6930,12 @@
         <v>-13.000683863926154</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:35">
       <c r="A178" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:35">
       <c r="A179">
         <v>4</v>
       </c>
@@ -6942,7 +6943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:35">
       <c r="A180">
         <f>A173+M165</f>
         <v>-10.029677613025422</v>
@@ -6951,7 +6952,7 @@
         <f t="shared" ref="B180:D180" si="81">B173</f>
         <v>-7.5286908111153901</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180">
         <f t="shared" si="81"/>
         <v>-3.8347798670194888</v>
       </c>
@@ -6960,10 +6961,16 @@
         <v>3.3291102244277555</v>
       </c>
       <c r="F180" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
+        <v>86</v>
+      </c>
+      <c r="L180" t="s">
+        <v>74</v>
+      </c>
+      <c r="M180">
+        <v>12.587508723557301</v>
+      </c>
+    </row>
+    <row r="181" spans="1:35">
       <c r="A181">
         <f t="shared" ref="A181" si="82">A174</f>
         <v>7.3698359137508982</v>
@@ -6972,7 +6979,7 @@
         <f>B174+M165</f>
         <v>1.5266632516900671</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181">
         <f t="shared" ref="C181:D181" si="83">C174</f>
         <v>12.590370584930435</v>
       </c>
@@ -6996,16 +7003,16 @@
         <v>-8.5030143613353548</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
-      <c r="A182" s="2">
+    <row r="182" spans="1:35">
+      <c r="A182">
         <f t="shared" ref="A182:B182" si="84">A175</f>
         <v>2.1207995017926617E-19</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182">
         <f t="shared" si="84"/>
         <v>-2.3781157270230822E-12</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182">
         <f>C175+M165</f>
         <v>12.587508723559308</v>
       </c>
@@ -7029,7 +7036,7 @@
         <v>40.173275685180123</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:35">
       <c r="A183" s="2">
         <f t="shared" ref="A183:C183" si="86">A176</f>
         <v>-2.0088544357291023E-23</v>
@@ -7047,100 +7054,666 @@
         <v>-0.41317514036883907</v>
       </c>
       <c r="I183" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J183">
         <f>J181*J181-4*J182</f>
         <v>-88.391849511645205</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
-      <c r="A185" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
-      <c r="A187" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10">
-      <c r="A188">
-        <v>4</v>
-      </c>
-      <c r="B188">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
-      <c r="A189">
-        <f>A180</f>
-        <v>-10.029677613025422</v>
-      </c>
-      <c r="B189">
-        <f t="shared" ref="B189:D189" si="87">B180</f>
+    <row r="184" spans="1:35">
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
+      <c r="T184" s="1"/>
+      <c r="U184" s="1"/>
+      <c r="V184" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W184" s="1"/>
+      <c r="X184" s="1"/>
+      <c r="Y184" s="1"/>
+      <c r="Z184" s="1"/>
+      <c r="AA184" s="1"/>
+      <c r="AB184" s="1"/>
+      <c r="AC184" s="1"/>
+      <c r="AD184" s="1"/>
+      <c r="AE184" s="1"/>
+      <c r="AF184" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG184" s="1"/>
+      <c r="AH184" s="1"/>
+      <c r="AI184" s="1"/>
+    </row>
+    <row r="185" spans="1:35">
+      <c r="A185">
+        <f>A180-M180</f>
+        <v>-22.617186336582723</v>
+      </c>
+      <c r="B185">
+        <f t="shared" ref="B185:C185" si="87">B180</f>
         <v>-7.5286908111153901</v>
       </c>
-      <c r="C189">
+      <c r="C185">
         <f t="shared" si="87"/>
         <v>-3.8347798670194888</v>
       </c>
-      <c r="D189">
-        <f t="shared" si="87"/>
+      <c r="D185" s="2">
+        <f>D180</f>
         <v>3.3291102244277555</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
-      <c r="A190">
-        <f t="shared" ref="A190:D190" si="88">A181</f>
+      <c r="F185" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G185" s="1">
+        <f>SQRT(SUMPRODUCT(A185:A186,A185:A186))</f>
+        <v>23.787635426399923</v>
+      </c>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1">
+        <f>G186</f>
+        <v>-0.95079590430757077</v>
+      </c>
+      <c r="J185" s="1">
+        <f>-G187</f>
+        <v>0.30981792774458483</v>
+      </c>
+      <c r="K185" s="1">
+        <v>0</v>
+      </c>
+      <c r="L185" s="1">
+        <v>0</v>
+      </c>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1">
+        <f t="array" ref="N185:Q188">MMULT(I185:L188,A185:D188)</f>
+        <v>23.787635426399927</v>
+      </c>
+      <c r="O185" s="1">
+        <v>3.7314001648095751</v>
+      </c>
+      <c r="P185" s="1">
+        <v>7.5468155156427841</v>
+      </c>
+      <c r="Q185" s="1">
+        <v>-1.0826114754889664</v>
+      </c>
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1"/>
+      <c r="U185" s="1"/>
+      <c r="V185" s="1">
+        <v>1</v>
+      </c>
+      <c r="W185" s="1">
+        <v>0</v>
+      </c>
+      <c r="X185" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y185" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z185" s="1"/>
+      <c r="AA185" s="1">
+        <f t="array" ref="AA185:AD188">MMULT(V185:Y188,N185:Q188)</f>
+        <v>23.787635426399927</v>
+      </c>
+      <c r="AB185" s="1">
+        <v>3.7314001648095751</v>
+      </c>
+      <c r="AC185" s="1">
+        <v>7.5468155156427841</v>
+      </c>
+      <c r="AD185" s="1">
+        <v>-1.0826114754889664</v>
+      </c>
+      <c r="AE185" s="1"/>
+      <c r="AF185" s="1">
+        <f t="array" ref="AF185:AI188">MMULT(V185:Y188, I185:L188)</f>
+        <v>-0.95079590430757077</v>
+      </c>
+      <c r="AG185" s="1">
+        <v>0.30981792774458483</v>
+      </c>
+      <c r="AH185" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI185" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:35">
+      <c r="A186">
+        <f t="shared" ref="A186" si="88">A181</f>
         <v>7.3698359137508982</v>
       </c>
-      <c r="B190">
-        <f t="shared" si="88"/>
-        <v>1.5266632516900671</v>
-      </c>
-      <c r="C190">
-        <f t="shared" si="88"/>
+      <c r="B186">
+        <f>B181-M180</f>
+        <v>-11.060845471867234</v>
+      </c>
+      <c r="C186">
+        <f t="shared" ref="C186:D186" si="89">C181</f>
         <v>12.590370584930435</v>
       </c>
-      <c r="D190">
-        <f t="shared" si="88"/>
+      <c r="D186" s="2">
+        <f t="shared" si="89"/>
         <v>6.7223123789091437</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
-      <c r="A191">
-        <f t="shared" ref="A191:D191" si="89">A182</f>
+      <c r="F186" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G186" s="1">
+        <f>A185/G185</f>
+        <v>-0.95079590430757077</v>
+      </c>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1">
+        <f>-J185</f>
+        <v>-0.30981792774458483</v>
+      </c>
+      <c r="J186" s="1">
+        <f>I185</f>
+        <v>-0.95079590430757077</v>
+      </c>
+      <c r="K186" s="1">
+        <v>0</v>
+      </c>
+      <c r="L186" s="1">
+        <v>0</v>
+      </c>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1">
+        <v>0</v>
+      </c>
+      <c r="O186" s="1">
+        <v>12.849129958559773</v>
+      </c>
+      <c r="P186" s="1">
+        <v>-10.782789234109739</v>
+      </c>
+      <c r="Q186" s="1">
+        <v>-7.4229651083084134</v>
+      </c>
+      <c r="R186" s="1"/>
+      <c r="S186" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T186" s="1">
+        <f>SQRT(SUMPRODUCT(O186:O187,O186:O187))</f>
+        <v>12.849129958559773</v>
+      </c>
+      <c r="U186" s="1"/>
+      <c r="V186" s="1">
+        <v>0</v>
+      </c>
+      <c r="W186" s="1">
+        <f>T187</f>
+        <v>1</v>
+      </c>
+      <c r="X186" s="1">
+        <f>-T188</f>
+        <v>-1.8507990305124436E-13</v>
+      </c>
+      <c r="Y186" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z186" s="1"/>
+      <c r="AA186" s="1">
+        <v>-3.9251736618291318E-32</v>
+      </c>
+      <c r="AB186" s="1">
+        <v>12.849129958559773</v>
+      </c>
+      <c r="AC186" s="1">
+        <v>-10.782789234109739</v>
+      </c>
+      <c r="AD186" s="1">
+        <v>-7.4229651083099206</v>
+      </c>
+      <c r="AE186" s="1"/>
+      <c r="AF186" s="1">
+        <v>-0.30981792774458483</v>
+      </c>
+      <c r="AG186" s="1">
+        <v>-0.95079590430757077</v>
+      </c>
+      <c r="AH186" s="1">
+        <v>-1.8507990305124436E-13</v>
+      </c>
+      <c r="AI186" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:35">
+      <c r="A187">
+        <f t="shared" ref="A187:B187" si="90">A182</f>
         <v>2.1207995017926617E-19</v>
       </c>
-      <c r="B191">
-        <f t="shared" si="89"/>
+      <c r="B187">
+        <f t="shared" si="90"/>
         <v>-2.3781157270230822E-12</v>
       </c>
-      <c r="C191">
-        <f t="shared" si="89"/>
-        <v>12.587508723559308</v>
-      </c>
-      <c r="D191">
-        <f t="shared" si="89"/>
+      <c r="C187">
+        <f>C182-M180</f>
+        <v>2.007283228522283E-12</v>
+      </c>
+      <c r="D187" s="2">
+        <f t="shared" ref="D187:D188" si="91">D182</f>
         <v>8.1439702435957582</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
-      <c r="A192">
-        <f t="shared" ref="A192:D192" si="90">A183</f>
+      <c r="F187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G187" s="1">
+        <f>-A186/G185</f>
+        <v>-0.30981792774458483</v>
+      </c>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1">
+        <v>0</v>
+      </c>
+      <c r="J187" s="1">
+        <v>0</v>
+      </c>
+      <c r="K187" s="1">
+        <v>1</v>
+      </c>
+      <c r="L187" s="1">
+        <v>0</v>
+      </c>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1">
+        <v>2.1207995017926617E-19</v>
+      </c>
+      <c r="O187" s="1">
+        <v>-2.3781157270230822E-12</v>
+      </c>
+      <c r="P187" s="1">
+        <v>2.007283228522283E-12</v>
+      </c>
+      <c r="Q187" s="1">
+        <v>8.1439702435957582</v>
+      </c>
+      <c r="R187" s="1"/>
+      <c r="S187" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T187" s="1">
+        <f>O186/T186</f>
+        <v>1</v>
+      </c>
+      <c r="U187" s="1"/>
+      <c r="V187" s="1">
+        <v>0</v>
+      </c>
+      <c r="W187" s="1">
+        <f>-X186</f>
+        <v>1.8507990305124436E-13</v>
+      </c>
+      <c r="X187" s="1">
+        <f>W186</f>
+        <v>1</v>
+      </c>
+      <c r="Y187" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z187" s="1"/>
+      <c r="AA187" s="1">
+        <v>2.1207995017926617E-19</v>
+      </c>
+      <c r="AB187" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC187" s="1">
+        <v>1.160564245125121E-14</v>
+      </c>
+      <c r="AD187" s="1">
+        <v>8.143970243594385</v>
+      </c>
+      <c r="AE187" s="1"/>
+      <c r="AF187" s="1">
+        <v>-5.7341072030505196E-14</v>
+      </c>
+      <c r="AG187" s="1">
+        <v>-1.7597321379076541E-13</v>
+      </c>
+      <c r="AH187" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI187" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:35">
+      <c r="A188" s="2">
+        <f>A183</f>
         <v>-2.0088544357291023E-23</v>
       </c>
-      <c r="B192">
-        <f t="shared" si="90"/>
+      <c r="B188" s="2">
+        <f t="shared" ref="B188:D188" si="92">B183</f>
         <v>3.2705030085442435E-18</v>
       </c>
-      <c r="C192">
-        <f t="shared" si="90"/>
+      <c r="C188" s="2">
+        <f t="shared" si="92"/>
         <v>-2.741905390540641E-18</v>
       </c>
-      <c r="D192">
-        <f t="shared" si="90"/>
+      <c r="D188" s="2">
+        <f t="shared" si="91"/>
+        <v>-0.41317514036883907</v>
+      </c>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1">
+        <v>0</v>
+      </c>
+      <c r="J188" s="1">
+        <v>0</v>
+      </c>
+      <c r="K188" s="1">
+        <v>0</v>
+      </c>
+      <c r="L188" s="1">
+        <v>1</v>
+      </c>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1">
+        <v>-2.0088544357291023E-23</v>
+      </c>
+      <c r="O188" s="1">
+        <v>3.2705030085442435E-18</v>
+      </c>
+      <c r="P188" s="1">
+        <v>-2.741905390540641E-18</v>
+      </c>
+      <c r="Q188" s="1">
+        <v>-0.41317514036883907</v>
+      </c>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T188" s="1">
+        <f>-O187/T186</f>
+        <v>1.8507990305124436E-13</v>
+      </c>
+      <c r="U188" s="1"/>
+      <c r="V188" s="1">
+        <v>0</v>
+      </c>
+      <c r="W188" s="1">
+        <v>0</v>
+      </c>
+      <c r="X188" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y188" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z188" s="1"/>
+      <c r="AA188" s="1">
+        <v>-2.0088544357291023E-23</v>
+      </c>
+      <c r="AB188" s="1">
+        <v>3.2705030085442435E-18</v>
+      </c>
+      <c r="AC188" s="1">
+        <v>-2.741905390540641E-18</v>
+      </c>
+      <c r="AD188" s="1">
+        <v>-0.41317514036883907</v>
+      </c>
+      <c r="AE188" s="1"/>
+      <c r="AF188" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG188" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH188" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:35">
+      <c r="A190" s="1">
+        <f t="array" ref="A190:D193">MMULT(AA185:AD188,TRANSPOSE(AF185:AI188))</f>
+        <v>-21.461131669935622</v>
+      </c>
+      <c r="B190" s="1">
+        <v>-10.917635907785833</v>
+      </c>
+      <c r="C190" s="1">
+        <v>7.5468155156407635</v>
+      </c>
+      <c r="D190" s="1">
+        <v>-1.0826114754889664</v>
+      </c>
+    </row>
+    <row r="191" spans="1:35">
+      <c r="A191" s="1">
+        <v>3.980890817081852</v>
+      </c>
+      <c r="B191" s="1">
+        <v>-12.216900138512344</v>
+      </c>
+      <c r="C191" s="1">
+        <v>-10.782789234112</v>
+      </c>
+      <c r="D191" s="1">
+        <v>-7.4229651083099206</v>
+      </c>
+    </row>
+    <row r="192" spans="1:35">
+      <c r="A192" s="1">
+        <v>-2.0164474801619994E-19</v>
+      </c>
+      <c r="B192" s="1">
+        <v>-6.5706172828686213E-20</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1.160564245125121E-14</v>
+      </c>
+      <c r="D192" s="1">
+        <v>8.143970243594385</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
+        <v>1.0132795648953063E-18</v>
+      </c>
+      <c r="B193" s="1">
+        <v>-3.1095746417577632E-18</v>
+      </c>
+      <c r="C193" s="1">
+        <v>-2.7419053905412165E-18</v>
+      </c>
+      <c r="D193" s="1">
+        <v>-0.41317514036883907</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
+        <f>A190+M180</f>
+        <v>-8.8736229463783207</v>
+      </c>
+      <c r="B195" s="1">
+        <f t="shared" ref="B195:D195" si="93">B190</f>
+        <v>-10.917635907785833</v>
+      </c>
+      <c r="C195" s="4">
+        <f t="shared" si="93"/>
+        <v>7.5468155156407635</v>
+      </c>
+      <c r="D195" s="4">
+        <f t="shared" si="93"/>
+        <v>-1.0826114754889664</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
+        <f t="shared" ref="A196:D196" si="94">A191</f>
+        <v>3.980890817081852</v>
+      </c>
+      <c r="B196" s="1">
+        <f>B191+M180</f>
+        <v>0.3706085850449572</v>
+      </c>
+      <c r="C196" s="4">
+        <f t="shared" si="94"/>
+        <v>-10.782789234112</v>
+      </c>
+      <c r="D196" s="4">
+        <f t="shared" si="94"/>
+        <v>-7.4229651083099206</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="4">
+        <f t="shared" ref="A197:D197" si="95">A192</f>
+        <v>-2.0164474801619994E-19</v>
+      </c>
+      <c r="B197" s="4">
+        <f t="shared" si="95"/>
+        <v>-6.5706172828686213E-20</v>
+      </c>
+      <c r="C197" s="4">
+        <f>C192+M180</f>
+        <v>12.587508723557313</v>
+      </c>
+      <c r="D197" s="4">
+        <f t="shared" si="95"/>
+        <v>8.143970243594385</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="4">
+        <f t="shared" ref="A198:D198" si="96">A193</f>
+        <v>1.0132795648953063E-18</v>
+      </c>
+      <c r="B198" s="4">
+        <f t="shared" si="96"/>
+        <v>-3.1095746417577632E-18</v>
+      </c>
+      <c r="C198" s="4">
+        <f t="shared" si="96"/>
+        <v>-2.7419053905412165E-18</v>
+      </c>
+      <c r="D198" s="4">
+        <f>D193</f>
+        <v>-0.41317514036883907</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204">
+        <f>A195</f>
+        <v>-8.8736229463783207</v>
+      </c>
+      <c r="B204">
+        <f t="shared" ref="B204:D204" si="97">B195</f>
+        <v>-10.917635907785833</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="97"/>
+        <v>7.5468155156407635</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="97"/>
+        <v>-1.0826114754889664</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205">
+        <f t="shared" ref="A205:D205" si="98">A196</f>
+        <v>3.980890817081852</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="98"/>
+        <v>0.3706085850449572</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="98"/>
+        <v>-10.782789234112</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="98"/>
+        <v>-7.4229651083099206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206">
+        <f t="shared" ref="A206:D206" si="99">A197</f>
+        <v>-2.0164474801619994E-19</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="99"/>
+        <v>-6.5706172828686213E-20</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="99"/>
+        <v>12.587508723557313</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="99"/>
+        <v>8.143970243594385</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207">
+        <f t="shared" ref="A207:D207" si="100">A198</f>
+        <v>1.0132795648953063E-18</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="100"/>
+        <v>-3.1095746417577632E-18</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="100"/>
+        <v>-2.7419053905412165E-18</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="100"/>
         <v>-0.41317514036883907</v>
       </c>
     </row>
@@ -7153,7 +7726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
@@ -15297,39 +15870,39 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3">
-        <v>12.579538945807867</v>
+        <v>-10.029677613025422</v>
       </c>
       <c r="B3">
-        <v>12.533476442090423</v>
+        <v>-7.5286908111153901</v>
       </c>
       <c r="C3">
-        <v>-8.9827134952122218</v>
+        <v>-3.8347798670194888</v>
       </c>
       <c r="E3" t="s">
         <v>39</v>
       </c>
       <c r="F3">
         <f>A3</f>
-        <v>12.579538945807867</v>
+        <v>-10.029677613025422</v>
       </c>
       <c r="H3" t="s">
         <v>40</v>
       </c>
       <c r="I3">
         <f>F3+F7+F10</f>
-        <v>4.0844943622239542</v>
+        <v>4.0844943622239533</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L3" s="1">
         <f>R9</f>
-        <v>-72.419523162995262</v>
+        <v>-72.419523162995191</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1">
         <f>L3/3</f>
-        <v>-24.139841054331754</v>
+        <v>-24.139841054331729</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -15338,44 +15911,44 @@
       </c>
       <c r="R3" s="1">
         <f>-I3</f>
-        <v>-4.0844943622239542</v>
+        <v>-4.0844943622239533</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4">
-        <v>2.3105327871348644E-2</v>
+        <v>7.3698359137508982</v>
       </c>
       <c r="B4">
-        <v>-8.3885134517630284</v>
+        <v>1.5266632516900671</v>
       </c>
       <c r="C4">
-        <v>-6.5952465187148288</v>
+        <v>12.590370584930435</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
       </c>
       <c r="F4">
         <f>B3</f>
-        <v>12.533476442090423</v>
+        <v>-7.5286908111153901</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
       </c>
       <c r="I4">
         <f>F3*F7+F3*F10+F7*F10-F9*F8-F4*F6</f>
-        <v>-66.858491764648832</v>
+        <v>-66.858491764648775</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L4" s="1">
         <f>R10</f>
-        <v>-601.75672489958095</v>
+        <v>-601.75672489958106</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
         <f>L4/2</f>
-        <v>-300.87836244979047</v>
+        <v>-300.87836244979053</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -15384,32 +15957,32 @@
       </c>
       <c r="R4" s="1">
         <f>I4</f>
-        <v>-66.858491764648832</v>
+        <v>-66.858491764648775</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
-        <v>-2.2230636878927892E-20</v>
+        <v>2.1207995017926617E-19</v>
       </c>
       <c r="B5">
-        <v>5.9741822476786401</v>
+        <v>-2.3781157270230822E-12</v>
       </c>
       <c r="C5">
-        <v>-0.10653113182088469</v>
+        <v>12.587508723559308</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
       </c>
       <c r="F5">
         <f>C3</f>
-        <v>-8.9827134952122218</v>
+        <v>-3.8347798670194888</v>
       </c>
       <c r="H5" t="s">
         <v>47</v>
       </c>
       <c r="I5">
         <f>F3*F7*F10+F5*F6*F9-F3*F9*F8-F4*F6*F10</f>
-        <v>505.68145814092458</v>
+        <v>505.68145814092486</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -15422,7 +15995,7 @@
       </c>
       <c r="R5" s="1">
         <f>-I5</f>
-        <v>-505.68145814092458</v>
+        <v>-505.68145814092486</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -15431,21 +16004,21 @@
       </c>
       <c r="F6">
         <f>A4</f>
-        <v>2.3105327871348644E-2</v>
+        <v>7.3698359137508982</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L6" s="1">
         <f>-L4/2</f>
-        <v>300.87836244979047</v>
+        <v>300.87836244979053</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="1">
         <f>L4*L4/4 + L3*L3*L3/27</f>
-        <v>76460.732916443289</v>
+        <v>76460.732916443376</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>52</v>
@@ -15460,21 +16033,21 @@
       </c>
       <c r="F7">
         <f>B4</f>
-        <v>-8.3885134517630284</v>
+        <v>1.5266632516900671</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="L7" s="1">
         <f>L6</f>
-        <v>300.87836244979047</v>
+        <v>300.87836244979053</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N7" s="1">
         <f>N6</f>
-        <v>76460.732916443289</v>
+        <v>76460.732916443376</v>
       </c>
       <c r="O7" s="1" t="str">
         <f>O6</f>
@@ -15486,7 +16059,7 @@
       </c>
       <c r="R7" s="1">
         <f>-R3/3</f>
-        <v>1.3614981207413182</v>
+        <v>1.3614981207413177</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -15495,7 +16068,7 @@
       </c>
       <c r="F8">
         <f>C4</f>
-        <v>-6.5952465187148288</v>
+        <v>12.590370584930435</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -15512,7 +16085,7 @@
       </c>
       <c r="F9">
         <f>B5</f>
-        <v>5.9741822476786401</v>
+        <v>-2.3781157270230822E-12</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>59</v>
@@ -15530,7 +16103,7 @@
       </c>
       <c r="R9" s="1">
         <f>3*R7*R7+2*R3*R7+R4</f>
-        <v>-72.419523162995262</v>
+        <v>-72.419523162995191</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -15539,14 +16112,14 @@
       </c>
       <c r="F10">
         <f>C5</f>
-        <v>-0.10653113182088469</v>
+        <v>12.587508723559308</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>61</v>
       </c>
       <c r="L10" s="1">
         <f>POWER(L7-SQRT(N7), 1/3)</f>
-        <v>2.8989700291054201</v>
+        <v>2.8989700291054157</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -15557,7 +16130,7 @@
       </c>
       <c r="R10" s="1">
         <f>R7*R7*R7+R3*R7*R7+R4*R7+R5</f>
-        <v>-601.75672489958095</v>
+        <v>-601.75672489958106</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -15576,7 +16149,7 @@
       </c>
       <c r="L12" s="1">
         <f>L9+L10</f>
-        <v>11.226010602815997</v>
+        <v>11.226010602815991</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -15587,7 +16160,7 @@
       </c>
       <c r="R12" s="1">
         <f>L12+R7</f>
-        <v>12.587508723557315</v>
+        <v>12.58750872355731</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -15633,7 +16206,7 @@
       </c>
       <c r="L16" s="1">
         <f>SQRT(L6*L6+ABS(N6))</f>
-        <v>408.64229089377272</v>
+        <v>408.64229089377289</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
@@ -15641,7 +16214,7 @@
       </c>
       <c r="O16" s="1">
         <f>SQRT(-L3/3)</f>
-        <v>4.9132312233734483</v>
+        <v>4.9132312233734456</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -15740,31 +16313,31 @@
     <row r="24" spans="1:33">
       <c r="A24">
         <f>A3-R12</f>
-        <v>-7.9697777494480704E-3</v>
+        <v>-22.617186336582733</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24:C24" si="0">B3</f>
-        <v>12.533476442090423</v>
+        <v>-7.5286908111153901</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>-8.9827134952122218</v>
+        <v>-3.8347798670194888</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F24" s="1">
         <f>SQRT(A24*A24+A25*A25)</f>
-        <v>2.4441226103003057E-2</v>
+        <v>23.787635426399934</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1">
         <f>F25</f>
-        <v>-0.326079293888977</v>
+        <v>-0.95079590430757088</v>
       </c>
       <c r="I24" s="1">
         <f>-F26</f>
-        <v>0.94534242161074422</v>
+        <v>0.30981792774458472</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
@@ -15772,13 +16345,13 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1">
         <f t="array" ref="L24:N26">MMULT(H24:J26,A24:C26)</f>
-        <v>2.4441226103003057E-2</v>
+        <v>23.787635426399937</v>
       </c>
       <c r="M24" s="1">
-        <v>-23.916430747188979</v>
+        <v>3.7314001648095747</v>
       </c>
       <c r="N24" s="1">
-        <v>-3.3056894413959212</v>
+        <v>7.5468155156427841</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
@@ -15786,7 +16359,7 @@
       </c>
       <c r="Q24" s="1">
         <f>SQRT(M25*M25+M26*M26)</f>
-        <v>7.7959432955453618</v>
+        <v>12.849129958559782</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1">
@@ -15801,77 +16374,77 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1">
         <f t="array" ref="W24:Y26">MMULT(S24:U26,L24:N26)</f>
-        <v>2.4441226103003057E-2</v>
+        <v>23.787635426399937</v>
       </c>
       <c r="X24" s="1">
-        <v>-23.916430747188979</v>
+        <v>3.7314001648095747</v>
       </c>
       <c r="Y24" s="1">
-        <v>-3.3056894413959212</v>
+        <v>7.5468155156427841</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1">
         <f t="array" ref="AA24:AC26">MMULT(W24:Y26,TRANSPOSE(H24:J26))</f>
-        <v>-22.617186336582737</v>
+        <v>-21.461131669935632</v>
       </c>
       <c r="AB24" s="1">
-        <v>7.7755475225166517</v>
+        <v>-10.917635907784438</v>
       </c>
       <c r="AC24" s="1">
-        <v>-3.3056894413959212</v>
+        <v>7.5468155156427841</v>
       </c>
       <c r="AE24" s="1">
         <f t="array" ref="AE24:AG26">MMULT(AA24:AC26,TRANSPOSE(S24:U26))</f>
-        <v>-22.617186336582737</v>
+        <v>-21.461131669935632</v>
       </c>
       <c r="AF24" s="1">
-        <v>-7.5286908111153901</v>
+        <v>-10.917635907785835</v>
       </c>
       <c r="AG24" s="1">
-        <v>-3.8347798670194897</v>
+        <v>7.5468155156407635</v>
       </c>
     </row>
     <row r="25" spans="1:33">
       <c r="A25">
         <f t="shared" ref="A25:C26" si="1">A4</f>
-        <v>2.3105327871348644E-2</v>
+        <v>7.3698359137508982</v>
       </c>
       <c r="B25">
         <f>B4-R12</f>
-        <v>-20.976022175320345</v>
+        <v>-11.060845471867243</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>-6.5952465187148288</v>
+        <v>12.590370584930435</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F25" s="1">
         <f>A24/F24</f>
-        <v>-0.326079293888977</v>
+        <v>-0.95079590430757088</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1">
         <f>F26</f>
-        <v>-0.94534242161074422</v>
+        <v>-0.30981792774458472</v>
       </c>
       <c r="I25" s="1">
         <f>F25</f>
-        <v>-0.326079293888977</v>
+        <v>-0.95079590430757088</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1">
-        <v>8.6736173798840355E-19</v>
+        <v>-8.8817841970012523E-16</v>
       </c>
       <c r="M25" s="1">
-        <v>-5.0085804714389948</v>
+        <v>12.849129958559782</v>
       </c>
       <c r="N25" s="1">
-        <v>10.642313456045699</v>
+        <v>-10.782789234109741</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
@@ -15879,7 +16452,7 @@
       </c>
       <c r="Q25" s="1">
         <f>M25/Q24</f>
-        <v>-0.64245983860617883</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="1">
@@ -15887,61 +16460,61 @@
       </c>
       <c r="T25" s="1">
         <f>Q25</f>
-        <v>-0.64245983860617883</v>
+        <v>1</v>
       </c>
       <c r="U25" s="1">
         <f>-Q26</f>
-        <v>0.76631935625959668</v>
+        <v>-1.8507990305124423E-13</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1">
-        <v>-5.7428084954350538E-19</v>
+        <v>-8.8817841970012523E-16</v>
       </c>
       <c r="X25" s="1">
-        <v>7.7959432955453618</v>
+        <v>12.849129958559782</v>
       </c>
       <c r="Y25" s="1">
-        <v>-16.564947435674572</v>
+        <v>-10.782789234109741</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1">
-        <v>7.3698359137508982</v>
+        <v>3.9808908170818542</v>
       </c>
       <c r="AB25" s="1">
-        <v>-2.5420956850099357</v>
+        <v>-12.216900138514349</v>
       </c>
       <c r="AC25" s="1">
-        <v>-16.564947435674572</v>
+        <v>-10.782789234109741</v>
       </c>
       <c r="AE25" s="1">
-        <v>7.3698359137508982</v>
+        <v>3.9808908170818542</v>
       </c>
       <c r="AF25" s="1">
-        <v>-11.060845471867248</v>
+        <v>-12.216900138512354</v>
       </c>
       <c r="AG25" s="1">
-        <v>12.590370584930435</v>
+        <v>-10.782789234112002</v>
       </c>
     </row>
     <row r="26" spans="1:33">
       <c r="A26">
         <f t="shared" si="1"/>
-        <v>-2.2230636878927892E-20</v>
+        <v>2.1207995017926617E-19</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
-        <v>5.9741822476786401</v>
+        <v>-2.3781157270230822E-12</v>
       </c>
       <c r="C26">
         <f>C5-R12</f>
-        <v>-12.6940398553782</v>
+        <v>1.9984014443252818E-12</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F26" s="1">
         <f>-A25/F24</f>
-        <v>-0.94534242161074422</v>
+        <v>-0.30981792774458472</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1">
@@ -15955,13 +16528,13 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
-        <v>-2.2230636878927892E-20</v>
+        <v>2.1207995017926617E-19</v>
       </c>
       <c r="M26" s="1">
-        <v>5.9741822476786401</v>
+        <v>-2.3781157270230822E-12</v>
       </c>
       <c r="N26" s="1">
-        <v>-12.6940398553782</v>
+        <v>1.9984014443252818E-12</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
@@ -15969,7 +16542,7 @@
       </c>
       <c r="Q26" s="1">
         <f>-M26/Q24</f>
-        <v>-0.76631935625959668</v>
+        <v>1.8507990305124423E-13</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="1">
@@ -15977,40 +16550,40 @@
       </c>
       <c r="T26" s="1">
         <f>Q26</f>
-        <v>-0.76631935625959668</v>
+        <v>1.8507990305124423E-13</v>
       </c>
       <c r="U26" s="1">
         <f>Q25</f>
-        <v>-0.64245983860617883</v>
+        <v>1</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1">
-        <v>-6.5039379731812975E-19</v>
+        <v>2.120799500148822E-19</v>
       </c>
       <c r="X26" s="1">
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>-3.1032953984322376E-12</v>
+        <v>2.7238582542507655E-15</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1">
-        <v>2.1207995017926617E-19</v>
+        <v>-2.0164474785990435E-19</v>
       </c>
       <c r="AB26" s="1">
-        <v>6.1484484735732833E-19</v>
+        <v>-6.5706170629785912E-20</v>
       </c>
       <c r="AC26" s="1">
-        <v>-3.1032953984322376E-12</v>
+        <v>2.7238582542507655E-15</v>
       </c>
       <c r="AE26" s="1">
-        <v>2.1207995017926617E-19</v>
+        <v>-2.0164474785990435E-19</v>
       </c>
       <c r="AF26" s="1">
-        <v>-2.3781157270230822E-12</v>
+        <v>-6.5706171133917335E-20</v>
       </c>
       <c r="AG26" s="1">
-        <v>1.9937421896565653E-12</v>
+        <v>2.7238582542507655E-15</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -16029,47 +16602,48 @@
     <row r="30" spans="1:33">
       <c r="A30">
         <f>AE24+R12</f>
-        <v>-10.029677613025422</v>
+        <v>-8.8736229463783225</v>
       </c>
       <c r="B30">
         <f t="shared" ref="B30:C31" si="2">AF24</f>
-        <v>-7.5286908111153901</v>
+        <v>-10.917635907785835</v>
       </c>
       <c r="C30">
         <f t="shared" si="2"/>
-        <v>-3.8347798670194897</v>
+        <v>7.5468155156407635</v>
       </c>
     </row>
     <row r="31" spans="1:33">
       <c r="A31">
         <f t="shared" ref="A31:B32" si="3">AE25</f>
-        <v>7.3698359137508982</v>
+        <v>3.9808908170818542</v>
       </c>
       <c r="B31">
         <f>AF25+R12</f>
-        <v>1.5266632516900671</v>
+        <v>0.37060858504495542</v>
       </c>
       <c r="C31">
         <f t="shared" si="2"/>
-        <v>12.590370584930435</v>
+        <v>-10.782789234112002</v>
       </c>
     </row>
     <row r="32" spans="1:33">
       <c r="A32">
         <f t="shared" si="3"/>
-        <v>2.1207995017926617E-19</v>
+        <v>-2.0164474785990435E-19</v>
       </c>
       <c r="B32">
         <f t="shared" si="3"/>
-        <v>-2.3781157270230822E-12</v>
+        <v>-6.5706171133917335E-20</v>
       </c>
       <c r="C32">
         <f>AG26+R12</f>
-        <v>12.587508723559308</v>
+        <v>12.587508723557313</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17434,545 +18008,545 @@
     <row r="1" spans="1:8">
       <c r="A1">
         <f ca="1">RAND()*20-7</f>
-        <v>7.9094871569319274</v>
+        <v>7.8068931460313067</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:H16" ca="1" si="0">RAND()*20-7</f>
-        <v>-2.2138207610073568</v>
+        <v>-5.4218868755512677</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16392628576887791</v>
+        <v>1.4707881960181037</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4807129580119121</v>
+        <v>5.4993735121968115</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8454269769969489</v>
+        <v>10.14354485556688</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.952305541618887</v>
+        <v>7.5703138067299971</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6879569056033894</v>
+        <v>3.7669478209825265</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3220788411567739</v>
+        <v>-5.2218415948237151</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
         <f t="shared" ref="A2:A16" ca="1" si="1">RAND()*20-7</f>
-        <v>7.154616651938877</v>
+        <v>11.861017606170382</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0722813057663281</v>
+        <v>3.4101152247394459</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8589355750185828</v>
+        <v>6.7107778580434747</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8104309583642326</v>
+        <v>0.64650180854225869</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.903907712216387</v>
+        <v>-5.2831941032591372</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4704604973111639</v>
+        <v>-3.1914165565794388</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.06795579635471</v>
+        <v>8.4149564942070487</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6114264462145353</v>
+        <v>5.5590730125038252</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9441788242987919</v>
+        <v>10.286388597524734</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.8455801347462124</v>
+        <v>8.5661216214055287</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4161400049883168</v>
+        <v>-4.6250188492194715</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6702013298754519</v>
+        <v>5.0970788286865378</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43812295381335975</v>
+        <v>6.6005028242037653</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>10.760374468124951</v>
+        <v>10.602935434617951</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4566905808556925</v>
+        <v>-1.1473272986431597</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.202985067324585</v>
+        <v>8.0227367713805471</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5365652893755701</v>
+        <v>6.0499396077615408</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.53512826343225406</v>
+        <v>3.4032899855038252</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9371992612388489</v>
+        <v>0.22420659621348271</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1057418654362507</v>
+        <v>-1.0015343593731423</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.168637744740472</v>
+        <v>12.855936950266269</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.991727240962906</v>
+        <v>11.88205329363856</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>12.937610113847718</v>
+        <v>7.0957785569422462</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.116145855941995</v>
+        <v>1.5720021148277681</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2122666397695658</v>
+        <v>10.515714368933814</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.3759592070820794</v>
+        <v>9.8093159103015282</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30874508448758231</v>
+        <v>-3.6291322009191744</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5059877810292868</v>
+        <v>-6.4880786441451992</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6432924810681975</v>
+        <v>6.2500795325949046</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.863566082160688</v>
+        <v>5.6539943065458758</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.3994729453746464</v>
+        <v>6.7045731162685662</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.3563140236218283</v>
+        <v>-4.0479669645668857</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1474042697163096</v>
+        <v>10.514467906995446</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>11.883926417586459</v>
+        <v>0.97176530531841188</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5290794490463497E-2</v>
+        <v>-2.7244651064227821</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.8234523684380326</v>
+        <v>4.8472594473352526</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5634531803317788</v>
+        <v>-4.7175200587772386</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8785691191847578</v>
+        <v>6.2073427694431338</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2250903913058711</v>
+        <v>0.15921301942659305</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0889148392602852</v>
+        <v>1.3161010010811545</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0707743800545648</v>
+        <v>-6.1034901592017636</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>11.915886062787262</v>
+        <v>-6.5619303906866682</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9504137569228766</v>
+        <v>9.494499729150899</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6870951421601834</v>
+        <v>-0.69135479217802143</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1521695485011536</v>
+        <v>10.387022391997672</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4098922805332847</v>
+        <v>-3.9044477867348819</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>10.613538162077941</v>
+        <v>9.6795679035147444</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4842832446064449</v>
+        <v>-0.33976066007312511</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0210300772528171</v>
+        <v>-6.3692856959867843</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9767924811918114</v>
+        <v>1.5946949890908755</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2157914216620114</v>
+        <v>3.8414418949944569</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.3263856817163582</v>
+        <v>8.9307210996976742</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1908344620440214</v>
+        <v>10.206436539656231</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.79433298462935653</v>
+        <v>-4.9591594548558557</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>12.301604438475227</v>
+        <v>-0.28118132430479115</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>12.263878671103846</v>
+        <v>2.4022250006632735</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0931796125932998</v>
+        <v>0.12651646453267507</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5986783052002451</v>
+        <v>11.93318563929579</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5016621816982987</v>
+        <v>1.5244662140014178</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>12.800182717716236</v>
+        <v>-6.4973074079832358</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6708079719297277</v>
+        <v>10.477120789113158</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>10.313852551123947</v>
+        <v>4.512739922161682</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>10.161431639908223</v>
+        <v>11.408477509917866</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.5673860846408783</v>
+        <v>0.57074699117446848</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>12.321981689606158</v>
+        <v>7.2205064865981985</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2979819208274197</v>
+        <v>-6.6050285289770247</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7895414875692985</v>
+        <v>9.2282973961709516</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7579705126006289E-3</v>
+        <v>0.49645598949241254</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1966783338395288</v>
+        <v>-2.6660209788354932</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.9156939925415806</v>
+        <v>9.1294319853451249</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6675013499417517</v>
+        <v>4.9443234080213667</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8900172858018891</v>
+        <v>-3.0255143319499083</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.4874203486113413</v>
+        <v>9.4050545804718411</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2868373843883401</v>
+        <v>6.2985004745626263</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.7940239705538836</v>
+        <v>2.5541050297198105</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>10.557329688700356</v>
+        <v>-3.5264977219358844</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7849322678626613</v>
+        <v>6.1847949653047856</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9963443354403525</v>
+        <v>7.7925041490684883</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8846533745928093</v>
+        <v>3.3531830078916887</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>12.501224931171734</v>
+        <v>1.9688912496429403</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.8330515491554982</v>
+        <v>11.21153172787432</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7517097451064814</v>
+        <v>-4.8085882755765024</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.8698550989101141</v>
+        <v>10.755254056238787</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4235917077335305</v>
+        <v>-4.8533534655537585</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6695703985156456</v>
+        <v>9.6199274563292967</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3656712408824934</v>
+        <v>-2.220946647631024</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.543033394831042</v>
+        <v>4.3605278029573924</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2118278029925555</v>
+        <v>-1.8589485034460971</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6165361143597092</v>
+        <v>1.3165879646185576</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.979414162129473</v>
+        <v>0.54396091019212012</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.3028896373085743</v>
+        <v>12.54171322189779</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8613306903397469</v>
+        <v>12.845557694282668</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.2709419340851493</v>
+        <v>0.68637677626997373</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5587063564986607</v>
+        <v>11.064650986471122</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>10.622747210037215</v>
+        <v>-0.67848992495319038</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1431560397569793</v>
+        <v>6.2562005397492833</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4129087787761261</v>
+        <v>5.4435087811790712</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7636084599836916</v>
+        <v>-5.7721337947420324</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8316830352906344</v>
+        <v>-2.7724297078090059</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8719301355950062</v>
+        <v>-2.8702672454893339</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3981668764028452</v>
+        <v>10.34370984578036</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7768070380842502</v>
+        <v>-1.5864192307689544</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0390050263302388</v>
+        <v>2.7086381241617214</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1839134187863944</v>
+        <v>-5.5684912638731925</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6149315603464398</v>
+        <v>9.6046865587843158</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.2387170381038928</v>
+        <v>9.2546203132204887</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48991898253817112</v>
+        <v>2.6450054933916221</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1440092509603774</v>
+        <v>5.0525152090039551</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5025844029578561</v>
+        <v>1.2110691547495822</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.605404378478763</v>
+        <v>7.2147624447350669</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28932268624851787</v>
+        <v>-0.55748955338555817</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4430537508880228</v>
+        <v>3.103392542729047</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>12.81497037526999</v>
+        <v>-0.13270669665383927</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94359261929781724</v>
+        <v>10.836006245635282</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6364329218515579</v>
+        <v>-1.1018954561118592</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>11.946267378849175</v>
+        <v>-5.0911688139730531</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3435110876448757</v>
+        <v>4.1362543169801587</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>10.173089344657097</v>
+        <v>12.567506077075411</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>12.352980591162037</v>
+        <v>10.155997009693117</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.348361589264508</v>
+        <v>-0.23910156072264588</v>
       </c>
     </row>
   </sheetData>
